--- a/sqlserver2008/docs/sql2008_ParamGenerator.xlsx
+++ b/sqlserver2008/docs/sql2008_ParamGenerator.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$L$72</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$L$21</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="578">
   <si>
     <t>SQL Server component</t>
   </si>
@@ -2050,6 +2050,229 @@
   </si>
   <si>
     <t>https://msdn.microsoft.com/en-us/library/ms144259%28v=sql.100%29.aspx</t>
+  </si>
+  <si>
+    <t>Specifies components to install.</t>
+  </si>
+  <si>
+    <t>Specifies the product key for the edition of  If this parameter is not specified, SQL Server 2008 Enterprise Evaluation is used.</t>
+  </si>
+  <si>
+    <t>Specifies the password for the SQL Server sa account.</t>
+  </si>
+  <si>
+    <t>/USESYSDB</t>
+  </si>
+  <si>
+    <t>Specifies the Install mode for Reporting Services.</t>
+  </si>
+  <si>
+    <t>Specifies the startup mode for Reporting Services.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Required to indicate the installation workflow.
+Supported values:
+Install
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specifies the error reporting for SQL Server.
+For more information, see Privacy Statement for the Microsoft Error Reporting Service.
+Supported values:
+1=enabled
+0=disabled
+</t>
+  </si>
+  <si>
+    <t>/HELP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specifies feature usage reporting for SQL Server.
+For more information, see Privacy Statement for the Microsoft Error Reporting Service.
+Supported values:
+1=enabled
+0=disabled
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specifies the startup mode for the SQL Server Agent service.Specifies the startup mode for the SQL Server Agent service.
+Supported values:
+Automatic
+Disabled
+Manual
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specifies the directory for Analysis Services backup files.
+Default values:
+For WOW mode on 64-bit: %Program Files(x86)%\Microsoft SQL Server\ &lt;INSTANCEDIR&gt;\&lt;ASInstanceID&gt;\OLAP\Backup.
+For all other installations: %Program Files%\Microsoft SQL Server\ &lt;INSTANCEDIR&gt;\&lt;ASInstanceID&gt;\OLAP\Backup.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specifies the collation setting for Analysis Services.
+Default value:
+Latin1_General_CI_AS
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specifies the directory for Analysis Services configuration files.
+Default values:
+For WOW mode on 64-bit: %Program Files(x86)%\Microsoft SQL Server\ &lt;INSTANCEDIR&gt;\&lt;ASInstanceID&gt;\OLAP\Config.
+For all other installations: %Program Files%\Microsoft SQL Server\&lt;INSTANCEDIR&gt;\&lt;ASInstanceID&gt;\OLAP\Config.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specifies the directory for Analysis Services data files.
+Default values:
+For WOW mode on 64-bit: %Program Files(x86)%\Microsoft SQL Server\&lt;INSTANCEDIR&gt;\&lt;ASInstanceID&gt;\OLAP\Data.
+For all other installations: %Program Files%\Microsoft SQL Server\&lt;INSTANCEDIR&gt;\&lt;ASInstanceID&gt;\OLAP\Data.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specifies the directory for Analysis Services log files.
+Default values:
+For WOW mode on 64-bit: %Program Files(x86)%\Microsoft SQL Server\&lt;INSTANCEDIR&gt;\&lt;ASInstanceID&gt;\OLAP\Log.
+For all other installations: %Program Files%\Microsoft SQL Server\&lt;INSTANCEDIR&gt;\&lt;ASInstanceID&gt;\OLAP\Log.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specifies the startup mode for the Analysis Services service.
+Supported values:
+Automatic
+Disabled
+Manual
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specifies the directory for Analysis Services temporary files.
+Default values:
+For WOW mode on 64-bit: %Program Files(x86)%\Microsoft SQL Server\&lt;INSTANCEDIR&gt;\&lt;ASInstanceID&gt;\OLAP\Temp.
+For all other installations: %Program Files%\Microsoft SQL Server\&lt;INSTANCEDIR&gt;\&lt;ASInstanceID&gt;\OLAP\Temp.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specifies whether the MSOLAP provider can run in-process.
+Default value:
+1=enabled
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specifies the startup mode for SQL Server Browser service.
+Supported values:
+Automatic
+Disabled
+Manual
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specifies the data directory for SQL Server data files.
+Default values:
+For WOW mode on 64-bit:%Program Files(x86)%\Microsoft SQL Server\
+For all other installations:%Program Files%\Microsoft SQL Server\
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specifies the security mode for SQL Server.
+If this parameter is not supplied, then Windows-only authentication mode is supported.
+Supported value:
+SQL
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specifies the directory for backup files.
+Default value:
+&lt;InstallSQLDataDir&gt;\ &lt;SQLInstanceID&gt;\MSSQL\Backup
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specifies the collation settings for SQL Server.
+Default value:
+SQL_Latin1_General_CP1_CS_AS
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specifies the startup mode for the SQL Server service.
+Supported values:
+Automatic
+Disabled
+Manual
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specifies the directory for the data files for tempdb.
+Default value:
+&lt;InstallSQLDataDir&gt;\ &lt;SQLInstanceID&gt;\MSSQL\Data
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specifies the directory for the log files for tempdb.
+Default value:
+&lt;InstallSQLDataDir&gt;\ &lt;SQLInstanceID&gt;\MSSQL\Data
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specifies the directory for the data files for user databases.
+Default value:
+&lt;InstallSQLDataDir&gt;\ &lt;SQLInstanceID&gt;\MSSQL\Data
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specifies the directory for the log files for user databases.
+Default value:
+&lt;InstallSQLDataDir&gt;\ &lt;SQLInstanceID&gt;\MSSQL\Data
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specifies the location of the SQL Server system databases to use for this installation.
+The path that is specified must not include the "\Data" suffix.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specifies the access level for the FILESTREAM feature.
+Supported values:
+0 =Disable FILESTREAM support for this instance. (Default value)
+1=Enable FILESTREAM for Transact-SQL access.
+2=Enable FILESTREAM for Transact-SQL and file I/O streaming access. (Not valid for cluster scenarios)
+3=Allow remote clients to have streaming access to FILESTREAM data.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optional
+Required when FILESTREAMLEVEL is greater than 1.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specifies the account for Full-Text filter launcher service.
+This parameter is ignored in Windows Server 2008 and Windows Vista operating systems. ServiceSID is used to help secure the communication between SQL Server and Full-text Filter Daemon. If the values are not provided, the Full-text Filter Launcher Service is disabled. You have to use SQL Server Control Manager to change the service account and enable full-text functionality.
+Default value:
+Local Service Account
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specifies the password for the Full-Text filter launcher service.
+This parameter is ignored in Windows Server 2008 and Windows Vista operating systems.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specifies the account for Integration Services.
+Default value:
+NT AUTHORITY\NETWORK SERVICE
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specifies the state of the Named Pipes protocol for the SQL Server service.
+Supported values:
+0=disable the Named Pipes protocol
+1=enable the Named Pipes protocol
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specifies the state of the TCP protocol for the SQL Server service. 
+Supported values:
+0=disable the TCP protocol
+1=enable the TCP protocol
+</t>
   </si>
 </sst>
 </file>
@@ -2129,7 +2352,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2151,22 +2374,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2176,6 +2384,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
@@ -2482,11 +2699,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M72"/>
+  <dimension ref="A1:M62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <pane ySplit="3" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2506,7 +2723,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="12" t="s">
         <v>540</v>
       </c>
       <c r="G1" s="5" t="s">
@@ -2555,22 +2772,27 @@
         <v>538</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="8"/>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4" s="10"/>
+    <row r="4" spans="1:13" ht="120.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>547</v>
+      </c>
+      <c r="F4" s="8"/>
       <c r="G4" t="str">
         <f>SUBSTITUTE(B4,"/","")</f>
-        <v/>
+        <v>ACTION</v>
       </c>
       <c r="H4" t="str">
         <f>"choco:sqlserver2008:"&amp;G4</f>
-        <v>choco:sqlserver2008:</v>
+        <v>choco:sqlserver2008:ACTION</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -2584,60 +2806,73 @@
       </c>
       <c r="L4" t="str">
         <f>"if (Test-Path env:\"&amp;H4&amp;"){Add-Content $configFile """&amp;G4&amp;"=`""$env:"&amp;H4&amp;"`""""}"</f>
-        <v>if (Test-Path env:\choco:sqlserver2008:){Add-Content $configFile "=`"$env:choco:sqlserver2008:`""}</v>
+        <v>if (Test-Path env:\choco:sqlserver2008:ACTION){Add-Content $configFile "ACTION=`"$env:choco:sqlserver2008:ACTION`""}</v>
       </c>
       <c r="M4" t="str">
         <f>"$env:"&amp;H4&amp;"="""""</f>
-        <v>$env:choco:sqlserver2008:=""</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="8"/>
-      <c r="E5">
-        <v>1</v>
+        <v>$env:choco:sqlserver2008:ACTION=""</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="195" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="G5" t="str">
-        <f t="shared" ref="G5:G7" si="0">SUBSTITUTE(B5,"/","")</f>
-        <v/>
+        <f t="shared" ref="G5:G18" si="0">SUBSTITUTE(B5,"/","")</f>
+        <v>CONFIGURATIONFILE</v>
       </c>
       <c r="H5" t="str">
-        <f t="shared" ref="H5:H68" si="1">"choco:sqlserver2008:"&amp;G5</f>
-        <v>choco:sqlserver2008:</v>
+        <f t="shared" ref="H5:H18" si="1">"choco:sqlserver2008:"&amp;G5</f>
+        <v>choco:sqlserver2008:CONFIGURATIONFILE</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="str">
-        <f t="shared" ref="K5:K68" si="2">IF(J5,"if (!(Test-Path env:\"&amp;H5&amp;")){$env:"&amp;H5&amp;"="""&amp;F5&amp;"""}","")</f>
-        <v>if (!(Test-Path env:\choco:sqlserver2008:)){$env:choco:sqlserver2008:=""}</v>
+        <f t="shared" ref="K5:K19" si="2">IF(J5,"if (!(Test-Path env:\"&amp;H5&amp;")){$env:"&amp;H5&amp;"="""&amp;F5&amp;"""}","")</f>
+        <v/>
       </c>
       <c r="L5" t="str">
-        <f t="shared" ref="L5:L68" si="3">"if (Test-Path env:\"&amp;H5&amp;"){Add-Content $configFile """&amp;G5&amp;"=`""$env:"&amp;H5&amp;"`""""}"</f>
-        <v>if (Test-Path env:\choco:sqlserver2008:){Add-Content $configFile "=`"$env:choco:sqlserver2008:`""}</v>
+        <f t="shared" ref="L5:L19" si="3">"if (Test-Path env:\"&amp;H5&amp;"){Add-Content $configFile """&amp;G5&amp;"=`""$env:"&amp;H5&amp;"`""""}"</f>
+        <v>if (Test-Path env:\choco:sqlserver2008:CONFIGURATIONFILE){Add-Content $configFile "CONFIGURATIONFILE=`"$env:choco:sqlserver2008:CONFIGURATIONFILE`""}</v>
       </c>
       <c r="M5" t="str">
-        <f t="shared" ref="M5:M68" si="4">"$env:"&amp;H5&amp;"="""""</f>
-        <v>$env:choco:sqlserver2008:=""</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="8"/>
+        <f t="shared" ref="M5:M19" si="4">"$env:"&amp;H5&amp;"="""""</f>
+        <v>$env:choco:sqlserver2008:CONFIGURATIONFILE=""</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>548</v>
+      </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>ERRORREPORTING</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="1"/>
-        <v>choco:sqlserver2008:</v>
+        <v>choco:sqlserver2008:ERRORREPORTING</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -2651,30 +2886,35 @@
       </c>
       <c r="L6" t="str">
         <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2008:){Add-Content $configFile "=`"$env:choco:sqlserver2008:`""}</v>
+        <v>if (Test-Path env:\choco:sqlserver2008:ERRORREPORTING){Add-Content $configFile "ERRORREPORTING=`"$env:choco:sqlserver2008:ERRORREPORTING`""}</v>
       </c>
       <c r="M6" t="str">
         <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2008:=""</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="8"/>
+        <v>$env:choco:sqlserver2008:ERRORREPORTING=""</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>541</v>
+      </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>FEATURES</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="1"/>
-        <v>choco:sqlserver2008:</v>
+        <v>choco:sqlserver2008:FEATURES</v>
       </c>
       <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
         <v>0</v>
       </c>
       <c r="K7" t="str">
@@ -2683,31 +2923,35 @@
       </c>
       <c r="L7" t="str">
         <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2008:){Add-Content $configFile "=`"$env:choco:sqlserver2008:`""}</v>
+        <v>if (Test-Path env:\choco:sqlserver2008:FEATURES){Add-Content $configFile "FEATURES=`"$env:choco:sqlserver2008:FEATURES`""}</v>
       </c>
       <c r="M7" t="str">
         <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2008:=""</v>
+        <v>$env:choco:sqlserver2008:FEATURES=""</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="8"/>
-      <c r="F8" s="13"/>
+      <c r="A8" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>549</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>33</v>
+      </c>
       <c r="G8" t="str">
-        <f t="shared" ref="G8:G71" si="5">SUBSTITUTE(B8,"/","")</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>HELP</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="1"/>
-        <v>choco:sqlserver2008:</v>
+        <v>choco:sqlserver2008:HELP</v>
       </c>
       <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
         <v>0</v>
       </c>
       <c r="K8" t="str">
@@ -2716,30 +2960,35 @@
       </c>
       <c r="L8" t="str">
         <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2008:){Add-Content $configFile "=`"$env:choco:sqlserver2008:`""}</v>
+        <v>if (Test-Path env:\choco:sqlserver2008:HELP){Add-Content $configFile "HELP=`"$env:choco:sqlserver2008:HELP`""}</v>
       </c>
       <c r="M8" t="str">
         <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2008:=""</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="195" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="9"/>
+        <v>$env:choco:sqlserver2008:HELP=""</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>35</v>
+      </c>
       <c r="G9" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>INDICATEPROGRESS</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="1"/>
-        <v>choco:sqlserver2008:</v>
+        <v>choco:sqlserver2008:INDICATEPROGRESS</v>
       </c>
       <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
         <v>0</v>
       </c>
       <c r="K9" t="str">
@@ -2748,30 +2997,35 @@
       </c>
       <c r="L9" t="str">
         <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2008:){Add-Content $configFile "=`"$env:choco:sqlserver2008:`""}</v>
+        <v>if (Test-Path env:\choco:sqlserver2008:INDICATEPROGRESS){Add-Content $configFile "INDICATEPROGRESS=`"$env:choco:sqlserver2008:INDICATEPROGRESS`""}</v>
       </c>
       <c r="M9" t="str">
         <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2008:=""</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="195" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="8"/>
+        <v>$env:choco:sqlserver2008:INDICATEPROGRESS=""</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>37</v>
+      </c>
       <c r="G10" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>INSTALLSHAREDDIR</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="1"/>
-        <v>choco:sqlserver2008:</v>
+        <v>choco:sqlserver2008:INSTALLSHAREDDIR</v>
       </c>
       <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
         <v>0</v>
       </c>
       <c r="K10" t="str">
@@ -2780,63 +3034,72 @@
       </c>
       <c r="L10" t="str">
         <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2008:){Add-Content $configFile "=`"$env:choco:sqlserver2008:`""}</v>
+        <v>if (Test-Path env:\choco:sqlserver2008:INSTALLSHAREDDIR){Add-Content $configFile "INSTALLSHAREDDIR=`"$env:choco:sqlserver2008:INSTALLSHAREDDIR`""}</v>
       </c>
       <c r="M10" t="str">
         <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2008:=""</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="F11" s="14"/>
+        <v>$env:choco:sqlserver2008:INSTALLSHAREDDIR=""</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>41</v>
+      </c>
       <c r="G11" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>INSTALLSHAREDWOWDIR</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="1"/>
-        <v>choco:sqlserver2008:</v>
+        <v>choco:sqlserver2008:INSTALLSHAREDWOWDIR</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
       <c r="K11" t="str">
         <f t="shared" si="2"/>
-        <v>if (!(Test-Path env:\choco:sqlserver2008:)){$env:choco:sqlserver2008:=""}</v>
+        <v/>
       </c>
       <c r="L11" t="str">
         <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2008:){Add-Content $configFile "=`"$env:choco:sqlserver2008:`""}</v>
+        <v>if (Test-Path env:\choco:sqlserver2008:INSTALLSHAREDWOWDIR){Add-Content $configFile "INSTALLSHAREDWOWDIR=`"$env:choco:sqlserver2008:INSTALLSHAREDWOWDIR`""}</v>
       </c>
       <c r="M11" t="str">
         <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2008:=""</v>
+        <v>$env:choco:sqlserver2008:INSTALLSHAREDWOWDIR=""</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="8"/>
+      <c r="A12" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>45</v>
+      </c>
       <c r="G12" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>INSTANCEDIR</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="1"/>
-        <v>choco:sqlserver2008:</v>
+        <v>choco:sqlserver2008:INSTANCEDIR</v>
       </c>
       <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
         <v>0</v>
       </c>
       <c r="K12" t="str">
@@ -2845,30 +3108,35 @@
       </c>
       <c r="L12" t="str">
         <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2008:){Add-Content $configFile "=`"$env:choco:sqlserver2008:`""}</v>
+        <v>if (Test-Path env:\choco:sqlserver2008:INSTANCEDIR){Add-Content $configFile "INSTANCEDIR=`"$env:choco:sqlserver2008:INSTANCEDIR`""}</v>
       </c>
       <c r="M12" t="str">
         <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2008:=""</v>
+        <v>$env:choco:sqlserver2008:INSTANCEDIR=""</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="8"/>
+      <c r="A13" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>47</v>
+      </c>
       <c r="G13" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>INSTANCEID</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="1"/>
-        <v>choco:sqlserver2008:</v>
+        <v>choco:sqlserver2008:INSTANCEID</v>
       </c>
       <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
         <v>0</v>
       </c>
       <c r="K13" t="str">
@@ -2877,30 +3145,35 @@
       </c>
       <c r="L13" t="str">
         <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2008:){Add-Content $configFile "=`"$env:choco:sqlserver2008:`""}</v>
+        <v>if (Test-Path env:\choco:sqlserver2008:INSTANCEID){Add-Content $configFile "INSTANCEID=`"$env:choco:sqlserver2008:INSTANCEID`""}</v>
       </c>
       <c r="M13" t="str">
         <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2008:=""</v>
+        <v>$env:choco:sqlserver2008:INSTANCEID=""</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="8"/>
+      <c r="A14" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>49</v>
+      </c>
       <c r="G14" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>INSTANCENAME</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="1"/>
-        <v>choco:sqlserver2008:</v>
+        <v>choco:sqlserver2008:INSTANCENAME</v>
       </c>
       <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
         <v>0</v>
       </c>
       <c r="K14" t="str">
@@ -2909,30 +3182,35 @@
       </c>
       <c r="L14" t="str">
         <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2008:){Add-Content $configFile "=`"$env:choco:sqlserver2008:`""}</v>
+        <v>if (Test-Path env:\choco:sqlserver2008:INSTANCENAME){Add-Content $configFile "INSTANCENAME=`"$env:choco:sqlserver2008:INSTANCENAME`""}</v>
       </c>
       <c r="M14" t="str">
         <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2008:=""</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="8"/>
+        <v>$env:choco:sqlserver2008:INSTANCENAME=""</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>542</v>
+      </c>
       <c r="G15" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>PID</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="1"/>
-        <v>choco:sqlserver2008:</v>
+        <v>choco:sqlserver2008:PID</v>
       </c>
       <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
         <v>0</v>
       </c>
       <c r="K15" t="str">
@@ -2941,30 +3219,35 @@
       </c>
       <c r="L15" t="str">
         <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2008:){Add-Content $configFile "=`"$env:choco:sqlserver2008:`""}</v>
+        <v>if (Test-Path env:\choco:sqlserver2008:PID){Add-Content $configFile "PID=`"$env:choco:sqlserver2008:PID`""}</v>
       </c>
       <c r="M15" t="str">
         <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2008:=""</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="10"/>
+        <v>$env:choco:sqlserver2008:PID=""</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="G16" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>Q</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="1"/>
-        <v>choco:sqlserver2008:</v>
+        <v>choco:sqlserver2008:Q</v>
       </c>
       <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
         <v>0</v>
       </c>
       <c r="K16" t="str">
@@ -2973,30 +3256,35 @@
       </c>
       <c r="L16" t="str">
         <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2008:){Add-Content $configFile "=`"$env:choco:sqlserver2008:`""}</v>
+        <v>if (Test-Path env:\choco:sqlserver2008:Q){Add-Content $configFile "Q=`"$env:choco:sqlserver2008:Q`""}</v>
       </c>
       <c r="M16" t="str">
         <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2008:=""</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="11"/>
+        <v>$env:choco:sqlserver2008:Q=""</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>68</v>
+      </c>
       <c r="G17" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>QS</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="1"/>
-        <v>choco:sqlserver2008:</v>
+        <v>choco:sqlserver2008:QS</v>
       </c>
       <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
         <v>0</v>
       </c>
       <c r="K17" t="str">
@@ -3005,30 +3293,35 @@
       </c>
       <c r="L17" t="str">
         <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2008:){Add-Content $configFile "=`"$env:choco:sqlserver2008:`""}</v>
+        <v>if (Test-Path env:\choco:sqlserver2008:QS){Add-Content $configFile "QS=`"$env:choco:sqlserver2008:QS`""}</v>
       </c>
       <c r="M17" t="str">
         <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2008:=""</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="8"/>
+        <v>$env:choco:sqlserver2008:QS=""</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="210" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>550</v>
+      </c>
       <c r="G18" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>SQMREPORTING</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="1"/>
-        <v>choco:sqlserver2008:</v>
+        <v>choco:sqlserver2008:SQMREPORTING</v>
       </c>
       <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
         <v>0</v>
       </c>
       <c r="K18" t="str">
@@ -3037,30 +3330,35 @@
       </c>
       <c r="L18" t="str">
         <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2008:){Add-Content $configFile "=`"$env:choco:sqlserver2008:`""}</v>
+        <v>if (Test-Path env:\choco:sqlserver2008:SQMREPORTING){Add-Content $configFile "SQMREPORTING=`"$env:choco:sqlserver2008:SQMREPORTING`""}</v>
       </c>
       <c r="M18" t="str">
         <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2008:=""</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="10"/>
+        <v>$env:choco:sqlserver2008:SQMREPORTING=""</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>79</v>
+      </c>
       <c r="G19" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <f t="shared" ref="G19:G32" si="5">SUBSTITUTE(B19,"/","")</f>
+        <v>HIDECONSOLE</v>
       </c>
       <c r="H19" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2008:</v>
+        <f t="shared" ref="H19:H32" si="6">"choco:sqlserver2008:"&amp;G19</f>
+        <v>choco:sqlserver2008:HIDECONSOLE</v>
       </c>
       <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
         <v>0</v>
       </c>
       <c r="K19" t="str">
@@ -3069,1579 +3367,1133 @@
       </c>
       <c r="L19" t="str">
         <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2008:){Add-Content $configFile "=`"$env:choco:sqlserver2008:`""}</v>
+        <v>if (Test-Path env:\choco:sqlserver2008:HIDECONSOLE){Add-Content $configFile "HIDECONSOLE=`"$env:choco:sqlserver2008:HIDECONSOLE`""}</v>
       </c>
       <c r="M19" t="str">
         <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2008:=""</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="10"/>
-      <c r="E20">
-        <v>1</v>
+        <v>$env:choco:sqlserver2008:HIDECONSOLE=""</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>82</v>
       </c>
       <c r="G20" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>AGTSVCACCOUNT</v>
       </c>
       <c r="H20" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2008:</v>
+        <f t="shared" si="6"/>
+        <v>choco:sqlserver2008:AGTSVCACCOUNT</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
-      <c r="J20">
-        <v>1</v>
-      </c>
       <c r="K20" t="str">
-        <f t="shared" si="2"/>
-        <v>if (!(Test-Path env:\choco:sqlserver2008:)){$env:choco:sqlserver2008:=""}</v>
+        <f t="shared" ref="K20:K21" si="7">IF(J20,"if (!(Test-Path env:\"&amp;H20&amp;")){$env:"&amp;H20&amp;"="""&amp;F20&amp;"""}","")</f>
+        <v/>
       </c>
       <c r="L20" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2008:){Add-Content $configFile "=`"$env:choco:sqlserver2008:`""}</v>
+        <f t="shared" ref="L20:L21" si="8">"if (Test-Path env:\"&amp;H20&amp;"){Add-Content $configFile """&amp;G20&amp;"=`""$env:"&amp;H20&amp;"`""""}"</f>
+        <v>if (Test-Path env:\choco:sqlserver2008:AGTSVCACCOUNT){Add-Content $configFile "AGTSVCACCOUNT=`"$env:choco:sqlserver2008:AGTSVCACCOUNT`""}</v>
       </c>
       <c r="M20" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2008:=""</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="10"/>
+        <f t="shared" ref="M20:M21" si="9">"$env:"&amp;H20&amp;"="""""</f>
+        <v>$env:choco:sqlserver2008:AGTSVCACCOUNT=""</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>84</v>
+      </c>
       <c r="G21" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>AGTSVCPASSWORD</v>
       </c>
       <c r="H21" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2008:</v>
+        <f t="shared" si="6"/>
+        <v>choco:sqlserver2008:AGTSVCPASSWORD</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
       <c r="K21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L21" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2008:){Add-Content $configFile "=`"$env:choco:sqlserver2008:`""}</v>
+        <f t="shared" si="8"/>
+        <v>if (Test-Path env:\choco:sqlserver2008:AGTSVCPASSWORD){Add-Content $configFile "AGTSVCPASSWORD=`"$env:choco:sqlserver2008:AGTSVCPASSWORD`""}</v>
       </c>
       <c r="M21" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2008:=""</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="8"/>
+        <f t="shared" si="9"/>
+        <v>$env:choco:sqlserver2008:AGTSVCPASSWORD=""</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="210" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>551</v>
+      </c>
       <c r="G22" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>AGTSVCSTARTUPTYPE</v>
       </c>
       <c r="H22" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2008:</v>
+        <f t="shared" si="6"/>
+        <v>choco:sqlserver2008:AGTSVCSTARTUPTYPE</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L22" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2008:){Add-Content $configFile "=`"$env:choco:sqlserver2008:`""}</v>
-      </c>
-      <c r="M22" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2008:=""</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="8"/>
+    </row>
+    <row r="23" spans="1:13" ht="240" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>552</v>
+      </c>
       <c r="G23" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>ASBACKUPDIR</v>
       </c>
       <c r="H23" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2008:</v>
+        <f t="shared" si="6"/>
+        <v>choco:sqlserver2008:ASBACKUPDIR</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
-      <c r="K23" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L23" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2008:){Add-Content $configFile "=`"$env:choco:sqlserver2008:`""}</v>
-      </c>
-      <c r="M23" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2008:=""</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="10"/>
+    </row>
+    <row r="24" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>553</v>
+      </c>
       <c r="G24" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>ASCOLLATION</v>
       </c>
       <c r="H24" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2008:</v>
+        <f t="shared" si="6"/>
+        <v>choco:sqlserver2008:ASCOLLATION</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
-      <c r="K24" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L24" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2008:){Add-Content $configFile "=`"$env:choco:sqlserver2008:`""}</v>
-      </c>
-      <c r="M24" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2008:=""</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="10"/>
+    </row>
+    <row r="25" spans="1:13" ht="240" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>554</v>
+      </c>
       <c r="G25" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>ASCONFIGDIR</v>
       </c>
       <c r="H25" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2008:</v>
+        <f t="shared" si="6"/>
+        <v>choco:sqlserver2008:ASCONFIGDIR</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
-      <c r="K25" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L25" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2008:){Add-Content $configFile "=`"$env:choco:sqlserver2008:`""}</v>
-      </c>
-      <c r="M25" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2008:=""</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="10"/>
+    </row>
+    <row r="26" spans="1:13" ht="240" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>555</v>
+      </c>
       <c r="G26" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>ASDATADIR</v>
       </c>
       <c r="H26" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2008:</v>
+        <f t="shared" si="6"/>
+        <v>choco:sqlserver2008:ASDATADIR</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
-      <c r="K26" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L26" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2008:){Add-Content $configFile "=`"$env:choco:sqlserver2008:`""}</v>
-      </c>
-      <c r="M26" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2008:=""</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="9"/>
+    </row>
+    <row r="27" spans="1:13" ht="240" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>556</v>
+      </c>
       <c r="G27" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>ASLOGDIR</v>
       </c>
       <c r="H27" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2008:</v>
+        <f t="shared" si="6"/>
+        <v>choco:sqlserver2008:ASLOGDIR</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
-      <c r="K27" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L27" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2008:){Add-Content $configFile "=`"$env:choco:sqlserver2008:`""}</v>
-      </c>
-      <c r="M27" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2008:=""</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="8"/>
+    </row>
+    <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>113</v>
+      </c>
       <c r="G28" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>ASSVCACCOUNT</v>
       </c>
       <c r="H28" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2008:</v>
+        <f t="shared" si="6"/>
+        <v>choco:sqlserver2008:ASSVCACCOUNT</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
-      <c r="K28" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L28" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2008:){Add-Content $configFile "=`"$env:choco:sqlserver2008:`""}</v>
-      </c>
-      <c r="M28" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2008:=""</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="10"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="8"/>
+    </row>
+    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>115</v>
+      </c>
       <c r="G29" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>ASSVCPASSWORD</v>
       </c>
       <c r="H29" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2008:</v>
+        <f t="shared" si="6"/>
+        <v>choco:sqlserver2008:ASSVCPASSWORD</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
-      <c r="K29" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L29" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2008:){Add-Content $configFile "=`"$env:choco:sqlserver2008:`""}</v>
-      </c>
-      <c r="M29" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2008:=""</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="10"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="8"/>
+    </row>
+    <row r="30" spans="1:13" ht="180" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>557</v>
+      </c>
       <c r="G30" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>ASSVCSTARTUPTYPE</v>
       </c>
       <c r="H30" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2008:</v>
+        <f t="shared" si="6"/>
+        <v>choco:sqlserver2008:ASSVCSTARTUPTYPE</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
-      <c r="K30" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L30" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2008:){Add-Content $configFile "=`"$env:choco:sqlserver2008:`""}</v>
-      </c>
-      <c r="M30" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2008:=""</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="8"/>
+    </row>
+    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>119</v>
+      </c>
       <c r="G31" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>ASSYSADMINACCOUNTS</v>
       </c>
       <c r="H31" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2008:</v>
+        <f t="shared" si="6"/>
+        <v>choco:sqlserver2008:ASSYSADMINACCOUNTS</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
-      <c r="K31" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L31" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2008:){Add-Content $configFile "=`"$env:choco:sqlserver2008:`""}</v>
-      </c>
-      <c r="M31" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2008:=""</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="10"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="8"/>
+    </row>
+    <row r="32" spans="1:13" ht="225" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>558</v>
+      </c>
       <c r="G32" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>ASTEMPDIR</v>
       </c>
       <c r="H32" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2008:</v>
+        <f t="shared" si="6"/>
+        <v>choco:sqlserver2008:ASTEMPDIR</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
-      <c r="K32" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L32" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2008:){Add-Content $configFile "=`"$env:choco:sqlserver2008:`""}</v>
-      </c>
-      <c r="M32" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2008:=""</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="150" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="10"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="11"/>
+    </row>
+    <row r="33" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>559</v>
+      </c>
       <c r="G33" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <f t="shared" ref="G33:G43" si="10">SUBSTITUTE(B33,"/","")</f>
+        <v>ASPROVIDERMSOLAP</v>
       </c>
       <c r="H33" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2008:</v>
+        <f t="shared" ref="H33:H43" si="11">"choco:sqlserver2008:"&amp;G33</f>
+        <v>choco:sqlserver2008:ASPROVIDERMSOLAP</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
-      <c r="K33" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L33" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2008:){Add-Content $configFile "=`"$env:choco:sqlserver2008:`""}</v>
-      </c>
-      <c r="M33" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2008:=""</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="10"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="10"/>
+    </row>
+    <row r="34" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>560</v>
+      </c>
       <c r="G34" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <f t="shared" si="10"/>
+        <v>BROWSERSVCSTARTUPTYPE</v>
       </c>
       <c r="H34" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2008:</v>
+        <f t="shared" si="11"/>
+        <v>choco:sqlserver2008:BROWSERSVCSTARTUPTYPE</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
-      <c r="K34" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L34" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2008:){Add-Content $configFile "=`"$env:choco:sqlserver2008:`""}</v>
-      </c>
-      <c r="M34" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2008:=""</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="10"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="10"/>
+    </row>
+    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>142</v>
+      </c>
       <c r="G35" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <f t="shared" si="10"/>
+        <v>ENABLERANU</v>
       </c>
       <c r="H35" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2008:</v>
+        <f t="shared" si="11"/>
+        <v>choco:sqlserver2008:ENABLERANU</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
-      <c r="K35" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L35" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2008:){Add-Content $configFile "=`"$env:choco:sqlserver2008:`""}</v>
-      </c>
-      <c r="M35" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2008:=""</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="10"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="9"/>
+    </row>
+    <row r="36" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A36" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>561</v>
+      </c>
       <c r="G36" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <f t="shared" si="10"/>
+        <v>INSTALLSQLDATADIR</v>
       </c>
       <c r="H36" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2008:</v>
+        <f t="shared" si="11"/>
+        <v>choco:sqlserver2008:INSTALLSQLDATADIR</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
-      <c r="K36" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L36" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2008:){Add-Content $configFile "=`"$env:choco:sqlserver2008:`""}</v>
-      </c>
-      <c r="M36" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2008:=""</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="10"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="10"/>
+    </row>
+    <row r="37" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>543</v>
+      </c>
       <c r="G37" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <f t="shared" si="10"/>
+        <v>SAPWD</v>
       </c>
       <c r="H37" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2008:</v>
+        <f t="shared" si="11"/>
+        <v>choco:sqlserver2008:SAPWD</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
-      <c r="K37" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L37" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2008:){Add-Content $configFile "=`"$env:choco:sqlserver2008:`""}</v>
-      </c>
-      <c r="M37" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2008:=""</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="10"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="8"/>
+    </row>
+    <row r="38" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A38" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>562</v>
+      </c>
       <c r="G38" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <f t="shared" si="10"/>
+        <v>SECURITYMODE</v>
       </c>
       <c r="H38" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2008:</v>
+        <f t="shared" si="11"/>
+        <v>choco:sqlserver2008:SECURITYMODE</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
-      <c r="K38" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L38" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2008:){Add-Content $configFile "=`"$env:choco:sqlserver2008:`""}</v>
-      </c>
-      <c r="M38" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2008:=""</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="10"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="8"/>
+    </row>
+    <row r="39" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A39" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>563</v>
+      </c>
       <c r="G39" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <f t="shared" si="10"/>
+        <v>SQLBACKUPDIR</v>
       </c>
       <c r="H39" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2008:</v>
+        <f t="shared" si="11"/>
+        <v>choco:sqlserver2008:SQLBACKUPDIR</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
-      <c r="K39" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L39" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2008:){Add-Content $configFile "=`"$env:choco:sqlserver2008:`""}</v>
-      </c>
-      <c r="M39" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2008:=""</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="10"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="8"/>
+    </row>
+    <row r="40" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A40" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>564</v>
+      </c>
       <c r="G40" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <f t="shared" si="10"/>
+        <v>SQLCOLLATION</v>
       </c>
       <c r="H40" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2008:</v>
+        <f t="shared" si="11"/>
+        <v>choco:sqlserver2008:SQLCOLLATION</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
-      <c r="K40" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L40" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2008:){Add-Content $configFile "=`"$env:choco:sqlserver2008:`""}</v>
-      </c>
-      <c r="M40" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2008:=""</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="10"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="10"/>
+    </row>
+    <row r="41" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>166</v>
+      </c>
       <c r="G41" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <f t="shared" si="10"/>
+        <v>SQLSVCACCOUNT</v>
       </c>
       <c r="H41" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2008:</v>
+        <f t="shared" si="11"/>
+        <v>choco:sqlserver2008:SQLSVCACCOUNT</v>
       </c>
       <c r="I41">
         <v>0</v>
       </c>
-      <c r="K41" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L41" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2008:){Add-Content $configFile "=`"$env:choco:sqlserver2008:`""}</v>
-      </c>
-      <c r="M41" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2008:=""</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="10"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="8"/>
+    </row>
+    <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>168</v>
+      </c>
       <c r="G42" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <f t="shared" si="10"/>
+        <v>SQLSVCPASSWORD</v>
       </c>
       <c r="H42" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2008:</v>
+        <f t="shared" si="11"/>
+        <v>choco:sqlserver2008:SQLSVCPASSWORD</v>
       </c>
       <c r="I42">
         <v>0</v>
       </c>
-      <c r="K42" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L42" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2008:){Add-Content $configFile "=`"$env:choco:sqlserver2008:`""}</v>
-      </c>
-      <c r="M42" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2008:=""</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="10"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="8"/>
+    </row>
+    <row r="43" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A43" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>565</v>
+      </c>
       <c r="G43" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <f t="shared" si="10"/>
+        <v>SQLSVCSTARTUPTYPE</v>
       </c>
       <c r="H43" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2008:</v>
+        <f t="shared" si="11"/>
+        <v>choco:sqlserver2008:SQLSVCSTARTUPTYPE</v>
       </c>
       <c r="I43">
         <v>0</v>
       </c>
-      <c r="K43" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L43" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2008:){Add-Content $configFile "=`"$env:choco:sqlserver2008:`""}</v>
-      </c>
-      <c r="M43" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2008:=""</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="10"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="9"/>
+    </row>
+    <row r="44" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>172</v>
+      </c>
       <c r="G44" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <f t="shared" ref="G44:G53" si="12">SUBSTITUTE(B44,"/","")</f>
+        <v>SQLSYSADMINACCOUNTS</v>
       </c>
       <c r="H44" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2008:</v>
+        <f t="shared" ref="H44:H53" si="13">"choco:sqlserver2008:"&amp;G44</f>
+        <v>choco:sqlserver2008:SQLSYSADMINACCOUNTS</v>
       </c>
       <c r="I44">
         <v>0</v>
       </c>
-      <c r="K44" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L44" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2008:){Add-Content $configFile "=`"$env:choco:sqlserver2008:`""}</v>
-      </c>
-      <c r="M44" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2008:=""</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="10"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="10"/>
+    </row>
+    <row r="45" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A45" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>566</v>
+      </c>
       <c r="G45" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <f t="shared" si="12"/>
+        <v>SQLTEMPDBDIR</v>
       </c>
       <c r="H45" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2008:</v>
+        <f t="shared" si="13"/>
+        <v>choco:sqlserver2008:SQLTEMPDBDIR</v>
       </c>
       <c r="I45">
         <v>0</v>
       </c>
-      <c r="K45" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L45" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2008:){Add-Content $configFile "=`"$env:choco:sqlserver2008:`""}</v>
-      </c>
-      <c r="M45" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2008:=""</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="10"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="8"/>
+    </row>
+    <row r="46" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A46" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>567</v>
+      </c>
       <c r="G46" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <f t="shared" si="12"/>
+        <v>SQLTEMPDBLOGDIR</v>
       </c>
       <c r="H46" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2008:</v>
+        <f t="shared" si="13"/>
+        <v>choco:sqlserver2008:SQLTEMPDBLOGDIR</v>
       </c>
       <c r="I46">
         <v>0</v>
       </c>
-      <c r="K46" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L46" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2008:){Add-Content $configFile "=`"$env:choco:sqlserver2008:`""}</v>
-      </c>
-      <c r="M46" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2008:=""</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="10"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="10"/>
+    </row>
+    <row r="47" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A47" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>568</v>
+      </c>
       <c r="G47" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <f t="shared" si="12"/>
+        <v>SQLUSERDBDIR</v>
       </c>
       <c r="H47" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2008:</v>
+        <f t="shared" si="13"/>
+        <v>choco:sqlserver2008:SQLUSERDBDIR</v>
       </c>
       <c r="I47">
         <v>0</v>
       </c>
-      <c r="K47" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L47" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2008:){Add-Content $configFile "=`"$env:choco:sqlserver2008:`""}</v>
-      </c>
-      <c r="M47" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2008:=""</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="10"/>
-      <c r="B48" s="8"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="8"/>
+    </row>
+    <row r="48" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A48" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>569</v>
+      </c>
       <c r="G48" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <f t="shared" si="12"/>
+        <v>SQLUSERDBLOGDIR</v>
       </c>
       <c r="H48" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2008:</v>
+        <f t="shared" si="13"/>
+        <v>choco:sqlserver2008:SQLUSERDBLOGDIR</v>
       </c>
       <c r="I48">
         <v>0</v>
       </c>
-      <c r="K48" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L48" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2008:){Add-Content $configFile "=`"$env:choco:sqlserver2008:`""}</v>
-      </c>
-      <c r="M48" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2008:=""</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="10"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="8"/>
+    </row>
+    <row r="49" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A49" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>570</v>
+      </c>
       <c r="G49" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <f t="shared" si="12"/>
+        <v>USESYSDB</v>
       </c>
       <c r="H49" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2008:</v>
+        <f t="shared" si="13"/>
+        <v>choco:sqlserver2008:USESYSDB</v>
       </c>
       <c r="I49">
         <v>0</v>
       </c>
-      <c r="K49" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L49" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2008:){Add-Content $configFile "=`"$env:choco:sqlserver2008:`""}</v>
-      </c>
-      <c r="M49" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2008:=""</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" s="10"/>
-      <c r="B50" s="8"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="8"/>
+    </row>
+    <row r="50" spans="1:9" ht="285" x14ac:dyDescent="0.25">
+      <c r="A50" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>571</v>
+      </c>
       <c r="G50" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <f t="shared" si="12"/>
+        <v>FILESTREAMLEVEL</v>
       </c>
       <c r="H50" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2008:</v>
+        <f t="shared" si="13"/>
+        <v>choco:sqlserver2008:FILESTREAMLEVEL</v>
       </c>
       <c r="I50">
         <v>0</v>
       </c>
-      <c r="K50" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L50" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2008:){Add-Content $configFile "=`"$env:choco:sqlserver2008:`""}</v>
-      </c>
-      <c r="M50" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2008:=""</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" s="10"/>
-      <c r="B51" s="8"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="9"/>
+    </row>
+    <row r="51" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A51" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>572</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>218</v>
+      </c>
       <c r="G51" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <f t="shared" si="12"/>
+        <v>FILESTREAMSHARENAME</v>
       </c>
       <c r="H51" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2008:</v>
+        <f t="shared" si="13"/>
+        <v>choco:sqlserver2008:FILESTREAMSHARENAME</v>
       </c>
       <c r="I51">
         <v>0</v>
       </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-      <c r="K51" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L51" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2008:){Add-Content $configFile "=`"$env:choco:sqlserver2008:`""}</v>
-      </c>
-      <c r="M51" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2008:=""</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="10"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="10"/>
+    </row>
+    <row r="52" spans="1:9" ht="300" x14ac:dyDescent="0.25">
+      <c r="A52" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>573</v>
+      </c>
       <c r="G52" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <f t="shared" si="12"/>
+        <v>FTSVCACCOUNT</v>
       </c>
       <c r="H52" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2008:</v>
+        <f t="shared" si="13"/>
+        <v>choco:sqlserver2008:FTSVCACCOUNT</v>
       </c>
       <c r="I52">
         <v>0</v>
       </c>
-      <c r="J52">
-        <v>1</v>
-      </c>
-      <c r="K52" t="str">
-        <f t="shared" si="2"/>
-        <v>if (!(Test-Path env:\choco:sqlserver2008:)){$env:choco:sqlserver2008:=""}</v>
-      </c>
-      <c r="L52" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2008:){Add-Content $configFile "=`"$env:choco:sqlserver2008:`""}</v>
-      </c>
-      <c r="M52" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2008:=""</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="10"/>
-      <c r="B53" s="8"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="10"/>
+    </row>
+    <row r="53" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="A53" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>574</v>
+      </c>
       <c r="G53" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <f t="shared" si="12"/>
+        <v>FTSVCPASSWORD</v>
       </c>
       <c r="H53" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2008:</v>
+        <f t="shared" si="13"/>
+        <v>choco:sqlserver2008:FTSVCPASSWORD</v>
       </c>
       <c r="I53">
         <v>0</v>
       </c>
-      <c r="K53" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L53" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2008:){Add-Content $configFile "=`"$env:choco:sqlserver2008:`""}</v>
-      </c>
-      <c r="M53" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2008:=""</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" s="10"/>
-      <c r="B54" s="8"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="9"/>
+    </row>
+    <row r="54" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A54" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>575</v>
+      </c>
       <c r="G54" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <f t="shared" ref="G54:G62" si="14">SUBSTITUTE(B54,"/","")</f>
+        <v>ISSVCACCOUNT</v>
       </c>
       <c r="H54" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2008:</v>
+        <f t="shared" ref="H54:H62" si="15">"choco:sqlserver2008:"&amp;G54</f>
+        <v>choco:sqlserver2008:ISSVCACCOUNT</v>
       </c>
       <c r="I54">
         <v>0</v>
       </c>
-      <c r="K54" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L54" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2008:){Add-Content $configFile "=`"$env:choco:sqlserver2008:`""}</v>
-      </c>
-      <c r="M54" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2008:=""</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" s="10"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="8"/>
-      <c r="F55" s="14"/>
+    </row>
+    <row r="55" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>232</v>
+      </c>
       <c r="G55" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <f t="shared" si="14"/>
+        <v>ISSVCPASSWORD</v>
       </c>
       <c r="H55" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2008:</v>
+        <f t="shared" si="15"/>
+        <v>choco:sqlserver2008:ISSVCPASSWORD</v>
       </c>
       <c r="I55">
         <v>0</v>
       </c>
-      <c r="J55">
-        <v>1</v>
-      </c>
-      <c r="K55" t="str">
-        <f t="shared" si="2"/>
-        <v>if (!(Test-Path env:\choco:sqlserver2008:)){$env:choco:sqlserver2008:=""}</v>
-      </c>
-      <c r="L55" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2008:){Add-Content $configFile "=`"$env:choco:sqlserver2008:`""}</v>
-      </c>
-      <c r="M55" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2008:=""</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56" s="10"/>
-      <c r="B56" s="8"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="8"/>
+    </row>
+    <row r="56" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>234</v>
+      </c>
       <c r="G56" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <f t="shared" si="14"/>
+        <v>ISSVCStartupType</v>
       </c>
       <c r="H56" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2008:</v>
+        <f t="shared" si="15"/>
+        <v>choco:sqlserver2008:ISSVCStartupType</v>
       </c>
       <c r="I56">
         <v>0</v>
       </c>
-      <c r="K56" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L56" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2008:){Add-Content $configFile "=`"$env:choco:sqlserver2008:`""}</v>
-      </c>
-      <c r="M56" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2008:=""</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A57" s="10"/>
-      <c r="B57" s="8"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="8"/>
+    </row>
+    <row r="57" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A57" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>576</v>
+      </c>
       <c r="G57" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <f t="shared" si="14"/>
+        <v>NPENABLED</v>
       </c>
       <c r="H57" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2008:</v>
+        <f t="shared" si="15"/>
+        <v>choco:sqlserver2008:NPENABLED</v>
       </c>
       <c r="I57">
         <v>0</v>
       </c>
-      <c r="K57" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L57" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2008:){Add-Content $configFile "=`"$env:choco:sqlserver2008:`""}</v>
-      </c>
-      <c r="M57" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2008:=""</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A58" s="10"/>
-      <c r="B58" s="8"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="8"/>
+    </row>
+    <row r="58" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A58" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>577</v>
+      </c>
       <c r="G58" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <f t="shared" si="14"/>
+        <v>TCPENABLED</v>
       </c>
       <c r="H58" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2008:</v>
+        <f t="shared" si="15"/>
+        <v>choco:sqlserver2008:TCPENABLED</v>
       </c>
       <c r="I58">
         <v>0</v>
       </c>
-      <c r="K58" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L58" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2008:){Add-Content $configFile "=`"$env:choco:sqlserver2008:`""}</v>
-      </c>
-      <c r="M58" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2008:=""</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A59" s="10"/>
-      <c r="B59" s="8"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="8"/>
+    </row>
+    <row r="59" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>545</v>
+      </c>
       <c r="G59" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <f t="shared" si="14"/>
+        <v>RSINSTALLMODE</v>
       </c>
       <c r="H59" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2008:</v>
+        <f t="shared" si="15"/>
+        <v>choco:sqlserver2008:RSINSTALLMODE</v>
       </c>
       <c r="I59">
         <v>0</v>
       </c>
-      <c r="K59" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L59" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2008:){Add-Content $configFile "=`"$env:choco:sqlserver2008:`""}</v>
-      </c>
-      <c r="M59" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2008:=""</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A60" s="10"/>
-      <c r="B60" s="8"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="8"/>
+    </row>
+    <row r="60" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>254</v>
+      </c>
       <c r="G60" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <f t="shared" si="14"/>
+        <v>RSSVCACCOUNT</v>
       </c>
       <c r="H60" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2008:</v>
+        <f t="shared" si="15"/>
+        <v>choco:sqlserver2008:RSSVCACCOUNT</v>
       </c>
       <c r="I60">
         <v>0</v>
       </c>
-      <c r="K60" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L60" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2008:){Add-Content $configFile "=`"$env:choco:sqlserver2008:`""}</v>
-      </c>
-      <c r="M60" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2008:=""</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A61" s="10"/>
-      <c r="B61" s="8"/>
-      <c r="C61" s="8"/>
-      <c r="D61" s="10"/>
+    </row>
+    <row r="61" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>256</v>
+      </c>
       <c r="G61" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <f t="shared" si="14"/>
+        <v>RSSVCPASSWORD</v>
       </c>
       <c r="H61" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2008:</v>
+        <f t="shared" si="15"/>
+        <v>choco:sqlserver2008:RSSVCPASSWORD</v>
       </c>
       <c r="I61">
         <v>0</v>
       </c>
-      <c r="K61" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L61" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2008:){Add-Content $configFile "=`"$env:choco:sqlserver2008:`""}</v>
-      </c>
-      <c r="M61" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2008:=""</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A62" s="10"/>
-      <c r="B62" s="8"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="8"/>
+    </row>
+    <row r="62" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>546</v>
+      </c>
       <c r="G62" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <f t="shared" si="14"/>
+        <v>RSSVCStartupType</v>
       </c>
       <c r="H62" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2008:</v>
+        <f t="shared" si="15"/>
+        <v>choco:sqlserver2008:RSSVCStartupType</v>
       </c>
       <c r="I62">
         <v>0</v>
       </c>
-      <c r="K62" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L62" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2008:){Add-Content $configFile "=`"$env:choco:sqlserver2008:`""}</v>
-      </c>
-      <c r="M62" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2008:=""</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A63" s="10"/>
-      <c r="B63" s="8"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="8"/>
-      <c r="G63" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H63" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2008:</v>
-      </c>
-      <c r="I63">
-        <v>0</v>
-      </c>
-      <c r="K63" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L63" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2008:){Add-Content $configFile "=`"$env:choco:sqlserver2008:`""}</v>
-      </c>
-      <c r="M63" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2008:=""</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A64" s="10"/>
-      <c r="B64" s="8"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="8"/>
-      <c r="G64" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H64" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2008:</v>
-      </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
-      <c r="K64" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L64" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2008:){Add-Content $configFile "=`"$env:choco:sqlserver2008:`""}</v>
-      </c>
-      <c r="M64" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2008:=""</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="10"/>
-      <c r="B65" s="8"/>
-      <c r="C65" s="9"/>
-      <c r="D65" s="10"/>
-      <c r="G65" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H65" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2008:</v>
-      </c>
-      <c r="I65">
-        <v>0</v>
-      </c>
-      <c r="K65" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L65" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2008:){Add-Content $configFile "=`"$env:choco:sqlserver2008:`""}</v>
-      </c>
-      <c r="M65" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2008:=""</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="10"/>
-      <c r="B66" s="8"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="11"/>
-      <c r="G66" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H66" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2008:</v>
-      </c>
-      <c r="I66">
-        <v>0</v>
-      </c>
-      <c r="K66" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L66" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2008:){Add-Content $configFile "=`"$env:choco:sqlserver2008:`""}</v>
-      </c>
-      <c r="M66" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2008:=""</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A67" s="10"/>
-      <c r="B67" s="8"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="8"/>
-      <c r="G67" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H67" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2008:</v>
-      </c>
-      <c r="I67">
-        <v>0</v>
-      </c>
-      <c r="K67" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L67" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2008:){Add-Content $configFile "=`"$env:choco:sqlserver2008:`""}</v>
-      </c>
-      <c r="M67" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2008:=""</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A68" s="10"/>
-      <c r="B68" s="8"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="8"/>
-      <c r="G68" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H68" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2008:</v>
-      </c>
-      <c r="I68">
-        <v>0</v>
-      </c>
-      <c r="K68" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L68" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2008:){Add-Content $configFile "=`"$env:choco:sqlserver2008:`""}</v>
-      </c>
-      <c r="M68" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2008:=""</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A69" s="10"/>
-      <c r="B69" s="8"/>
-      <c r="C69" s="3"/>
-      <c r="D69" s="8"/>
-      <c r="G69" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H69" t="str">
-        <f t="shared" ref="H69:H72" si="6">"choco:sqlserver2008:"&amp;G69</f>
-        <v>choco:sqlserver2008:</v>
-      </c>
-      <c r="I69">
-        <v>0</v>
-      </c>
-      <c r="K69" t="str">
-        <f t="shared" ref="K69:K72" si="7">IF(J69,"if (!(Test-Path env:\"&amp;H69&amp;")){$env:"&amp;H69&amp;"="""&amp;F69&amp;"""}","")</f>
-        <v/>
-      </c>
-      <c r="L69" t="str">
-        <f t="shared" ref="L69:L72" si="8">"if (Test-Path env:\"&amp;H69&amp;"){Add-Content $configFile """&amp;G69&amp;"=`""$env:"&amp;H69&amp;"`""""}"</f>
-        <v>if (Test-Path env:\choco:sqlserver2008:){Add-Content $configFile "=`"$env:choco:sqlserver2008:`""}</v>
-      </c>
-      <c r="M69" t="str">
-        <f t="shared" ref="M69:M72" si="9">"$env:"&amp;H69&amp;"="""""</f>
-        <v>$env:choco:sqlserver2008:=""</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="10"/>
-      <c r="B70" s="8"/>
-      <c r="C70" s="3"/>
-      <c r="D70" s="10"/>
-      <c r="G70" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H70" t="str">
-        <f t="shared" si="6"/>
-        <v>choco:sqlserver2008:</v>
-      </c>
-      <c r="I70">
-        <v>0</v>
-      </c>
-      <c r="K70" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="L70" t="str">
-        <f t="shared" si="8"/>
-        <v>if (Test-Path env:\choco:sqlserver2008:){Add-Content $configFile "=`"$env:choco:sqlserver2008:`""}</v>
-      </c>
-      <c r="M70" t="str">
-        <f t="shared" si="9"/>
-        <v>$env:choco:sqlserver2008:=""</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="10"/>
-      <c r="B71" s="8"/>
-      <c r="C71" s="9"/>
-      <c r="D71" s="10"/>
-      <c r="G71" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H71" t="str">
-        <f t="shared" si="6"/>
-        <v>choco:sqlserver2008:</v>
-      </c>
-      <c r="I71">
-        <v>0</v>
-      </c>
-      <c r="K71" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="L71" t="str">
-        <f t="shared" si="8"/>
-        <v>if (Test-Path env:\choco:sqlserver2008:){Add-Content $configFile "=`"$env:choco:sqlserver2008:`""}</v>
-      </c>
-      <c r="M71" t="str">
-        <f t="shared" si="9"/>
-        <v>$env:choco:sqlserver2008:=""</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="10"/>
-      <c r="B72" s="8"/>
-      <c r="C72" s="3"/>
-      <c r="D72" s="11"/>
-      <c r="G72" t="str">
-        <f t="shared" ref="G72" si="10">SUBSTITUTE(B72,"/","")</f>
-        <v/>
-      </c>
-      <c r="H72" t="str">
-        <f t="shared" si="6"/>
-        <v>choco:sqlserver2008:</v>
-      </c>
-      <c r="I72">
-        <v>0</v>
-      </c>
-      <c r="K72" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="L72" t="str">
-        <f t="shared" si="8"/>
-        <v>if (Test-Path env:\choco:sqlserver2008:){Add-Content $configFile "=`"$env:choco:sqlserver2008:`""}</v>
-      </c>
-      <c r="M72" t="str">
-        <f t="shared" si="9"/>
-        <v>$env:choco:sqlserver2008:=""</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:L72"/>
+  <autoFilter ref="A3:L21"/>
   <hyperlinks>
     <hyperlink ref="D1" r:id="rId1"/>
+    <hyperlink ref="D5" r:id="rId2" display="https://msdn.microsoft.com/en-us/library/dd239405%28v=sql.100%29.aspx"/>
+    <hyperlink ref="D7" r:id="rId3" location="Feature" display="https://msdn.microsoft.com/en-us/library/ms144259%28v=sql.100%29.aspx - Feature"/>
+    <hyperlink ref="D13" r:id="rId4" location="InstanceID" display="https://msdn.microsoft.com/en-us/library/ms144259%28v=sql.100%29.aspx - InstanceID"/>
+    <hyperlink ref="C21" r:id="rId5" location="Accounts" display="https://msdn.microsoft.com/en-us/library/ms144259%28v=sql.100%29.aspx - Accounts"/>
+    <hyperlink ref="D22" r:id="rId6" location="Accounts" display="https://msdn.microsoft.com/en-us/library/ms144259%28v=sql.100%29.aspx - Accounts"/>
+    <hyperlink ref="C29" r:id="rId7" location="Accounts" display="https://msdn.microsoft.com/en-us/library/ms144259%28v=sql.100%29.aspx - Accounts"/>
+    <hyperlink ref="D30" r:id="rId8" location="Accounts" display="https://msdn.microsoft.com/en-us/library/ms144259%28v=sql.100%29.aspx - Accounts"/>
+    <hyperlink ref="D34" r:id="rId9" location="Accounts" display="https://msdn.microsoft.com/en-us/library/ms144259%28v=sql.100%29.aspx - Accounts"/>
+    <hyperlink ref="C42" r:id="rId10" location="Accounts" display="https://msdn.microsoft.com/en-us/library/ms144259%28v=sql.100%29.aspx - Accounts"/>
+    <hyperlink ref="D43" r:id="rId11" location="Accounts" display="https://msdn.microsoft.com/en-us/library/ms144259%28v=sql.100%29.aspx - Accounts"/>
+    <hyperlink ref="C55" r:id="rId12" location="Accounts" display="https://msdn.microsoft.com/en-us/library/ms144259%28v=sql.100%29.aspx - Accounts"/>
+    <hyperlink ref="D56" r:id="rId13" location="Accounts" display="https://msdn.microsoft.com/en-us/library/ms144259%28v=sql.100%29.aspx - Accounts"/>
+    <hyperlink ref="C61" r:id="rId14" location="Accounts" display="https://msdn.microsoft.com/en-us/library/ms144259%28v=sql.100%29.aspx - Accounts"/>
+    <hyperlink ref="D62" r:id="rId15" location="Accounts" display="https://msdn.microsoft.com/en-us/library/ms144259%28v=sql.100%29.aspx - Accounts"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>
 
@@ -4671,7 +4523,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -4682,12 +4534,12 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
+      <c r="A3" s="13"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
@@ -4696,122 +4548,122 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
+      <c r="A6" s="13"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="15"/>
+      <c r="C6" s="13"/>
     </row>
     <row r="7" spans="1:3" ht="195" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="15"/>
+      <c r="C7" s="13"/>
     </row>
     <row r="8" spans="1:3" ht="390" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
+      <c r="A9" s="13"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="15"/>
+      <c r="C9" s="13"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
+      <c r="A10" s="13"/>
       <c r="B10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="15"/>
+      <c r="C10" s="13"/>
     </row>
     <row r="11" spans="1:3" ht="360" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
+      <c r="A12" s="13"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="15"/>
+      <c r="C12" s="13"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
+      <c r="A13" s="13"/>
       <c r="B13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="15"/>
+      <c r="C13" s="13"/>
     </row>
     <row r="14" spans="1:3" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
+      <c r="A15" s="13"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="15"/>
+      <c r="C15" s="13"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
+      <c r="A16" s="13"/>
       <c r="B16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="15"/>
+      <c r="C16" s="13"/>
     </row>
     <row r="17" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="14" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
+      <c r="A18" s="13"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="16"/>
+      <c r="C18" s="14"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
+      <c r="A19" s="13"/>
       <c r="B19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="16"/>
+      <c r="C19" s="14"/>
     </row>
     <row r="20" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -4822,12 +4674,12 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
+      <c r="A21" s="13"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
+      <c r="A22" s="13"/>
       <c r="B22" s="3" t="s">
         <v>12</v>
       </c>
@@ -4836,43 +4688,43 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
+      <c r="A23" s="13"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
+      <c r="A24" s="13"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
+      <c r="A25" s="13"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
+      <c r="A26" s="13"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
+      <c r="A27" s="13"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
+      <c r="A28" s="13"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -4883,12 +4735,12 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
+      <c r="A30" s="13"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
     </row>
     <row r="31" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="15"/>
+      <c r="A31" s="13"/>
       <c r="B31" s="2" t="s">
         <v>27</v>
       </c>
@@ -4897,12 +4749,12 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="15"/>
+      <c r="A32" s="13"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
     </row>
     <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="15"/>
+      <c r="A33" s="13"/>
       <c r="B33" s="2" t="s">
         <v>28</v>
       </c>
@@ -4911,65 +4763,65 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="15"/>
+      <c r="A34" s="13"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="15"/>
+      <c r="A35" s="13"/>
       <c r="B35" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C35" s="2"/>
     </row>
     <row r="36" spans="1:3" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C36" s="15" t="s">
+      <c r="C36" s="13" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="15"/>
+      <c r="A37" s="13"/>
       <c r="B37" s="2"/>
-      <c r="C37" s="15"/>
+      <c r="C37" s="13"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="15"/>
+      <c r="A38" s="13"/>
       <c r="B38" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C38" s="15"/>
+      <c r="C38" s="13"/>
     </row>
     <row r="39" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="15" t="s">
+      <c r="A39" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C39" s="15" t="s">
+      <c r="C39" s="13" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="15"/>
+      <c r="A40" s="13"/>
       <c r="B40" s="2"/>
-      <c r="C40" s="15"/>
+      <c r="C40" s="13"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="15"/>
+      <c r="A41" s="13"/>
       <c r="B41" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="15"/>
+      <c r="C41" s="13"/>
     </row>
     <row r="42" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A42" s="15" t="s">
+      <c r="A42" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -4980,12 +4832,12 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="15"/>
+      <c r="A43" s="13"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="15"/>
+      <c r="A44" s="13"/>
       <c r="B44" s="3" t="s">
         <v>12</v>
       </c>
@@ -4994,19 +4846,19 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="15"/>
+      <c r="A45" s="13"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
     </row>
     <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="15"/>
+      <c r="A46" s="13"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A47" s="15" t="s">
+      <c r="A47" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -5017,12 +4869,12 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="15"/>
+      <c r="A48" s="13"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
     </row>
     <row r="49" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="15"/>
+      <c r="A49" s="13"/>
       <c r="B49" s="3" t="s">
         <v>12</v>
       </c>
@@ -5031,65 +4883,65 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="15"/>
+      <c r="A50" s="13"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
     </row>
     <row r="51" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="15"/>
+      <c r="A51" s="13"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="150" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="15" t="s">
+      <c r="A52" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C52" s="15" t="s">
+      <c r="C52" s="13" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="15"/>
+      <c r="A53" s="13"/>
       <c r="B53" s="2"/>
-      <c r="C53" s="15"/>
+      <c r="C53" s="13"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="15"/>
+      <c r="A54" s="13"/>
       <c r="B54" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C54" s="15"/>
+      <c r="C54" s="13"/>
     </row>
     <row r="55" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="15" t="s">
+      <c r="A55" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C55" s="16" t="s">
+      <c r="C55" s="14" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="15"/>
+      <c r="A56" s="13"/>
       <c r="B56" s="2"/>
-      <c r="C56" s="16"/>
+      <c r="C56" s="14"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="15"/>
+      <c r="A57" s="13"/>
       <c r="B57" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C57" s="16"/>
+      <c r="C57" s="14"/>
     </row>
     <row r="58" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="15" t="s">
+      <c r="A58" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B58" s="2" t="s">
@@ -5100,12 +4952,12 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="15"/>
+      <c r="A59" s="13"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="15"/>
+      <c r="A60" s="13"/>
       <c r="B60" s="3" t="s">
         <v>5</v>
       </c>
@@ -5114,76 +4966,76 @@
       </c>
     </row>
     <row r="61" spans="1:3" ht="165" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="15" t="s">
+      <c r="A61" s="13" t="s">
         <v>51</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C61" s="15" t="s">
+      <c r="C61" s="13" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="15"/>
+      <c r="A62" s="13"/>
       <c r="B62" s="2"/>
-      <c r="C62" s="15"/>
+      <c r="C62" s="13"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="15"/>
+      <c r="A63" s="13"/>
       <c r="B63" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C63" s="15"/>
+      <c r="C63" s="13"/>
     </row>
     <row r="64" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="15" t="s">
+      <c r="A64" s="13" t="s">
         <v>51</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C64" s="15" t="s">
+      <c r="C64" s="13" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="15"/>
+      <c r="A65" s="13"/>
       <c r="B65" s="2"/>
-      <c r="C65" s="15"/>
+      <c r="C65" s="13"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="15"/>
+      <c r="A66" s="13"/>
       <c r="B66" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C66" s="15"/>
+      <c r="C66" s="13"/>
     </row>
     <row r="67" spans="1:3" ht="195" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="15" t="s">
+      <c r="A67" s="13" t="s">
         <v>51</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C67" s="15" t="s">
+      <c r="C67" s="13" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="15"/>
+      <c r="A68" s="13"/>
       <c r="B68" s="2"/>
-      <c r="C68" s="15"/>
+      <c r="C68" s="13"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="15"/>
+      <c r="A69" s="13"/>
       <c r="B69" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C69" s="15"/>
+      <c r="C69" s="13"/>
     </row>
     <row r="70" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A70" s="15" t="s">
+      <c r="A70" s="13" t="s">
         <v>51</v>
       </c>
       <c r="B70" s="2" t="s">
@@ -5194,12 +5046,12 @@
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="15"/>
+      <c r="A71" s="13"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="15"/>
+      <c r="A72" s="13"/>
       <c r="B72" s="3" t="s">
         <v>12</v>
       </c>
@@ -5208,99 +5060,99 @@
       </c>
     </row>
     <row r="73" spans="1:3" ht="210" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="15" t="s">
+      <c r="A73" s="13" t="s">
         <v>51</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C73" s="15" t="s">
+      <c r="C73" s="13" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="15"/>
+      <c r="A74" s="13"/>
       <c r="B74" s="2"/>
-      <c r="C74" s="15"/>
+      <c r="C74" s="13"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="15"/>
+      <c r="A75" s="13"/>
       <c r="B75" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C75" s="15"/>
+      <c r="C75" s="13"/>
     </row>
     <row r="76" spans="1:3" ht="195" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="15" t="s">
+      <c r="A76" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C76" s="15" t="s">
+      <c r="C76" s="13" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="15"/>
+      <c r="A77" s="13"/>
       <c r="B77" s="2"/>
-      <c r="C77" s="15"/>
+      <c r="C77" s="13"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="15"/>
+      <c r="A78" s="13"/>
       <c r="B78" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C78" s="15"/>
+      <c r="C78" s="13"/>
     </row>
     <row r="79" spans="1:3" ht="195" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="15" t="s">
+      <c r="A79" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C79" s="15" t="s">
+      <c r="C79" s="13" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="15"/>
+      <c r="A80" s="13"/>
       <c r="B80" s="2"/>
-      <c r="C80" s="15"/>
+      <c r="C80" s="13"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="15"/>
+      <c r="A81" s="13"/>
       <c r="B81" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C81" s="15"/>
+      <c r="C81" s="13"/>
     </row>
     <row r="82" spans="1:3" ht="210" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="15" t="s">
+      <c r="A82" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C82" s="15" t="s">
+      <c r="C82" s="13" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="15"/>
+      <c r="A83" s="13"/>
       <c r="B83" s="2"/>
-      <c r="C83" s="15"/>
+      <c r="C83" s="13"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="15"/>
+      <c r="A84" s="13"/>
       <c r="B84" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C84" s="15"/>
+      <c r="C84" s="13"/>
     </row>
     <row r="85" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85" s="15" t="s">
+      <c r="A85" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B85" s="2" t="s">
@@ -5311,12 +5163,12 @@
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="15"/>
+      <c r="A86" s="13"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
     </row>
     <row r="87" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A87" s="15"/>
+      <c r="A87" s="13"/>
       <c r="B87" s="3" t="s">
         <v>12</v>
       </c>
@@ -5325,55 +5177,55 @@
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="15"/>
+      <c r="A88" s="13"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
     </row>
     <row r="89" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A89" s="15"/>
+      <c r="A89" s="13"/>
       <c r="B89" s="2"/>
       <c r="C89" s="3" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="15"/>
+      <c r="A90" s="13"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
     </row>
     <row r="91" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A91" s="15"/>
+      <c r="A91" s="13"/>
       <c r="B91" s="2"/>
       <c r="C91" s="3" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="15"/>
+      <c r="A92" s="13"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
     </row>
     <row r="93" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A93" s="15"/>
+      <c r="A93" s="13"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="15"/>
+      <c r="A94" s="13"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
     </row>
     <row r="95" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A95" s="15"/>
+      <c r="A95" s="13"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A96" s="15" t="s">
+      <c r="A96" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B96" s="2" t="s">
@@ -5384,12 +5236,12 @@
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="15"/>
+      <c r="A97" s="13"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
     </row>
     <row r="98" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A98" s="15"/>
+      <c r="A98" s="13"/>
       <c r="B98" s="3" t="s">
         <v>12</v>
       </c>
@@ -5398,112 +5250,112 @@
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="15"/>
+      <c r="A99" s="13"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="15"/>
+      <c r="A100" s="13"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="15"/>
+      <c r="A101" s="13"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="15"/>
+      <c r="A102" s="13"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="15"/>
+      <c r="A103" s="13"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="15"/>
+      <c r="A104" s="13"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="15" t="s">
+      <c r="A105" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C105" s="15" t="s">
+      <c r="C105" s="13" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="15"/>
+      <c r="A106" s="13"/>
       <c r="B106" s="2"/>
-      <c r="C106" s="15"/>
+      <c r="C106" s="13"/>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="15"/>
+      <c r="A107" s="13"/>
       <c r="B107" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C107" s="15"/>
+      <c r="C107" s="13"/>
     </row>
     <row r="108" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="15" t="s">
+      <c r="A108" s="13" t="s">
         <v>80</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C108" s="15" t="s">
+      <c r="C108" s="13" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="15"/>
+      <c r="A109" s="13"/>
       <c r="B109" s="2"/>
-      <c r="C109" s="15"/>
+      <c r="C109" s="13"/>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="15"/>
+      <c r="A110" s="13"/>
       <c r="B110" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C110" s="15"/>
+      <c r="C110" s="13"/>
     </row>
     <row r="111" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="15" t="s">
+      <c r="A111" s="13" t="s">
         <v>80</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C111" s="15" t="s">
+      <c r="C111" s="13" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="15"/>
+      <c r="A112" s="13"/>
       <c r="B112" s="2"/>
-      <c r="C112" s="15"/>
+      <c r="C112" s="13"/>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="15"/>
+      <c r="A113" s="13"/>
       <c r="B113" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C113" s="15"/>
+      <c r="C113" s="13"/>
     </row>
     <row r="114" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A114" s="15" t="s">
+      <c r="A114" s="13" t="s">
         <v>80</v>
       </c>
       <c r="B114" s="2" t="s">
@@ -5514,12 +5366,12 @@
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="15"/>
+      <c r="A115" s="13"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="15"/>
+      <c r="A116" s="13"/>
       <c r="B116" s="3" t="s">
         <v>12</v>
       </c>
@@ -5528,43 +5380,43 @@
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="15"/>
+      <c r="A117" s="13"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="15"/>
+      <c r="A118" s="13"/>
       <c r="B118" s="2"/>
       <c r="C118" s="3" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="15"/>
+      <c r="A119" s="13"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="15"/>
+      <c r="A120" s="13"/>
       <c r="B120" s="2"/>
       <c r="C120" s="3" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="15"/>
+      <c r="A121" s="13"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="15"/>
+      <c r="A122" s="13"/>
       <c r="B122" s="2"/>
       <c r="C122" s="3" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A123" s="15" t="s">
+      <c r="A123" s="13" t="s">
         <v>90</v>
       </c>
       <c r="B123" s="2" t="s">
@@ -5575,12 +5427,12 @@
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="15"/>
+      <c r="A124" s="13"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
     </row>
     <row r="125" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A125" s="15"/>
+      <c r="A125" s="13"/>
       <c r="B125" s="3" t="s">
         <v>12</v>
       </c>
@@ -5589,19 +5441,19 @@
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="15"/>
+      <c r="A126" s="13"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
     </row>
     <row r="127" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A127" s="15"/>
+      <c r="A127" s="13"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A128" s="15" t="s">
+      <c r="A128" s="13" t="s">
         <v>90</v>
       </c>
       <c r="B128" s="2" t="s">
@@ -5612,12 +5464,12 @@
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="15"/>
+      <c r="A129" s="13"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" s="15"/>
+      <c r="A130" s="13"/>
       <c r="B130" s="3" t="s">
         <v>12</v>
       </c>
@@ -5626,7 +5478,7 @@
       </c>
     </row>
     <row r="131" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A131" s="15" t="s">
+      <c r="A131" s="13" t="s">
         <v>90</v>
       </c>
       <c r="B131" s="2" t="s">
@@ -5637,12 +5489,12 @@
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" s="15"/>
+      <c r="A132" s="13"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
     </row>
     <row r="133" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A133" s="15"/>
+      <c r="A133" s="13"/>
       <c r="B133" s="3" t="s">
         <v>12</v>
       </c>
@@ -5651,19 +5503,19 @@
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" s="15"/>
+      <c r="A134" s="13"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
     </row>
     <row r="135" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A135" s="15"/>
+      <c r="A135" s="13"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A136" s="15" t="s">
+      <c r="A136" s="13" t="s">
         <v>90</v>
       </c>
       <c r="B136" s="2" t="s">
@@ -5674,12 +5526,12 @@
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" s="15"/>
+      <c r="A137" s="13"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
     </row>
     <row r="138" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A138" s="15"/>
+      <c r="A138" s="13"/>
       <c r="B138" s="3" t="s">
         <v>12</v>
       </c>
@@ -5688,19 +5540,19 @@
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" s="15"/>
+      <c r="A139" s="13"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
     </row>
     <row r="140" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A140" s="15"/>
+      <c r="A140" s="13"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A141" s="15" t="s">
+      <c r="A141" s="13" t="s">
         <v>90</v>
       </c>
       <c r="B141" s="2" t="s">
@@ -5711,12 +5563,12 @@
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" s="15"/>
+      <c r="A142" s="13"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
     </row>
     <row r="143" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A143" s="15"/>
+      <c r="A143" s="13"/>
       <c r="B143" s="3" t="s">
         <v>12</v>
       </c>
@@ -5725,88 +5577,88 @@
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144" s="15"/>
+      <c r="A144" s="13"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
     </row>
     <row r="145" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A145" s="15"/>
+      <c r="A145" s="13"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="15" t="s">
+      <c r="A146" s="13" t="s">
         <v>90</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C146" s="16" t="s">
+      <c r="C146" s="14" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" s="15"/>
+      <c r="A147" s="13"/>
       <c r="B147" s="2"/>
-      <c r="C147" s="16"/>
+      <c r="C147" s="14"/>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" s="15"/>
+      <c r="A148" s="13"/>
       <c r="B148" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C148" s="16"/>
+      <c r="C148" s="14"/>
     </row>
     <row r="149" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="15" t="s">
+      <c r="A149" s="13" t="s">
         <v>90</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C149" s="15" t="s">
+      <c r="C149" s="13" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150" s="15"/>
+      <c r="A150" s="13"/>
       <c r="B150" s="2"/>
-      <c r="C150" s="15"/>
+      <c r="C150" s="13"/>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151" s="15"/>
+      <c r="A151" s="13"/>
       <c r="B151" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C151" s="15"/>
+      <c r="C151" s="13"/>
     </row>
     <row r="152" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="15" t="s">
+      <c r="A152" s="13" t="s">
         <v>90</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C152" s="15" t="s">
+      <c r="C152" s="13" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153" s="15"/>
+      <c r="A153" s="13"/>
       <c r="B153" s="2"/>
-      <c r="C153" s="15"/>
+      <c r="C153" s="13"/>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154" s="15"/>
+      <c r="A154" s="13"/>
       <c r="B154" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C154" s="15"/>
+      <c r="C154" s="13"/>
     </row>
     <row r="155" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A155" s="15" t="s">
+      <c r="A155" s="13" t="s">
         <v>90</v>
       </c>
       <c r="B155" s="2" t="s">
@@ -5817,12 +5669,12 @@
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156" s="15"/>
+      <c r="A156" s="13"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157" s="15"/>
+      <c r="A157" s="13"/>
       <c r="B157" s="3" t="s">
         <v>12</v>
       </c>
@@ -5831,54 +5683,54 @@
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158" s="15"/>
+      <c r="A158" s="13"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159" s="15"/>
+      <c r="A159" s="13"/>
       <c r="B159" s="2"/>
       <c r="C159" s="3" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160" s="15"/>
+      <c r="A160" s="13"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A161" s="15"/>
+      <c r="A161" s="13"/>
       <c r="B161" s="2"/>
       <c r="C161" s="3" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="15" t="s">
+      <c r="A162" s="13" t="s">
         <v>90</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C162" s="15" t="s">
+      <c r="C162" s="13" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163" s="15"/>
+      <c r="A163" s="13"/>
       <c r="B163" s="2"/>
-      <c r="C163" s="15"/>
+      <c r="C163" s="13"/>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164" s="15"/>
+      <c r="A164" s="13"/>
       <c r="B164" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C164" s="15"/>
+      <c r="C164" s="13"/>
     </row>
     <row r="165" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A165" s="15" t="s">
+      <c r="A165" s="13" t="s">
         <v>90</v>
       </c>
       <c r="B165" s="2" t="s">
@@ -5889,12 +5741,12 @@
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166" s="15"/>
+      <c r="A166" s="13"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
     </row>
     <row r="167" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A167" s="15"/>
+      <c r="A167" s="13"/>
       <c r="B167" s="3" t="s">
         <v>12</v>
       </c>
@@ -5903,19 +5755,19 @@
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A168" s="15"/>
+      <c r="A168" s="13"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
     </row>
     <row r="169" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A169" s="15"/>
+      <c r="A169" s="13"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A170" s="15" t="s">
+      <c r="A170" s="13" t="s">
         <v>90</v>
       </c>
       <c r="B170" s="2" t="s">
@@ -5926,12 +5778,12 @@
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A171" s="15"/>
+      <c r="A171" s="13"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A172" s="15"/>
+      <c r="A172" s="13"/>
       <c r="B172" s="3" t="s">
         <v>12</v>
       </c>
@@ -5940,7 +5792,7 @@
       </c>
     </row>
     <row r="173" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A173" s="15" t="s">
+      <c r="A173" s="13" t="s">
         <v>90</v>
       </c>
       <c r="B173" s="2" t="s">
@@ -5951,12 +5803,12 @@
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A174" s="15"/>
+      <c r="A174" s="13"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
     </row>
     <row r="175" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A175" s="15"/>
+      <c r="A175" s="13"/>
       <c r="B175" s="3" t="s">
         <v>128</v>
       </c>
@@ -5965,30 +5817,30 @@
       </c>
     </row>
     <row r="176" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A176" s="15" t="s">
+      <c r="A176" s="13" t="s">
         <v>90</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C176" s="15" t="s">
+      <c r="C176" s="13" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A177" s="15"/>
+      <c r="A177" s="13"/>
       <c r="B177" s="2"/>
-      <c r="C177" s="15"/>
+      <c r="C177" s="13"/>
     </row>
     <row r="178" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A178" s="15"/>
+      <c r="A178" s="13"/>
       <c r="B178" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C178" s="15"/>
+      <c r="C178" s="13"/>
     </row>
     <row r="179" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A179" s="15" t="s">
+      <c r="A179" s="13" t="s">
         <v>90</v>
       </c>
       <c r="B179" s="2" t="s">
@@ -5999,12 +5851,12 @@
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A180" s="15"/>
+      <c r="A180" s="13"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
     </row>
     <row r="181" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A181" s="15"/>
+      <c r="A181" s="13"/>
       <c r="B181" s="3" t="s">
         <v>128</v>
       </c>
@@ -6013,7 +5865,7 @@
       </c>
     </row>
     <row r="182" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A182" s="15" t="s">
+      <c r="A182" s="13" t="s">
         <v>90</v>
       </c>
       <c r="B182" s="2" t="s">
@@ -6024,12 +5876,12 @@
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A183" s="15"/>
+      <c r="A183" s="13"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
     </row>
     <row r="184" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A184" s="15"/>
+      <c r="A184" s="13"/>
       <c r="B184" s="3" t="s">
         <v>128</v>
       </c>
@@ -6038,7 +5890,7 @@
       </c>
     </row>
     <row r="185" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A185" s="15" t="s">
+      <c r="A185" s="13" t="s">
         <v>137</v>
       </c>
       <c r="B185" s="2" t="s">
@@ -6049,12 +5901,12 @@
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A186" s="15"/>
+      <c r="A186" s="13"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A187" s="15"/>
+      <c r="A187" s="13"/>
       <c r="B187" s="3" t="s">
         <v>12</v>
       </c>
@@ -6063,54 +5915,54 @@
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A188" s="15"/>
+      <c r="A188" s="13"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A189" s="15"/>
+      <c r="A189" s="13"/>
       <c r="B189" s="2"/>
       <c r="C189" s="3" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A190" s="15"/>
+      <c r="A190" s="13"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A191" s="15"/>
+      <c r="A191" s="13"/>
       <c r="B191" s="2"/>
       <c r="C191" s="3" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="15" t="s">
+      <c r="A192" s="13" t="s">
         <v>140</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C192" s="15" t="s">
+      <c r="C192" s="13" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A193" s="15"/>
+      <c r="A193" s="13"/>
       <c r="B193" s="2"/>
-      <c r="C193" s="15"/>
+      <c r="C193" s="13"/>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A194" s="15"/>
+      <c r="A194" s="13"/>
       <c r="B194" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C194" s="15"/>
+      <c r="C194" s="13"/>
     </row>
     <row r="195" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A195" s="15" t="s">
+      <c r="A195" s="13" t="s">
         <v>140</v>
       </c>
       <c r="B195" s="2" t="s">
@@ -6121,12 +5973,12 @@
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A196" s="15"/>
+      <c r="A196" s="13"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
     </row>
     <row r="197" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A197" s="15"/>
+      <c r="A197" s="13"/>
       <c r="B197" s="3" t="s">
         <v>12</v>
       </c>
@@ -6135,42 +5987,42 @@
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A198" s="15"/>
+      <c r="A198" s="13"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
     </row>
     <row r="199" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A199" s="15"/>
+      <c r="A199" s="13"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="15" t="s">
+      <c r="A200" s="13" t="s">
         <v>140</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C200" s="15" t="s">
+      <c r="C200" s="13" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A201" s="15"/>
+      <c r="A201" s="13"/>
       <c r="B201" s="2"/>
-      <c r="C201" s="15"/>
+      <c r="C201" s="13"/>
     </row>
     <row r="202" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A202" s="15"/>
+      <c r="A202" s="13"/>
       <c r="B202" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C202" s="15"/>
+      <c r="C202" s="13"/>
     </row>
     <row r="203" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A203" s="15" t="s">
+      <c r="A203" s="13" t="s">
         <v>140</v>
       </c>
       <c r="B203" s="2" t="s">
@@ -6181,12 +6033,12 @@
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A204" s="15"/>
+      <c r="A204" s="13"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
     </row>
     <row r="205" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A205" s="15"/>
+      <c r="A205" s="13"/>
       <c r="B205" s="3" t="s">
         <v>12</v>
       </c>
@@ -6195,19 +6047,19 @@
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A206" s="15"/>
+      <c r="A206" s="13"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A207" s="15"/>
+      <c r="A207" s="13"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A208" s="15" t="s">
+      <c r="A208" s="13" t="s">
         <v>140</v>
       </c>
       <c r="B208" s="2" t="s">
@@ -6218,12 +6070,12 @@
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A209" s="15"/>
+      <c r="A209" s="13"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
     </row>
     <row r="210" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A210" s="15"/>
+      <c r="A210" s="13"/>
       <c r="B210" s="3" t="s">
         <v>12</v>
       </c>
@@ -6232,7 +6084,7 @@
       </c>
     </row>
     <row r="211" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A211" s="15" t="s">
+      <c r="A211" s="13" t="s">
         <v>140</v>
       </c>
       <c r="B211" s="2" t="s">
@@ -6243,12 +6095,12 @@
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A212" s="15"/>
+      <c r="A212" s="13"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
     </row>
     <row r="213" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A213" s="15"/>
+      <c r="A213" s="13"/>
       <c r="B213" s="3" t="s">
         <v>12</v>
       </c>
@@ -6257,7 +6109,7 @@
       </c>
     </row>
     <row r="214" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A214" s="15" t="s">
+      <c r="A214" s="13" t="s">
         <v>140</v>
       </c>
       <c r="B214" s="2" t="s">
@@ -6268,12 +6120,12 @@
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A215" s="15"/>
+      <c r="A215" s="13"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
     </row>
     <row r="216" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A216" s="15"/>
+      <c r="A216" s="13"/>
       <c r="B216" s="3" t="s">
         <v>12</v>
       </c>
@@ -6282,77 +6134,77 @@
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A217" s="15"/>
+      <c r="A217" s="13"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A218" s="15"/>
+      <c r="A218" s="13"/>
       <c r="B218" s="2"/>
       <c r="C218" s="3" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A219" s="15"/>
+      <c r="A219" s="13"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A220" s="15"/>
+      <c r="A220" s="13"/>
       <c r="B220" s="2"/>
       <c r="C220" s="3" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="15" t="s">
+      <c r="A221" s="13" t="s">
         <v>140</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C221" s="15" t="s">
+      <c r="C221" s="13" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A222" s="15"/>
+      <c r="A222" s="13"/>
       <c r="B222" s="2"/>
-      <c r="C222" s="15"/>
+      <c r="C222" s="13"/>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A223" s="15"/>
+      <c r="A223" s="13"/>
       <c r="B223" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C223" s="15"/>
+      <c r="C223" s="13"/>
     </row>
     <row r="224" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="15" t="s">
+      <c r="A224" s="13" t="s">
         <v>140</v>
       </c>
       <c r="B224" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C224" s="15" t="s">
+      <c r="C224" s="13" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A225" s="15"/>
+      <c r="A225" s="13"/>
       <c r="B225" s="2"/>
-      <c r="C225" s="15"/>
+      <c r="C225" s="13"/>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A226" s="15"/>
+      <c r="A226" s="13"/>
       <c r="B226" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C226" s="15"/>
+      <c r="C226" s="13"/>
     </row>
     <row r="227" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A227" s="15" t="s">
+      <c r="A227" s="13" t="s">
         <v>140</v>
       </c>
       <c r="B227" s="2" t="s">
@@ -6363,12 +6215,12 @@
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A228" s="15"/>
+      <c r="A228" s="13"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A229" s="15"/>
+      <c r="A229" s="13"/>
       <c r="B229" s="3" t="s">
         <v>12</v>
       </c>
@@ -6377,31 +6229,31 @@
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A230" s="15"/>
+      <c r="A230" s="13"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A231" s="15"/>
+      <c r="A231" s="13"/>
       <c r="B231" s="2"/>
       <c r="C231" s="3" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A232" s="15"/>
+      <c r="A232" s="13"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A233" s="15"/>
+      <c r="A233" s="13"/>
       <c r="B233" s="2"/>
       <c r="C233" s="3" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A234" s="15" t="s">
+      <c r="A234" s="13" t="s">
         <v>140</v>
       </c>
       <c r="B234" s="2" t="s">
@@ -6412,12 +6264,12 @@
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A235" s="15"/>
+      <c r="A235" s="13"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
     </row>
     <row r="236" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A236" s="15"/>
+      <c r="A236" s="13"/>
       <c r="B236" s="3" t="s">
         <v>5</v>
       </c>
@@ -6426,7 +6278,7 @@
       </c>
     </row>
     <row r="237" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A237" s="15" t="s">
+      <c r="A237" s="13" t="s">
         <v>140</v>
       </c>
       <c r="B237" s="2" t="s">
@@ -6437,12 +6289,12 @@
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A238" s="15"/>
+      <c r="A238" s="13"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
     </row>
     <row r="239" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A239" s="15"/>
+      <c r="A239" s="13"/>
       <c r="B239" s="3" t="s">
         <v>12</v>
       </c>
@@ -6451,19 +6303,19 @@
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A240" s="15"/>
+      <c r="A240" s="13"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
     </row>
     <row r="241" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A241" s="15"/>
+      <c r="A241" s="13"/>
       <c r="B241" s="2"/>
       <c r="C241" s="2" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="242" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A242" s="15" t="s">
+      <c r="A242" s="13" t="s">
         <v>140</v>
       </c>
       <c r="B242" s="2" t="s">
@@ -6474,12 +6326,12 @@
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A243" s="15"/>
+      <c r="A243" s="13"/>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
     </row>
     <row r="244" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A244" s="15"/>
+      <c r="A244" s="13"/>
       <c r="B244" s="3" t="s">
         <v>12</v>
       </c>
@@ -6488,19 +6340,19 @@
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A245" s="15"/>
+      <c r="A245" s="13"/>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
     </row>
     <row r="246" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A246" s="15"/>
+      <c r="A246" s="13"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="247" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A247" s="15" t="s">
+      <c r="A247" s="13" t="s">
         <v>140</v>
       </c>
       <c r="B247" s="2" t="s">
@@ -6511,12 +6363,12 @@
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A248" s="15"/>
+      <c r="A248" s="13"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A249" s="15"/>
+      <c r="A249" s="13"/>
       <c r="B249" s="3" t="s">
         <v>12</v>
       </c>
@@ -6525,43 +6377,43 @@
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A250" s="15"/>
+      <c r="A250" s="13"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
     </row>
     <row r="251" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A251" s="15"/>
+      <c r="A251" s="13"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A252" s="15"/>
+      <c r="A252" s="13"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
     </row>
     <row r="253" spans="1:3" ht="165" x14ac:dyDescent="0.25">
-      <c r="A253" s="15"/>
+      <c r="A253" s="13"/>
       <c r="B253" s="2"/>
       <c r="C253" s="3" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A254" s="15"/>
+      <c r="A254" s="13"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
     </row>
     <row r="255" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A255" s="15"/>
+      <c r="A255" s="13"/>
       <c r="B255" s="2"/>
       <c r="C255" s="3" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="256" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A256" s="15" t="s">
+      <c r="A256" s="13" t="s">
         <v>140</v>
       </c>
       <c r="B256" s="2" t="s">
@@ -6572,12 +6424,12 @@
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A257" s="15"/>
+      <c r="A257" s="13"/>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A258" s="15"/>
+      <c r="A258" s="13"/>
       <c r="B258" s="3" t="s">
         <v>12</v>
       </c>
@@ -6586,31 +6438,31 @@
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A259" s="15"/>
+      <c r="A259" s="13"/>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A260" s="15"/>
+      <c r="A260" s="13"/>
       <c r="B260" s="2"/>
       <c r="C260" s="2" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A261" s="15"/>
+      <c r="A261" s="13"/>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
     </row>
     <row r="262" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A262" s="15"/>
+      <c r="A262" s="13"/>
       <c r="B262" s="2"/>
       <c r="C262" s="2" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="263" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A263" s="15" t="s">
+      <c r="A263" s="13" t="s">
         <v>140</v>
       </c>
       <c r="B263" s="2" t="s">
@@ -6621,12 +6473,12 @@
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A264" s="15"/>
+      <c r="A264" s="13"/>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A265" s="15"/>
+      <c r="A265" s="13"/>
       <c r="B265" s="3" t="s">
         <v>12</v>
       </c>
@@ -6635,7 +6487,7 @@
       </c>
     </row>
     <row r="266" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A266" s="15" t="s">
+      <c r="A266" s="13" t="s">
         <v>140</v>
       </c>
       <c r="B266" s="2" t="s">
@@ -6646,12 +6498,12 @@
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A267" s="15"/>
+      <c r="A267" s="13"/>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A268" s="15"/>
+      <c r="A268" s="13"/>
       <c r="B268" s="3" t="s">
         <v>12</v>
       </c>
@@ -6660,31 +6512,31 @@
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A269" s="15"/>
+      <c r="A269" s="13"/>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A270" s="15"/>
+      <c r="A270" s="13"/>
       <c r="B270" s="2"/>
       <c r="C270" s="2" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A271" s="15"/>
+      <c r="A271" s="13"/>
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
     </row>
     <row r="272" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A272" s="15"/>
+      <c r="A272" s="13"/>
       <c r="B272" s="2"/>
       <c r="C272" s="2" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="273" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A273" s="15" t="s">
+      <c r="A273" s="13" t="s">
         <v>140</v>
       </c>
       <c r="B273" s="2" t="s">
@@ -6695,12 +6547,12 @@
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A274" s="15"/>
+      <c r="A274" s="13"/>
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A275" s="15"/>
+      <c r="A275" s="13"/>
       <c r="B275" s="3" t="s">
         <v>12</v>
       </c>
@@ -6709,7 +6561,7 @@
       </c>
     </row>
     <row r="276" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A276" s="15" t="s">
+      <c r="A276" s="13" t="s">
         <v>140</v>
       </c>
       <c r="B276" s="2" t="s">
@@ -6720,12 +6572,12 @@
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A277" s="15"/>
+      <c r="A277" s="13"/>
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
     </row>
     <row r="278" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A278" s="15"/>
+      <c r="A278" s="13"/>
       <c r="B278" s="3" t="s">
         <v>12</v>
       </c>
@@ -6734,7 +6586,7 @@
       </c>
     </row>
     <row r="279" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A279" s="15" t="s">
+      <c r="A279" s="13" t="s">
         <v>140</v>
       </c>
       <c r="B279" s="2" t="s">
@@ -6745,12 +6597,12 @@
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A280" s="15"/>
+      <c r="A280" s="13"/>
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A281" s="15"/>
+      <c r="A281" s="13"/>
       <c r="B281" s="3" t="s">
         <v>12</v>
       </c>
@@ -6759,19 +6611,19 @@
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A282" s="15"/>
+      <c r="A282" s="13"/>
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A283" s="15"/>
+      <c r="A283" s="13"/>
       <c r="B283" s="2"/>
       <c r="C283" s="2" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="284" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A284" s="15" t="s">
+      <c r="A284" s="13" t="s">
         <v>140</v>
       </c>
       <c r="B284" s="2" t="s">
@@ -6782,12 +6634,12 @@
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A285" s="15"/>
+      <c r="A285" s="13"/>
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
     </row>
     <row r="286" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A286" s="15"/>
+      <c r="A286" s="13"/>
       <c r="B286" s="3" t="s">
         <v>12</v>
       </c>
@@ -6796,7 +6648,7 @@
       </c>
     </row>
     <row r="287" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A287" s="15" t="s">
+      <c r="A287" s="13" t="s">
         <v>209</v>
       </c>
       <c r="B287" s="2" t="s">
@@ -6807,12 +6659,12 @@
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A288" s="15"/>
+      <c r="A288" s="13"/>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
     </row>
     <row r="289" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A289" s="15"/>
+      <c r="A289" s="13"/>
       <c r="B289" s="3" t="s">
         <v>12</v>
       </c>
@@ -6821,78 +6673,78 @@
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A290" s="15"/>
+      <c r="A290" s="13"/>
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A291" s="15"/>
+      <c r="A291" s="13"/>
       <c r="B291" s="2"/>
       <c r="C291" s="2" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A292" s="15"/>
+      <c r="A292" s="13"/>
       <c r="B292" s="2"/>
       <c r="C292" s="2"/>
     </row>
     <row r="293" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A293" s="15"/>
+      <c r="A293" s="13"/>
       <c r="B293" s="2"/>
       <c r="C293" s="2" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A294" s="15"/>
+      <c r="A294" s="13"/>
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
     </row>
     <row r="295" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A295" s="15"/>
+      <c r="A295" s="13"/>
       <c r="B295" s="2"/>
       <c r="C295" s="2" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="296" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A296" s="15" t="s">
+      <c r="A296" s="13" t="s">
         <v>209</v>
       </c>
       <c r="B296" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C296" s="15" t="s">
+      <c r="C296" s="13" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A297" s="15"/>
+      <c r="A297" s="13"/>
       <c r="B297" s="2"/>
-      <c r="C297" s="15"/>
+      <c r="C297" s="13"/>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A298" s="15"/>
+      <c r="A298" s="13"/>
       <c r="B298" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C298" s="15"/>
+      <c r="C298" s="13"/>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A299" s="15"/>
+      <c r="A299" s="13"/>
       <c r="B299" s="2"/>
-      <c r="C299" s="15"/>
+      <c r="C299" s="13"/>
     </row>
     <row r="300" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A300" s="15"/>
+      <c r="A300" s="13"/>
       <c r="B300" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="C300" s="15"/>
+      <c r="C300" s="13"/>
     </row>
     <row r="301" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A301" s="15" t="s">
+      <c r="A301" s="13" t="s">
         <v>219</v>
       </c>
       <c r="B301" s="2" t="s">
@@ -6903,12 +6755,12 @@
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A302" s="15"/>
+      <c r="A302" s="13"/>
       <c r="B302" s="2"/>
       <c r="C302" s="2"/>
     </row>
     <row r="303" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A303" s="15"/>
+      <c r="A303" s="13"/>
       <c r="B303" s="3" t="s">
         <v>12</v>
       </c>
@@ -6917,19 +6769,19 @@
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A304" s="15"/>
+      <c r="A304" s="13"/>
       <c r="B304" s="2"/>
       <c r="C304" s="2"/>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A305" s="15"/>
+      <c r="A305" s="13"/>
       <c r="B305" s="2"/>
       <c r="C305" s="2" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="306" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A306" s="15" t="s">
+      <c r="A306" s="13" t="s">
         <v>219</v>
       </c>
       <c r="B306" s="2" t="s">
@@ -6940,12 +6792,12 @@
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A307" s="15"/>
+      <c r="A307" s="13"/>
       <c r="B307" s="2"/>
       <c r="C307" s="2"/>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A308" s="15"/>
+      <c r="A308" s="13"/>
       <c r="B308" s="3" t="s">
         <v>12</v>
       </c>
@@ -6954,7 +6806,7 @@
       </c>
     </row>
     <row r="309" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A309" s="15" t="s">
+      <c r="A309" s="13" t="s">
         <v>227</v>
       </c>
       <c r="B309" s="2" t="s">
@@ -6965,12 +6817,12 @@
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A310" s="15"/>
+      <c r="A310" s="13"/>
       <c r="B310" s="2"/>
       <c r="C310" s="2"/>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A311" s="15"/>
+      <c r="A311" s="13"/>
       <c r="B311" s="3" t="s">
         <v>5</v>
       </c>
@@ -6979,53 +6831,53 @@
       </c>
     </row>
     <row r="312" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A312" s="15" t="s">
+      <c r="A312" s="13" t="s">
         <v>227</v>
       </c>
       <c r="B312" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="C312" s="15" t="s">
+      <c r="C312" s="13" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A313" s="15"/>
+      <c r="A313" s="13"/>
       <c r="B313" s="2"/>
-      <c r="C313" s="15"/>
+      <c r="C313" s="13"/>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A314" s="15"/>
+      <c r="A314" s="13"/>
       <c r="B314" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C314" s="15"/>
+      <c r="C314" s="13"/>
     </row>
     <row r="315" spans="1:3" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A315" s="15" t="s">
+      <c r="A315" s="13" t="s">
         <v>227</v>
       </c>
       <c r="B315" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C315" s="16" t="s">
+      <c r="C315" s="14" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A316" s="15"/>
+      <c r="A316" s="13"/>
       <c r="B316" s="2"/>
-      <c r="C316" s="16"/>
+      <c r="C316" s="14"/>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A317" s="15"/>
+      <c r="A317" s="13"/>
       <c r="B317" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C317" s="16"/>
+      <c r="C317" s="14"/>
     </row>
     <row r="318" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A318" s="15" t="s">
+      <c r="A318" s="13" t="s">
         <v>235</v>
       </c>
       <c r="B318" s="2" t="s">
@@ -7036,12 +6888,12 @@
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A319" s="15"/>
+      <c r="A319" s="13"/>
       <c r="B319" s="2"/>
       <c r="C319" s="2"/>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A320" s="15"/>
+      <c r="A320" s="13"/>
       <c r="B320" s="3" t="s">
         <v>12</v>
       </c>
@@ -7050,19 +6902,19 @@
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A321" s="15"/>
+      <c r="A321" s="13"/>
       <c r="B321" s="2"/>
       <c r="C321" s="2"/>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A322" s="15"/>
+      <c r="A322" s="13"/>
       <c r="B322" s="2"/>
       <c r="C322" s="2" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="323" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A323" s="15" t="s">
+      <c r="A323" s="13" t="s">
         <v>235</v>
       </c>
       <c r="B323" s="2" t="s">
@@ -7073,12 +6925,12 @@
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A324" s="15"/>
+      <c r="A324" s="13"/>
       <c r="B324" s="2"/>
       <c r="C324" s="2"/>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A325" s="15"/>
+      <c r="A325" s="13"/>
       <c r="B325" s="3" t="s">
         <v>12</v>
       </c>
@@ -7087,19 +6939,19 @@
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A326" s="15"/>
+      <c r="A326" s="13"/>
       <c r="B326" s="2"/>
       <c r="C326" s="2"/>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A327" s="15"/>
+      <c r="A327" s="13"/>
       <c r="B327" s="2"/>
       <c r="C327" s="2" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="328" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A328" s="15" t="s">
+      <c r="A328" s="13" t="s">
         <v>244</v>
       </c>
       <c r="B328" s="2" t="s">
@@ -7110,12 +6962,12 @@
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A329" s="15"/>
+      <c r="A329" s="13"/>
       <c r="B329" s="2"/>
       <c r="C329" s="2"/>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A330" s="15"/>
+      <c r="A330" s="13"/>
       <c r="B330" s="3" t="s">
         <v>12</v>
       </c>
@@ -7124,217 +6976,155 @@
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A331" s="15"/>
+      <c r="A331" s="13"/>
       <c r="B331" s="2"/>
       <c r="C331" s="2"/>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A332" s="15"/>
+      <c r="A332" s="13"/>
       <c r="B332" s="2"/>
       <c r="C332" s="3" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A333" s="15"/>
+      <c r="A333" s="13"/>
       <c r="B333" s="2"/>
       <c r="C333" s="2"/>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A334" s="15"/>
+      <c r="A334" s="13"/>
       <c r="B334" s="2"/>
       <c r="C334" s="3" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A335" s="15"/>
+      <c r="A335" s="13"/>
       <c r="B335" s="2"/>
       <c r="C335" s="2"/>
     </row>
     <row r="336" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A336" s="15"/>
+      <c r="A336" s="13"/>
       <c r="B336" s="2"/>
       <c r="C336" s="2" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A337" s="15"/>
+      <c r="A337" s="13"/>
       <c r="B337" s="2"/>
       <c r="C337" s="2"/>
     </row>
     <row r="338" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A338" s="15"/>
+      <c r="A338" s="13"/>
       <c r="B338" s="2"/>
       <c r="C338" s="2" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A339" s="15"/>
+      <c r="A339" s="13"/>
       <c r="B339" s="2"/>
       <c r="C339" s="2"/>
     </row>
     <row r="340" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A340" s="15"/>
+      <c r="A340" s="13"/>
       <c r="B340" s="2"/>
       <c r="C340" s="2" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="341" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A341" s="15" t="s">
+      <c r="A341" s="13" t="s">
         <v>244</v>
       </c>
       <c r="B341" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C341" s="15" t="s">
+      <c r="C341" s="13" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A342" s="15"/>
+      <c r="A342" s="13"/>
       <c r="B342" s="2"/>
-      <c r="C342" s="15"/>
+      <c r="C342" s="13"/>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A343" s="15"/>
+      <c r="A343" s="13"/>
       <c r="B343" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C343" s="15"/>
+      <c r="C343" s="13"/>
     </row>
     <row r="344" spans="1:3" ht="135" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A344" s="15" t="s">
+      <c r="A344" s="13" t="s">
         <v>244</v>
       </c>
       <c r="B344" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="C344" s="15" t="s">
+      <c r="C344" s="13" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A345" s="15"/>
+      <c r="A345" s="13"/>
       <c r="B345" s="2"/>
-      <c r="C345" s="15"/>
+      <c r="C345" s="13"/>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A346" s="15"/>
+      <c r="A346" s="13"/>
       <c r="B346" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C346" s="15"/>
+      <c r="C346" s="13"/>
     </row>
     <row r="347" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A347" s="15" t="s">
+      <c r="A347" s="13" t="s">
         <v>244</v>
       </c>
       <c r="B347" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="C347" s="16" t="s">
+      <c r="C347" s="14" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A348" s="15"/>
+      <c r="A348" s="13"/>
       <c r="B348" s="2"/>
-      <c r="C348" s="16"/>
+      <c r="C348" s="14"/>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A349" s="15"/>
+      <c r="A349" s="13"/>
       <c r="B349" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C349" s="16"/>
+      <c r="C349" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="114">
-    <mergeCell ref="A347:A349"/>
-    <mergeCell ref="C347:C349"/>
-    <mergeCell ref="A318:A322"/>
-    <mergeCell ref="A323:A327"/>
-    <mergeCell ref="A328:A340"/>
-    <mergeCell ref="A341:A343"/>
-    <mergeCell ref="C341:C343"/>
-    <mergeCell ref="A344:A346"/>
-    <mergeCell ref="C344:C346"/>
-    <mergeCell ref="A306:A308"/>
-    <mergeCell ref="A309:A311"/>
-    <mergeCell ref="A312:A314"/>
-    <mergeCell ref="C312:C314"/>
-    <mergeCell ref="A315:A317"/>
-    <mergeCell ref="C315:C317"/>
-    <mergeCell ref="A279:A283"/>
-    <mergeCell ref="A284:A286"/>
-    <mergeCell ref="A287:A295"/>
-    <mergeCell ref="A296:A300"/>
-    <mergeCell ref="C296:C300"/>
-    <mergeCell ref="A301:A305"/>
-    <mergeCell ref="A247:A255"/>
-    <mergeCell ref="A256:A262"/>
-    <mergeCell ref="A263:A265"/>
-    <mergeCell ref="A266:A272"/>
-    <mergeCell ref="A273:A275"/>
-    <mergeCell ref="A276:A278"/>
-    <mergeCell ref="A224:A226"/>
-    <mergeCell ref="C224:C226"/>
-    <mergeCell ref="A227:A233"/>
-    <mergeCell ref="A234:A236"/>
-    <mergeCell ref="A237:A241"/>
-    <mergeCell ref="A242:A246"/>
-    <mergeCell ref="A203:A207"/>
-    <mergeCell ref="A208:A210"/>
-    <mergeCell ref="A211:A213"/>
-    <mergeCell ref="A214:A220"/>
-    <mergeCell ref="A221:A223"/>
-    <mergeCell ref="C221:C223"/>
-    <mergeCell ref="A185:A191"/>
-    <mergeCell ref="A192:A194"/>
-    <mergeCell ref="C192:C194"/>
-    <mergeCell ref="A195:A199"/>
-    <mergeCell ref="A200:A202"/>
-    <mergeCell ref="C200:C202"/>
-    <mergeCell ref="A170:A172"/>
-    <mergeCell ref="A173:A175"/>
-    <mergeCell ref="A176:A178"/>
-    <mergeCell ref="C176:C178"/>
-    <mergeCell ref="A179:A181"/>
-    <mergeCell ref="A182:A184"/>
-    <mergeCell ref="A152:A154"/>
-    <mergeCell ref="C152:C154"/>
-    <mergeCell ref="A155:A161"/>
-    <mergeCell ref="A162:A164"/>
-    <mergeCell ref="C162:C164"/>
-    <mergeCell ref="A165:A169"/>
-    <mergeCell ref="A136:A140"/>
-    <mergeCell ref="A141:A145"/>
-    <mergeCell ref="A146:A148"/>
-    <mergeCell ref="C146:C148"/>
-    <mergeCell ref="A149:A151"/>
-    <mergeCell ref="C149:C151"/>
-    <mergeCell ref="A111:A113"/>
-    <mergeCell ref="C111:C113"/>
-    <mergeCell ref="A114:A122"/>
-    <mergeCell ref="A123:A127"/>
-    <mergeCell ref="A128:A130"/>
-    <mergeCell ref="A131:A135"/>
-    <mergeCell ref="A85:A95"/>
-    <mergeCell ref="A96:A104"/>
-    <mergeCell ref="A105:A107"/>
-    <mergeCell ref="C105:C107"/>
-    <mergeCell ref="A108:A110"/>
-    <mergeCell ref="C108:C110"/>
-    <mergeCell ref="A76:A78"/>
-    <mergeCell ref="C76:C78"/>
-    <mergeCell ref="A79:A81"/>
-    <mergeCell ref="C79:C81"/>
-    <mergeCell ref="A82:A84"/>
-    <mergeCell ref="C82:C84"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="A20:A28"/>
+    <mergeCell ref="A29:A35"/>
     <mergeCell ref="A64:A66"/>
     <mergeCell ref="C64:C66"/>
     <mergeCell ref="A67:A69"/>
@@ -7349,25 +7139,87 @@
     <mergeCell ref="A58:A60"/>
     <mergeCell ref="A61:A63"/>
     <mergeCell ref="C61:C63"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="A42:A46"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="A20:A28"/>
-    <mergeCell ref="A29:A35"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="A85:A95"/>
+    <mergeCell ref="A96:A104"/>
+    <mergeCell ref="A105:A107"/>
+    <mergeCell ref="C105:C107"/>
+    <mergeCell ref="A108:A110"/>
+    <mergeCell ref="C108:C110"/>
+    <mergeCell ref="A76:A78"/>
+    <mergeCell ref="C76:C78"/>
+    <mergeCell ref="A79:A81"/>
+    <mergeCell ref="C79:C81"/>
+    <mergeCell ref="A82:A84"/>
+    <mergeCell ref="C82:C84"/>
+    <mergeCell ref="A136:A140"/>
+    <mergeCell ref="A141:A145"/>
+    <mergeCell ref="A146:A148"/>
+    <mergeCell ref="C146:C148"/>
+    <mergeCell ref="A149:A151"/>
+    <mergeCell ref="C149:C151"/>
+    <mergeCell ref="A111:A113"/>
+    <mergeCell ref="C111:C113"/>
+    <mergeCell ref="A114:A122"/>
+    <mergeCell ref="A123:A127"/>
+    <mergeCell ref="A128:A130"/>
+    <mergeCell ref="A131:A135"/>
+    <mergeCell ref="A170:A172"/>
+    <mergeCell ref="A173:A175"/>
+    <mergeCell ref="A176:A178"/>
+    <mergeCell ref="C176:C178"/>
+    <mergeCell ref="A179:A181"/>
+    <mergeCell ref="A182:A184"/>
+    <mergeCell ref="A152:A154"/>
+    <mergeCell ref="C152:C154"/>
+    <mergeCell ref="A155:A161"/>
+    <mergeCell ref="A162:A164"/>
+    <mergeCell ref="C162:C164"/>
+    <mergeCell ref="A165:A169"/>
+    <mergeCell ref="A203:A207"/>
+    <mergeCell ref="A208:A210"/>
+    <mergeCell ref="A211:A213"/>
+    <mergeCell ref="A214:A220"/>
+    <mergeCell ref="A221:A223"/>
+    <mergeCell ref="C221:C223"/>
+    <mergeCell ref="A185:A191"/>
+    <mergeCell ref="A192:A194"/>
+    <mergeCell ref="C192:C194"/>
+    <mergeCell ref="A195:A199"/>
+    <mergeCell ref="A200:A202"/>
+    <mergeCell ref="C200:C202"/>
+    <mergeCell ref="A247:A255"/>
+    <mergeCell ref="A256:A262"/>
+    <mergeCell ref="A263:A265"/>
+    <mergeCell ref="A266:A272"/>
+    <mergeCell ref="A273:A275"/>
+    <mergeCell ref="A276:A278"/>
+    <mergeCell ref="A224:A226"/>
+    <mergeCell ref="C224:C226"/>
+    <mergeCell ref="A227:A233"/>
+    <mergeCell ref="A234:A236"/>
+    <mergeCell ref="A237:A241"/>
+    <mergeCell ref="A242:A246"/>
+    <mergeCell ref="A306:A308"/>
+    <mergeCell ref="A309:A311"/>
+    <mergeCell ref="A312:A314"/>
+    <mergeCell ref="C312:C314"/>
+    <mergeCell ref="A315:A317"/>
+    <mergeCell ref="C315:C317"/>
+    <mergeCell ref="A279:A283"/>
+    <mergeCell ref="A284:A286"/>
+    <mergeCell ref="A287:A295"/>
+    <mergeCell ref="A296:A300"/>
+    <mergeCell ref="C296:C300"/>
+    <mergeCell ref="A301:A305"/>
+    <mergeCell ref="A347:A349"/>
+    <mergeCell ref="C347:C349"/>
+    <mergeCell ref="A318:A322"/>
+    <mergeCell ref="A323:A327"/>
+    <mergeCell ref="A328:A340"/>
+    <mergeCell ref="A341:A343"/>
+    <mergeCell ref="C341:C343"/>
+    <mergeCell ref="A344:A346"/>
+    <mergeCell ref="C344:C346"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C17" r:id="rId1" display="https://msdn.microsoft.com/en-us/library/dd239405.aspx"/>

--- a/sqlserver2008/docs/sql2008_ParamGenerator.xlsx
+++ b/sqlserver2008/docs/sql2008_ParamGenerator.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$L$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$L$63</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="582">
   <si>
     <t>SQL Server component</t>
   </si>
@@ -2273,6 +2273,19 @@
 0=disable the TCP protocol
 1=enable the TCP protocol
 </t>
+  </si>
+  <si>
+    <t>INSTALL</t>
+  </si>
+  <si>
+    <t>SQLEngine</t>
+  </si>
+  <si>
+    <t>$thisUser</t>
+  </si>
+  <si>
+    <t>Required to acknowledge acceptance of the license terms.
+Use this parameter to install the English version of SQL Server on a localized operating system when the installation media includes language packs for both English and the language corresponding to the operating system.</t>
   </si>
 </sst>
 </file>
@@ -2352,7 +2365,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2387,11 +2400,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2699,11 +2715,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M62"/>
+  <dimension ref="A1:M97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D62" sqref="D62"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2785,7 +2801,9 @@
       <c r="D4" s="10" t="s">
         <v>547</v>
       </c>
-      <c r="F4" s="8"/>
+      <c r="F4" s="8" t="s">
+        <v>578</v>
+      </c>
       <c r="G4" t="str">
         <f>SUBSTITUTE(B4,"/","")</f>
         <v>ACTION</v>
@@ -2795,14 +2813,14 @@
         <v>choco:sqlserver2008:ACTION</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" t="str">
         <f>IF(J4,"if (!(Test-Path env:\"&amp;H4&amp;")){$env:"&amp;H4&amp;"="""&amp;F4&amp;"""}","")</f>
-        <v/>
+        <v>if (!(Test-Path env:\choco:sqlserver2008:ACTION)){$env:choco:sqlserver2008:ACTION="INSTALL"}</v>
       </c>
       <c r="L4" t="str">
         <f>"if (Test-Path env:\"&amp;H4&amp;"){Add-Content $configFile """&amp;G4&amp;"=`""$env:"&amp;H4&amp;"`""""}"</f>
@@ -2813,158 +2831,173 @@
         <v>$env:choco:sqlserver2008:ACTION=""</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="195" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>18</v>
+      <c r="B5" s="13" t="s">
+        <v>8</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>19</v>
+        <v>9</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>581</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
       </c>
       <c r="G5" t="str">
-        <f t="shared" ref="G5:G18" si="0">SUBSTITUTE(B5,"/","")</f>
-        <v>CONFIGURATIONFILE</v>
+        <f t="shared" ref="G5:G6" si="0">SUBSTITUTE(B5,"/","")</f>
+        <v>IACCEPTSQLSERVERLICENSETERMS</v>
       </c>
       <c r="H5" t="str">
-        <f t="shared" ref="H5:H18" si="1">"choco:sqlserver2008:"&amp;G5</f>
-        <v>choco:sqlserver2008:CONFIGURATIONFILE</v>
+        <f t="shared" ref="H5:H6" si="1">"choco:sqlserver2008:"&amp;G5</f>
+        <v>choco:sqlserver2008:IACCEPTSQLSERVERLICENSETERMS</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" t="str">
-        <f t="shared" ref="K5:K19" si="2">IF(J5,"if (!(Test-Path env:\"&amp;H5&amp;")){$env:"&amp;H5&amp;"="""&amp;F5&amp;"""}","")</f>
-        <v/>
+        <f t="shared" ref="K5:K6" si="2">IF(J5,"if (!(Test-Path env:\"&amp;H5&amp;")){$env:"&amp;H5&amp;"="""&amp;F5&amp;"""}","")</f>
+        <v>if (!(Test-Path env:\choco:sqlserver2008:IACCEPTSQLSERVERLICENSETERMS)){$env:choco:sqlserver2008:IACCEPTSQLSERVERLICENSETERMS="TRUE"}</v>
       </c>
       <c r="L5" t="str">
-        <f t="shared" ref="L5:L19" si="3">"if (Test-Path env:\"&amp;H5&amp;"){Add-Content $configFile """&amp;G5&amp;"=`""$env:"&amp;H5&amp;"`""""}"</f>
-        <v>if (Test-Path env:\choco:sqlserver2008:CONFIGURATIONFILE){Add-Content $configFile "CONFIGURATIONFILE=`"$env:choco:sqlserver2008:CONFIGURATIONFILE`""}</v>
+        <f t="shared" ref="L5:L6" si="3">"if (Test-Path env:\"&amp;H5&amp;"){Add-Content $configFile """&amp;G5&amp;"=`""$env:"&amp;H5&amp;"`""""}"</f>
+        <v>if (Test-Path env:\choco:sqlserver2008:IACCEPTSQLSERVERLICENSETERMS){Add-Content $configFile "IACCEPTSQLSERVERLICENSETERMS=`"$env:choco:sqlserver2008:IACCEPTSQLSERVERLICENSETERMS`""}</v>
       </c>
       <c r="M5" t="str">
-        <f t="shared" ref="M5:M19" si="4">"$env:"&amp;H5&amp;"="""""</f>
-        <v>$env:choco:sqlserver2008:CONFIGURATIONFILE=""</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="M5:M6" si="4">"$env:"&amp;H5&amp;"="""""</f>
+        <v>$env:choco:sqlserver2008:IACCEPTSQLSERVERLICENSETERMS=""</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="195" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>548</v>
+      <c r="D6" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
-        <v>ERRORREPORTING</v>
+        <v>CONFIGURATIONFILE</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="1"/>
-        <v>choco:sqlserver2008:ERRORREPORTING</v>
+        <v>choco:sqlserver2008:CONFIGURATIONFILE</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>if (!(Test-Path env:\choco:sqlserver2008:CONFIGURATIONFILE)){$env:choco:sqlserver2008:CONFIGURATIONFILE=""}</v>
       </c>
       <c r="L6" t="str">
         <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2008:ERRORREPORTING){Add-Content $configFile "ERRORREPORTING=`"$env:choco:sqlserver2008:ERRORREPORTING`""}</v>
+        <v>if (Test-Path env:\choco:sqlserver2008:CONFIGURATIONFILE){Add-Content $configFile "CONFIGURATIONFILE=`"$env:choco:sqlserver2008:CONFIGURATIONFILE`""}</v>
       </c>
       <c r="M6" t="str">
         <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2008:ERRORREPORTING=""</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+        <v>$env:choco:sqlserver2008:CONFIGURATIONFILE=""</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>541</v>
+        <v>12</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>548</v>
       </c>
       <c r="G7" t="str">
-        <f t="shared" si="0"/>
-        <v>FEATURES</v>
+        <f>SUBSTITUTE(B7,"/","")</f>
+        <v>ERRORREPORTING</v>
       </c>
       <c r="H7" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2008:FEATURES</v>
+        <f t="shared" ref="H6:H19" si="5">"choco:sqlserver2008:"&amp;G7</f>
+        <v>choco:sqlserver2008:ERRORREPORTING</v>
       </c>
       <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
         <v>0</v>
       </c>
       <c r="K7" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(J7,"if (!(Test-Path env:\"&amp;H7&amp;")){$env:"&amp;H7&amp;"="""&amp;F7&amp;"""}","")</f>
         <v/>
       </c>
       <c r="L7" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2008:FEATURES){Add-Content $configFile "FEATURES=`"$env:choco:sqlserver2008:FEATURES`""}</v>
+        <f t="shared" ref="L7:L63" si="6">"if (Test-Path env:\"&amp;H7&amp;"){Add-Content $configFile """&amp;G7&amp;"=`""$env:"&amp;H7&amp;"`""""}"</f>
+        <v>if (Test-Path env:\choco:sqlserver2008:ERRORREPORTING){Add-Content $configFile "ERRORREPORTING=`"$env:choco:sqlserver2008:ERRORREPORTING`""}</v>
       </c>
       <c r="M7" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2008:FEATURES=""</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="M6:M20" si="7">"$env:"&amp;H7&amp;"="""""</f>
+        <v>$env:choco:sqlserver2008:ERRORREPORTING=""</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>549</v>
+        <v>26</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>33</v>
+        <v>5</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>541</v>
+      </c>
+      <c r="F8" t="s">
+        <v>579</v>
       </c>
       <c r="G8" t="str">
-        <f t="shared" si="0"/>
-        <v>HELP</v>
+        <f>SUBSTITUTE(B8,"/","")</f>
+        <v>FEATURES</v>
       </c>
       <c r="H8" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2008:HELP</v>
+        <f t="shared" si="5"/>
+        <v>choco:sqlserver2008:FEATURES</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
       </c>
       <c r="K8" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f>IF(J8,"if (!(Test-Path env:\"&amp;H8&amp;")){$env:"&amp;H8&amp;"="""&amp;F8&amp;"""}","")</f>
+        <v>if (!(Test-Path env:\choco:sqlserver2008:FEATURES)){$env:choco:sqlserver2008:FEATURES="SQLEngine"}</v>
       </c>
       <c r="L8" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2008:HELP){Add-Content $configFile "HELP=`"$env:choco:sqlserver2008:HELP`""}</v>
+        <f t="shared" si="6"/>
+        <v>if (Test-Path env:\choco:sqlserver2008:FEATURES){Add-Content $configFile "FEATURES=`"$env:choco:sqlserver2008:FEATURES`""}</v>
       </c>
       <c r="M8" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2008:HELP=""</v>
+        <f t="shared" si="7"/>
+        <v>$env:choco:sqlserver2008:FEATURES=""</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2972,36 +3005,36 @@
         <v>3</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>34</v>
+        <v>549</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G9" t="str">
-        <f t="shared" si="0"/>
-        <v>INDICATEPROGRESS</v>
+        <f>SUBSTITUTE(B9,"/","")</f>
+        <v>HELP</v>
       </c>
       <c r="H9" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2008:INDICATEPROGRESS</v>
+        <f t="shared" si="5"/>
+        <v>choco:sqlserver2008:HELP</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(J9,"if (!(Test-Path env:\"&amp;H9&amp;")){$env:"&amp;H9&amp;"="""&amp;F9&amp;"""}","")</f>
         <v/>
       </c>
       <c r="L9" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2008:INDICATEPROGRESS){Add-Content $configFile "INDICATEPROGRESS=`"$env:choco:sqlserver2008:INDICATEPROGRESS`""}</v>
+        <f t="shared" si="6"/>
+        <v>if (Test-Path env:\choco:sqlserver2008:HELP){Add-Content $configFile "HELP=`"$env:choco:sqlserver2008:HELP`""}</v>
       </c>
       <c r="M9" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2008:INDICATEPROGRESS=""</v>
+        <f t="shared" si="7"/>
+        <v>$env:choco:sqlserver2008:HELP=""</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3009,110 +3042,110 @@
         <v>3</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G10" t="str">
-        <f t="shared" si="0"/>
-        <v>INSTALLSHAREDDIR</v>
+        <f>SUBSTITUTE(B10,"/","")</f>
+        <v>INDICATEPROGRESS</v>
       </c>
       <c r="H10" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2008:INSTALLSHAREDDIR</v>
+        <f t="shared" si="5"/>
+        <v>choco:sqlserver2008:INDICATEPROGRESS</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(J10,"if (!(Test-Path env:\"&amp;H10&amp;")){$env:"&amp;H10&amp;"="""&amp;F10&amp;"""}","")</f>
         <v/>
       </c>
       <c r="L10" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2008:INSTALLSHAREDDIR){Add-Content $configFile "INSTALLSHAREDDIR=`"$env:choco:sqlserver2008:INSTALLSHAREDDIR`""}</v>
+        <f t="shared" si="6"/>
+        <v>if (Test-Path env:\choco:sqlserver2008:INDICATEPROGRESS){Add-Content $configFile "INDICATEPROGRESS=`"$env:choco:sqlserver2008:INDICATEPROGRESS`""}</v>
       </c>
       <c r="M10" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2008:INSTALLSHAREDDIR=""</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>$env:choco:sqlserver2008:INDICATEPROGRESS=""</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G11" t="str">
-        <f t="shared" si="0"/>
-        <v>INSTALLSHAREDWOWDIR</v>
+        <f>SUBSTITUTE(B11,"/","")</f>
+        <v>INSTALLSHAREDDIR</v>
       </c>
       <c r="H11" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2008:INSTALLSHAREDWOWDIR</v>
+        <f t="shared" si="5"/>
+        <v>choco:sqlserver2008:INSTALLSHAREDDIR</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(J11,"if (!(Test-Path env:\"&amp;H11&amp;")){$env:"&amp;H11&amp;"="""&amp;F11&amp;"""}","")</f>
         <v/>
       </c>
       <c r="L11" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2008:INSTALLSHAREDWOWDIR){Add-Content $configFile "INSTALLSHAREDWOWDIR=`"$env:choco:sqlserver2008:INSTALLSHAREDWOWDIR`""}</v>
+        <f t="shared" si="6"/>
+        <v>if (Test-Path env:\choco:sqlserver2008:INSTALLSHAREDDIR){Add-Content $configFile "INSTALLSHAREDDIR=`"$env:choco:sqlserver2008:INSTALLSHAREDDIR`""}</v>
       </c>
       <c r="M11" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2008:INSTALLSHAREDWOWDIR=""</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>$env:choco:sqlserver2008:INSTALLSHAREDDIR=""</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G12" t="str">
-        <f t="shared" si="0"/>
-        <v>INSTANCEDIR</v>
+        <f>SUBSTITUTE(B12,"/","")</f>
+        <v>INSTALLSHAREDWOWDIR</v>
       </c>
       <c r="H12" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2008:INSTANCEDIR</v>
+        <f t="shared" si="5"/>
+        <v>choco:sqlserver2008:INSTALLSHAREDWOWDIR</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(J12,"if (!(Test-Path env:\"&amp;H12&amp;")){$env:"&amp;H12&amp;"="""&amp;F12&amp;"""}","")</f>
         <v/>
       </c>
       <c r="L12" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2008:INSTANCEDIR){Add-Content $configFile "INSTANCEDIR=`"$env:choco:sqlserver2008:INSTANCEDIR`""}</v>
+        <f t="shared" si="6"/>
+        <v>if (Test-Path env:\choco:sqlserver2008:INSTALLSHAREDWOWDIR){Add-Content $configFile "INSTALLSHAREDWOWDIR=`"$env:choco:sqlserver2008:INSTALLSHAREDWOWDIR`""}</v>
       </c>
       <c r="M12" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2008:INSTANCEDIR=""</v>
+        <f t="shared" si="7"/>
+        <v>$env:choco:sqlserver2008:INSTALLSHAREDWOWDIR=""</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3120,110 +3153,110 @@
         <v>3</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="11" t="s">
-        <v>47</v>
+      <c r="D13" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="G13" t="str">
-        <f t="shared" si="0"/>
-        <v>INSTANCEID</v>
+        <f>SUBSTITUTE(B13,"/","")</f>
+        <v>INSTANCEDIR</v>
       </c>
       <c r="H13" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2008:INSTANCEID</v>
+        <f t="shared" si="5"/>
+        <v>choco:sqlserver2008:INSTANCEDIR</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(J13,"if (!(Test-Path env:\"&amp;H13&amp;")){$env:"&amp;H13&amp;"="""&amp;F13&amp;"""}","")</f>
         <v/>
       </c>
       <c r="L13" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2008:INSTANCEID){Add-Content $configFile "INSTANCEID=`"$env:choco:sqlserver2008:INSTANCEID`""}</v>
+        <f t="shared" si="6"/>
+        <v>if (Test-Path env:\choco:sqlserver2008:INSTANCEDIR){Add-Content $configFile "INSTANCEDIR=`"$env:choco:sqlserver2008:INSTANCEDIR`""}</v>
       </c>
       <c r="M13" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2008:INSTANCEID=""</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>$env:choco:sqlserver2008:INSTANCEDIR=""</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>49</v>
+        <v>12</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="G14" t="str">
-        <f t="shared" si="0"/>
-        <v>INSTANCENAME</v>
+        <f>SUBSTITUTE(B14,"/","")</f>
+        <v>INSTANCEID</v>
       </c>
       <c r="H14" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2008:INSTANCENAME</v>
+        <f t="shared" si="5"/>
+        <v>choco:sqlserver2008:INSTANCEID</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(J14,"if (!(Test-Path env:\"&amp;H14&amp;")){$env:"&amp;H14&amp;"="""&amp;F14&amp;"""}","")</f>
         <v/>
       </c>
       <c r="L14" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2008:INSTANCENAME){Add-Content $configFile "INSTANCENAME=`"$env:choco:sqlserver2008:INSTANCENAME`""}</v>
+        <f t="shared" si="6"/>
+        <v>if (Test-Path env:\choco:sqlserver2008:INSTANCEID){Add-Content $configFile "INSTANCEID=`"$env:choco:sqlserver2008:INSTANCEID`""}</v>
       </c>
       <c r="M14" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2008:INSTANCENAME=""</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>$env:choco:sqlserver2008:INSTANCEID=""</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>542</v>
+        <v>49</v>
       </c>
       <c r="G15" t="str">
-        <f t="shared" si="0"/>
-        <v>PID</v>
+        <f>SUBSTITUTE(B15,"/","")</f>
+        <v>INSTANCENAME</v>
       </c>
       <c r="H15" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2008:PID</v>
+        <f t="shared" si="5"/>
+        <v>choco:sqlserver2008:INSTANCENAME</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(J15,"if (!(Test-Path env:\"&amp;H15&amp;")){$env:"&amp;H15&amp;"="""&amp;F15&amp;"""}","")</f>
         <v/>
       </c>
       <c r="L15" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2008:PID){Add-Content $configFile "PID=`"$env:choco:sqlserver2008:PID`""}</v>
+        <f t="shared" si="6"/>
+        <v>if (Test-Path env:\choco:sqlserver2008:INSTANCENAME){Add-Content $configFile "INSTANCENAME=`"$env:choco:sqlserver2008:INSTANCENAME`""}</v>
       </c>
       <c r="M15" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2008:PID=""</v>
+        <f t="shared" si="7"/>
+        <v>$env:choco:sqlserver2008:INSTANCENAME=""</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3231,36 +3264,36 @@
         <v>3</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>66</v>
+        <v>542</v>
       </c>
       <c r="G16" t="str">
-        <f t="shared" si="0"/>
-        <v>Q</v>
+        <f>SUBSTITUTE(B16,"/","")</f>
+        <v>PID</v>
       </c>
       <c r="H16" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2008:Q</v>
+        <f t="shared" si="5"/>
+        <v>choco:sqlserver2008:PID</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(J16,"if (!(Test-Path env:\"&amp;H16&amp;")){$env:"&amp;H16&amp;"="""&amp;F16&amp;"""}","")</f>
         <v/>
       </c>
       <c r="L16" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2008:Q){Add-Content $configFile "Q=`"$env:choco:sqlserver2008:Q`""}</v>
+        <f t="shared" si="6"/>
+        <v>if (Test-Path env:\choco:sqlserver2008:PID){Add-Content $configFile "PID=`"$env:choco:sqlserver2008:PID`""}</v>
       </c>
       <c r="M16" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2008:Q=""</v>
+        <f t="shared" si="7"/>
+        <v>$env:choco:sqlserver2008:PID=""</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3268,147 +3301,159 @@
         <v>3</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
+      </c>
+      <c r="F17" t="b">
+        <v>1</v>
       </c>
       <c r="G17" t="str">
-        <f t="shared" si="0"/>
-        <v>QS</v>
+        <f>SUBSTITUTE(B17,"/","")</f>
+        <v>Q</v>
       </c>
       <c r="H17" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2008:QS</v>
+        <f t="shared" si="5"/>
+        <v>choco:sqlserver2008:Q</v>
       </c>
       <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
         <v>0</v>
       </c>
       <c r="K17" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(J17,"if (!(Test-Path env:\"&amp;H17&amp;")){$env:"&amp;H17&amp;"="""&amp;F17&amp;"""}","")</f>
         <v/>
       </c>
       <c r="L17" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2008:QS){Add-Content $configFile "QS=`"$env:choco:sqlserver2008:QS`""}</v>
+        <f t="shared" si="6"/>
+        <v>if (Test-Path env:\choco:sqlserver2008:Q){Add-Content $configFile "Q=`"$env:choco:sqlserver2008:Q`""}</v>
       </c>
       <c r="M17" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2008:QS=""</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="210" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>$env:choco:sqlserver2008:Q=""</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>550</v>
+        <v>68</v>
+      </c>
+      <c r="F18" t="b">
+        <v>1</v>
       </c>
       <c r="G18" t="str">
-        <f t="shared" si="0"/>
-        <v>SQMREPORTING</v>
+        <f>SUBSTITUTE(B18,"/","")</f>
+        <v>QS</v>
       </c>
       <c r="H18" t="str">
-        <f t="shared" si="1"/>
-        <v>choco:sqlserver2008:SQMREPORTING</v>
+        <f t="shared" si="5"/>
+        <v>choco:sqlserver2008:QS</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
       </c>
       <c r="K18" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f>IF(J18,"if (!(Test-Path env:\"&amp;H18&amp;")){$env:"&amp;H18&amp;"="""&amp;F18&amp;"""}","")</f>
+        <v>if (!(Test-Path env:\choco:sqlserver2008:QS)){$env:choco:sqlserver2008:QS="TRUE"}</v>
       </c>
       <c r="L18" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2008:SQMREPORTING){Add-Content $configFile "SQMREPORTING=`"$env:choco:sqlserver2008:SQMREPORTING`""}</v>
+        <f t="shared" si="6"/>
+        <v>if (Test-Path env:\choco:sqlserver2008:QS){Add-Content $configFile "QS=`"$env:choco:sqlserver2008:QS`""}</v>
       </c>
       <c r="M18" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2008:SQMREPORTING=""</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>$env:choco:sqlserver2008:QS=""</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="210" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>79</v>
+        <v>550</v>
       </c>
       <c r="G19" t="str">
-        <f t="shared" ref="G19:G32" si="5">SUBSTITUTE(B19,"/","")</f>
-        <v>HIDECONSOLE</v>
+        <f>SUBSTITUTE(B19,"/","")</f>
+        <v>SQMREPORTING</v>
       </c>
       <c r="H19" t="str">
-        <f t="shared" ref="H19:H32" si="6">"choco:sqlserver2008:"&amp;G19</f>
-        <v>choco:sqlserver2008:HIDECONSOLE</v>
+        <f t="shared" si="5"/>
+        <v>choco:sqlserver2008:SQMREPORTING</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(J19,"if (!(Test-Path env:\"&amp;H19&amp;")){$env:"&amp;H19&amp;"="""&amp;F19&amp;"""}","")</f>
         <v/>
       </c>
       <c r="L19" t="str">
-        <f t="shared" si="3"/>
-        <v>if (Test-Path env:\choco:sqlserver2008:HIDECONSOLE){Add-Content $configFile "HIDECONSOLE=`"$env:choco:sqlserver2008:HIDECONSOLE`""}</v>
+        <f t="shared" si="6"/>
+        <v>if (Test-Path env:\choco:sqlserver2008:SQMREPORTING){Add-Content $configFile "SQMREPORTING=`"$env:choco:sqlserver2008:SQMREPORTING`""}</v>
       </c>
       <c r="M19" t="str">
-        <f t="shared" si="4"/>
-        <v>$env:choco:sqlserver2008:HIDECONSOLE=""</v>
+        <f t="shared" si="7"/>
+        <v>$env:choco:sqlserver2008:SQMREPORTING=""</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G20" t="str">
-        <f t="shared" si="5"/>
-        <v>AGTSVCACCOUNT</v>
+        <f>SUBSTITUTE(B20,"/","")</f>
+        <v>HIDECONSOLE</v>
       </c>
       <c r="H20" t="str">
+        <f t="shared" ref="H20:H33" si="8">"choco:sqlserver2008:"&amp;G20</f>
+        <v>choco:sqlserver2008:HIDECONSOLE</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="K20" t="str">
+        <f>IF(J20,"if (!(Test-Path env:\"&amp;H20&amp;")){$env:"&amp;H20&amp;"="""&amp;F20&amp;"""}","")</f>
+        <v/>
+      </c>
+      <c r="L20" t="str">
         <f t="shared" si="6"/>
-        <v>choco:sqlserver2008:AGTSVCACCOUNT</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="K20" t="str">
-        <f t="shared" ref="K20:K21" si="7">IF(J20,"if (!(Test-Path env:\"&amp;H20&amp;")){$env:"&amp;H20&amp;"="""&amp;F20&amp;"""}","")</f>
-        <v/>
-      </c>
-      <c r="L20" t="str">
-        <f t="shared" ref="L20:L21" si="8">"if (Test-Path env:\"&amp;H20&amp;"){Add-Content $configFile """&amp;G20&amp;"=`""$env:"&amp;H20&amp;"`""""}"</f>
-        <v>if (Test-Path env:\choco:sqlserver2008:AGTSVCACCOUNT){Add-Content $configFile "AGTSVCACCOUNT=`"$env:choco:sqlserver2008:AGTSVCACCOUNT`""}</v>
+        <v>if (Test-Path env:\choco:sqlserver2008:HIDECONSOLE){Add-Content $configFile "HIDECONSOLE=`"$env:choco:sqlserver2008:HIDECONSOLE`""}</v>
       </c>
       <c r="M20" t="str">
-        <f t="shared" ref="M20:M21" si="9">"$env:"&amp;H20&amp;"="""""</f>
-        <v>$env:choco:sqlserver2008:AGTSVCACCOUNT=""</v>
+        <f t="shared" si="7"/>
+        <v>$env:choco:sqlserver2008:HIDECONSOLE=""</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3416,136 +3461,172 @@
         <v>80</v>
       </c>
       <c r="B21" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G21" t="str">
+        <f>SUBSTITUTE(B21,"/","")</f>
+        <v>AGTSVCACCOUNT</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="8"/>
+        <v>choco:sqlserver2008:AGTSVCACCOUNT</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="K21" t="str">
+        <f>IF(J21,"if (!(Test-Path env:\"&amp;H21&amp;")){$env:"&amp;H21&amp;"="""&amp;F21&amp;"""}","")</f>
+        <v/>
+      </c>
+      <c r="L21" t="str">
+        <f t="shared" si="6"/>
+        <v>if (Test-Path env:\choco:sqlserver2008:AGTSVCACCOUNT){Add-Content $configFile "AGTSVCACCOUNT=`"$env:choco:sqlserver2008:AGTSVCACCOUNT`""}</v>
+      </c>
+      <c r="M21" t="str">
+        <f t="shared" ref="M21:M22" si="9">"$env:"&amp;H21&amp;"="""""</f>
+        <v>$env:choco:sqlserver2008:AGTSVCACCOUNT=""</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C22" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D22" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="G21" t="str">
-        <f t="shared" si="5"/>
+      <c r="G22" t="str">
+        <f>SUBSTITUTE(B22,"/","")</f>
         <v>AGTSVCPASSWORD</v>
       </c>
-      <c r="H21" t="str">
+      <c r="H22" t="str">
+        <f t="shared" si="8"/>
+        <v>choco:sqlserver2008:AGTSVCPASSWORD</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="K22" t="str">
+        <f>IF(J22,"if (!(Test-Path env:\"&amp;H22&amp;")){$env:"&amp;H22&amp;"="""&amp;F22&amp;"""}","")</f>
+        <v/>
+      </c>
+      <c r="L22" t="str">
         <f t="shared" si="6"/>
-        <v>choco:sqlserver2008:AGTSVCPASSWORD</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="K21" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="L21" t="str">
-        <f t="shared" si="8"/>
         <v>if (Test-Path env:\choco:sqlserver2008:AGTSVCPASSWORD){Add-Content $configFile "AGTSVCPASSWORD=`"$env:choco:sqlserver2008:AGTSVCPASSWORD`""}</v>
       </c>
-      <c r="M21" t="str">
+      <c r="M22" t="str">
         <f t="shared" si="9"/>
         <v>$env:choco:sqlserver2008:AGTSVCPASSWORD=""</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="210" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+    <row r="23" spans="1:13" ht="210" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B23" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="11" t="s">
+      <c r="C23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="11" t="s">
         <v>551</v>
       </c>
-      <c r="G22" t="str">
-        <f t="shared" si="5"/>
+      <c r="G23" t="str">
+        <f>SUBSTITUTE(B23,"/","")</f>
         <v>AGTSVCSTARTUPTYPE</v>
       </c>
-      <c r="H22" t="str">
+      <c r="H23" t="str">
+        <f t="shared" si="8"/>
+        <v>choco:sqlserver2008:AGTSVCSTARTUPTYPE</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="K23" t="str">
+        <f>IF(J23,"if (!(Test-Path env:\"&amp;H23&amp;")){$env:"&amp;H23&amp;"="""&amp;F23&amp;"""}","")</f>
+        <v/>
+      </c>
+      <c r="L23" t="str">
         <f t="shared" si="6"/>
-        <v>choco:sqlserver2008:AGTSVCSTARTUPTYPE</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="240" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>552</v>
-      </c>
-      <c r="G23" t="str">
-        <f t="shared" si="5"/>
-        <v>ASBACKUPDIR</v>
-      </c>
-      <c r="H23" t="str">
-        <f t="shared" si="6"/>
-        <v>choco:sqlserver2008:ASBACKUPDIR</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+        <v>if (Test-Path env:\choco:sqlserver2008:AGTSVCSTARTUPTYPE){Add-Content $configFile "AGTSVCSTARTUPTYPE=`"$env:choco:sqlserver2008:AGTSVCSTARTUPTYPE`""}</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="240" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>90</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G24" t="str">
-        <f t="shared" si="5"/>
-        <v>ASCOLLATION</v>
+        <f>SUBSTITUTE(B24,"/","")</f>
+        <v>ASBACKUPDIR</v>
       </c>
       <c r="H24" t="str">
+        <f t="shared" si="8"/>
+        <v>choco:sqlserver2008:ASBACKUPDIR</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="K24" t="str">
+        <f>IF(J24,"if (!(Test-Path env:\"&amp;H24&amp;")){$env:"&amp;H24&amp;"="""&amp;F24&amp;"""}","")</f>
+        <v/>
+      </c>
+      <c r="L24" t="str">
         <f t="shared" si="6"/>
-        <v>choco:sqlserver2008:ASCOLLATION</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="240" x14ac:dyDescent="0.25">
+        <v>if (Test-Path env:\choco:sqlserver2008:ASBACKUPDIR){Add-Content $configFile "ASBACKUPDIR=`"$env:choco:sqlserver2008:ASBACKUPDIR`""}</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>90</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G25" t="str">
-        <f t="shared" si="5"/>
-        <v>ASCONFIGDIR</v>
+        <f>SUBSTITUTE(B25,"/","")</f>
+        <v>ASCOLLATION</v>
       </c>
       <c r="H25" t="str">
+        <f t="shared" si="8"/>
+        <v>choco:sqlserver2008:ASCOLLATION</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="K25" t="str">
+        <f>IF(J25,"if (!(Test-Path env:\"&amp;H25&amp;")){$env:"&amp;H25&amp;"="""&amp;F25&amp;"""}","")</f>
+        <v/>
+      </c>
+      <c r="L25" t="str">
         <f t="shared" si="6"/>
-        <v>choco:sqlserver2008:ASCONFIGDIR</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
+        <v>if (Test-Path env:\choco:sqlserver2008:ASCOLLATION){Add-Content $configFile "ASCOLLATION=`"$env:choco:sqlserver2008:ASCOLLATION`""}</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="240" x14ac:dyDescent="0.25">
@@ -3553,24 +3634,32 @@
         <v>90</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G26" t="str">
-        <f t="shared" si="5"/>
-        <v>ASDATADIR</v>
+        <f>SUBSTITUTE(B26,"/","")</f>
+        <v>ASCONFIGDIR</v>
       </c>
       <c r="H26" t="str">
+        <f t="shared" si="8"/>
+        <v>choco:sqlserver2008:ASCONFIGDIR</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="K26" t="str">
+        <f>IF(J26,"if (!(Test-Path env:\"&amp;H26&amp;")){$env:"&amp;H26&amp;"="""&amp;F26&amp;"""}","")</f>
+        <v/>
+      </c>
+      <c r="L26" t="str">
         <f t="shared" si="6"/>
-        <v>choco:sqlserver2008:ASDATADIR</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
+        <v>if (Test-Path env:\choco:sqlserver2008:ASCONFIGDIR){Add-Content $configFile "ASCONFIGDIR=`"$env:choco:sqlserver2008:ASCONFIGDIR`""}</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="240" x14ac:dyDescent="0.25">
@@ -3578,49 +3667,65 @@
         <v>90</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G27" t="str">
-        <f t="shared" si="5"/>
-        <v>ASLOGDIR</v>
+        <f>SUBSTITUTE(B27,"/","")</f>
+        <v>ASDATADIR</v>
       </c>
       <c r="H27" t="str">
+        <f t="shared" si="8"/>
+        <v>choco:sqlserver2008:ASDATADIR</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="K27" t="str">
+        <f>IF(J27,"if (!(Test-Path env:\"&amp;H27&amp;")){$env:"&amp;H27&amp;"="""&amp;F27&amp;"""}","")</f>
+        <v/>
+      </c>
+      <c r="L27" t="str">
         <f t="shared" si="6"/>
-        <v>choco:sqlserver2008:ASLOGDIR</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>if (Test-Path env:\choco:sqlserver2008:ASDATADIR){Add-Content $configFile "ASDATADIR=`"$env:choco:sqlserver2008:ASDATADIR`""}</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="240" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>90</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>113</v>
+        <v>556</v>
       </c>
       <c r="G28" t="str">
-        <f t="shared" si="5"/>
-        <v>ASSVCACCOUNT</v>
+        <f>SUBSTITUTE(B28,"/","")</f>
+        <v>ASLOGDIR</v>
       </c>
       <c r="H28" t="str">
+        <f t="shared" si="8"/>
+        <v>choco:sqlserver2008:ASLOGDIR</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="K28" t="str">
+        <f>IF(J28,"if (!(Test-Path env:\"&amp;H28&amp;")){$env:"&amp;H28&amp;"="""&amp;F28&amp;"""}","")</f>
+        <v/>
+      </c>
+      <c r="L28" t="str">
         <f t="shared" si="6"/>
-        <v>choco:sqlserver2008:ASSVCACCOUNT</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
+        <v>if (Test-Path env:\choco:sqlserver2008:ASLOGDIR){Add-Content $configFile "ASLOGDIR=`"$env:choco:sqlserver2008:ASLOGDIR`""}</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3628,869 +3733,1384 @@
         <v>90</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="C29" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G29" t="str">
-        <f t="shared" si="5"/>
-        <v>ASSVCPASSWORD</v>
+        <f>SUBSTITUTE(B29,"/","")</f>
+        <v>ASSVCACCOUNT</v>
       </c>
       <c r="H29" t="str">
+        <f t="shared" si="8"/>
+        <v>choco:sqlserver2008:ASSVCACCOUNT</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="K29" t="str">
+        <f>IF(J29,"if (!(Test-Path env:\"&amp;H29&amp;")){$env:"&amp;H29&amp;"="""&amp;F29&amp;"""}","")</f>
+        <v/>
+      </c>
+      <c r="L29" t="str">
         <f t="shared" si="6"/>
-        <v>choco:sqlserver2008:ASSVCPASSWORD</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="180" x14ac:dyDescent="0.25">
+        <v>if (Test-Path env:\choco:sqlserver2008:ASSVCACCOUNT){Add-Content $configFile "ASSVCACCOUNT=`"$env:choco:sqlserver2008:ASSVCACCOUNT`""}</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>90</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>557</v>
+        <v>114</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>115</v>
       </c>
       <c r="G30" t="str">
-        <f t="shared" si="5"/>
-        <v>ASSVCSTARTUPTYPE</v>
+        <f>SUBSTITUTE(B30,"/","")</f>
+        <v>ASSVCPASSWORD</v>
       </c>
       <c r="H30" t="str">
+        <f t="shared" si="8"/>
+        <v>choco:sqlserver2008:ASSVCPASSWORD</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="K30" t="str">
+        <f>IF(J30,"if (!(Test-Path env:\"&amp;H30&amp;")){$env:"&amp;H30&amp;"="""&amp;F30&amp;"""}","")</f>
+        <v/>
+      </c>
+      <c r="L30" t="str">
         <f t="shared" si="6"/>
-        <v>choco:sqlserver2008:ASSVCSTARTUPTYPE</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>if (Test-Path env:\choco:sqlserver2008:ASSVCPASSWORD){Add-Content $configFile "ASSVCPASSWORD=`"$env:choco:sqlserver2008:ASSVCPASSWORD`""}</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="180" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>90</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>119</v>
+        <v>12</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>557</v>
       </c>
       <c r="G31" t="str">
-        <f t="shared" si="5"/>
-        <v>ASSYSADMINACCOUNTS</v>
+        <f>SUBSTITUTE(B31,"/","")</f>
+        <v>ASSVCSTARTUPTYPE</v>
       </c>
       <c r="H31" t="str">
+        <f t="shared" si="8"/>
+        <v>choco:sqlserver2008:ASSVCSTARTUPTYPE</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="K31" t="str">
+        <f>IF(J31,"if (!(Test-Path env:\"&amp;H31&amp;")){$env:"&amp;H31&amp;"="""&amp;F31&amp;"""}","")</f>
+        <v/>
+      </c>
+      <c r="L31" t="str">
         <f t="shared" si="6"/>
-        <v>choco:sqlserver2008:ASSYSADMINACCOUNTS</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="225" x14ac:dyDescent="0.25">
+        <v>if (Test-Path env:\choco:sqlserver2008:ASSVCSTARTUPTYPE){Add-Content $configFile "ASSVCSTARTUPTYPE=`"$env:choco:sqlserver2008:ASSVCSTARTUPTYPE`""}</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>90</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>558</v>
+        <v>119</v>
       </c>
       <c r="G32" t="str">
-        <f t="shared" si="5"/>
-        <v>ASTEMPDIR</v>
+        <f>SUBSTITUTE(B32,"/","")</f>
+        <v>ASSYSADMINACCOUNTS</v>
       </c>
       <c r="H32" t="str">
+        <f t="shared" si="8"/>
+        <v>choco:sqlserver2008:ASSYSADMINACCOUNTS</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="K32" t="str">
+        <f>IF(J32,"if (!(Test-Path env:\"&amp;H32&amp;")){$env:"&amp;H32&amp;"="""&amp;F32&amp;"""}","")</f>
+        <v/>
+      </c>
+      <c r="L32" t="str">
         <f t="shared" si="6"/>
-        <v>choco:sqlserver2008:ASTEMPDIR</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+        <v>if (Test-Path env:\choco:sqlserver2008:ASSYSADMINACCOUNTS){Add-Content $configFile "ASSYSADMINACCOUNTS=`"$env:choco:sqlserver2008:ASSYSADMINACCOUNTS`""}</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="225" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>90</v>
       </c>
       <c r="B33" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="G33" t="str">
+        <f>SUBSTITUTE(B33,"/","")</f>
+        <v>ASTEMPDIR</v>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" si="8"/>
+        <v>choco:sqlserver2008:ASTEMPDIR</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="K33" t="str">
+        <f>IF(J33,"if (!(Test-Path env:\"&amp;H33&amp;")){$env:"&amp;H33&amp;"="""&amp;F33&amp;"""}","")</f>
+        <v/>
+      </c>
+      <c r="L33" t="str">
+        <f t="shared" si="6"/>
+        <v>if (Test-Path env:\choco:sqlserver2008:ASTEMPDIR){Add-Content $configFile "ASTEMPDIR=`"$env:choco:sqlserver2008:ASTEMPDIR`""}</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B34" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" s="10" t="s">
+      <c r="C34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="10" t="s">
         <v>559</v>
       </c>
-      <c r="G33" t="str">
-        <f t="shared" ref="G33:G43" si="10">SUBSTITUTE(B33,"/","")</f>
+      <c r="G34" t="str">
+        <f>SUBSTITUTE(B34,"/","")</f>
         <v>ASPROVIDERMSOLAP</v>
       </c>
-      <c r="H33" t="str">
-        <f t="shared" ref="H33:H43" si="11">"choco:sqlserver2008:"&amp;G33</f>
+      <c r="H34" t="str">
+        <f t="shared" ref="H34:H44" si="10">"choco:sqlserver2008:"&amp;G34</f>
         <v>choco:sqlserver2008:ASPROVIDERMSOLAP</v>
       </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="s">
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="K34" t="str">
+        <f>IF(J34,"if (!(Test-Path env:\"&amp;H34&amp;")){$env:"&amp;H34&amp;"="""&amp;F34&amp;"""}","")</f>
+        <v/>
+      </c>
+      <c r="L34" t="str">
+        <f t="shared" si="6"/>
+        <v>if (Test-Path env:\choco:sqlserver2008:ASPROVIDERMSOLAP){Add-Content $configFile "ASPROVIDERMSOLAP=`"$env:choco:sqlserver2008:ASPROVIDERMSOLAP`""}</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="180" x14ac:dyDescent="0.25">
+      <c r="A35" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B35" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D34" s="11" t="s">
+      <c r="C35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="11" t="s">
         <v>560</v>
       </c>
-      <c r="G34" t="str">
+      <c r="G35" t="str">
+        <f>SUBSTITUTE(B35,"/","")</f>
+        <v>BROWSERSVCSTARTUPTYPE</v>
+      </c>
+      <c r="H35" t="str">
         <f t="shared" si="10"/>
-        <v>BROWSERSVCSTARTUPTYPE</v>
-      </c>
-      <c r="H34" t="str">
-        <f t="shared" si="11"/>
         <v>choco:sqlserver2008:BROWSERSVCSTARTUPTYPE</v>
       </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="G35" t="str">
-        <f t="shared" si="10"/>
-        <v>ENABLERANU</v>
-      </c>
-      <c r="H35" t="str">
-        <f t="shared" si="11"/>
-        <v>choco:sqlserver2008:ENABLERANU</v>
-      </c>
       <c r="I35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K35" t="str">
+        <f>IF(J35,"if (!(Test-Path env:\"&amp;H35&amp;")){$env:"&amp;H35&amp;"="""&amp;F35&amp;"""}","")</f>
+        <v/>
+      </c>
+      <c r="L35" t="str">
+        <f t="shared" si="6"/>
+        <v>if (Test-Path env:\choco:sqlserver2008:BROWSERSVCSTARTUPTYPE){Add-Content $configFile "BROWSERSVCSTARTUPTYPE=`"$env:choco:sqlserver2008:BROWSERSVCSTARTUPTYPE`""}</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>140</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>561</v>
+        <v>142</v>
       </c>
       <c r="G36" t="str">
+        <f>SUBSTITUTE(B36,"/","")</f>
+        <v>ENABLERANU</v>
+      </c>
+      <c r="H36" t="str">
         <f t="shared" si="10"/>
-        <v>INSTALLSQLDATADIR</v>
-      </c>
-      <c r="H36" t="str">
-        <f t="shared" si="11"/>
-        <v>choco:sqlserver2008:INSTALLSQLDATADIR</v>
+        <v>choco:sqlserver2008:ENABLERANU</v>
       </c>
       <c r="I36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K36" t="str">
+        <f>IF(J36,"if (!(Test-Path env:\"&amp;H36&amp;")){$env:"&amp;H36&amp;"="""&amp;F36&amp;"""}","")</f>
+        <v/>
+      </c>
+      <c r="L36" t="str">
+        <f t="shared" si="6"/>
+        <v>if (Test-Path env:\choco:sqlserver2008:ENABLERANU){Add-Content $configFile "ENABLERANU=`"$env:choco:sqlserver2008:ENABLERANU`""}</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="180" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>140</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>148</v>
+        <v>12</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>543</v>
+        <v>561</v>
       </c>
       <c r="G37" t="str">
+        <f>SUBSTITUTE(B37,"/","")</f>
+        <v>INSTALLSQLDATADIR</v>
+      </c>
+      <c r="H37" t="str">
         <f t="shared" si="10"/>
-        <v>SAPWD</v>
-      </c>
-      <c r="H37" t="str">
-        <f t="shared" si="11"/>
-        <v>choco:sqlserver2008:SAPWD</v>
+        <v>choco:sqlserver2008:INSTALLSQLDATADIR</v>
       </c>
       <c r="I37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K37" t="str">
+        <f>IF(J37,"if (!(Test-Path env:\"&amp;H37&amp;")){$env:"&amp;H37&amp;"="""&amp;F37&amp;"""}","")</f>
+        <v/>
+      </c>
+      <c r="L37" t="str">
+        <f t="shared" si="6"/>
+        <v>if (Test-Path env:\choco:sqlserver2008:INSTALLSQLDATADIR){Add-Content $configFile "INSTALLSQLDATADIR=`"$env:choco:sqlserver2008:INSTALLSQLDATADIR`""}</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
         <v>140</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>12</v>
+        <v>148</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>562</v>
+        <v>543</v>
       </c>
       <c r="G38" t="str">
+        <f>SUBSTITUTE(B38,"/","")</f>
+        <v>SAPWD</v>
+      </c>
+      <c r="H38" t="str">
         <f t="shared" si="10"/>
-        <v>SECURITYMODE</v>
-      </c>
-      <c r="H38" t="str">
-        <f t="shared" si="11"/>
-        <v>choco:sqlserver2008:SECURITYMODE</v>
+        <v>choco:sqlserver2008:SAPWD</v>
       </c>
       <c r="I38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K38" t="str">
+        <f>IF(J38,"if (!(Test-Path env:\"&amp;H38&amp;")){$env:"&amp;H38&amp;"="""&amp;F38&amp;"""}","")</f>
+        <v/>
+      </c>
+      <c r="L38" t="str">
+        <f t="shared" si="6"/>
+        <v>if (Test-Path env:\choco:sqlserver2008:SAPWD){Add-Content $configFile "SAPWD=`"$env:choco:sqlserver2008:SAPWD`""}</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="180" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
         <v>140</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G39" t="str">
+        <f>SUBSTITUTE(B39,"/","")</f>
+        <v>SECURITYMODE</v>
+      </c>
+      <c r="H39" t="str">
         <f t="shared" si="10"/>
-        <v>SQLBACKUPDIR</v>
-      </c>
-      <c r="H39" t="str">
-        <f t="shared" si="11"/>
-        <v>choco:sqlserver2008:SQLBACKUPDIR</v>
+        <v>choco:sqlserver2008:SECURITYMODE</v>
       </c>
       <c r="I39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K39" t="str">
+        <f>IF(J39,"if (!(Test-Path env:\"&amp;H39&amp;")){$env:"&amp;H39&amp;"="""&amp;F39&amp;"""}","")</f>
+        <v/>
+      </c>
+      <c r="L39" t="str">
+        <f t="shared" si="6"/>
+        <v>if (Test-Path env:\choco:sqlserver2008:SECURITYMODE){Add-Content $configFile "SECURITYMODE=`"$env:choco:sqlserver2008:SECURITYMODE`""}</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
         <v>140</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G40" t="str">
+        <f>SUBSTITUTE(B40,"/","")</f>
+        <v>SQLBACKUPDIR</v>
+      </c>
+      <c r="H40" t="str">
         <f t="shared" si="10"/>
-        <v>SQLCOLLATION</v>
-      </c>
-      <c r="H40" t="str">
-        <f t="shared" si="11"/>
-        <v>choco:sqlserver2008:SQLCOLLATION</v>
+        <v>choco:sqlserver2008:SQLBACKUPDIR</v>
       </c>
       <c r="I40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K40" t="str">
+        <f>IF(J40,"if (!(Test-Path env:\"&amp;H40&amp;")){$env:"&amp;H40&amp;"="""&amp;F40&amp;"""}","")</f>
+        <v/>
+      </c>
+      <c r="L40" t="str">
+        <f t="shared" si="6"/>
+        <v>if (Test-Path env:\choco:sqlserver2008:SQLBACKUPDIR){Add-Content $configFile "SQLBACKUPDIR=`"$env:choco:sqlserver2008:SQLBACKUPDIR`""}</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
         <v>140</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>166</v>
+        <v>564</v>
       </c>
       <c r="G41" t="str">
+        <f>SUBSTITUTE(B41,"/","")</f>
+        <v>SQLCOLLATION</v>
+      </c>
+      <c r="H41" t="str">
         <f t="shared" si="10"/>
-        <v>SQLSVCACCOUNT</v>
-      </c>
-      <c r="H41" t="str">
-        <f t="shared" si="11"/>
-        <v>choco:sqlserver2008:SQLSVCACCOUNT</v>
+        <v>choco:sqlserver2008:SQLCOLLATION</v>
       </c>
       <c r="I41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K41" t="str">
+        <f>IF(J41,"if (!(Test-Path env:\"&amp;H41&amp;")){$env:"&amp;H41&amp;"="""&amp;F41&amp;"""}","")</f>
+        <v/>
+      </c>
+      <c r="L41" t="str">
+        <f t="shared" si="6"/>
+        <v>if (Test-Path env:\choco:sqlserver2008:SQLCOLLATION){Add-Content $configFile "SQLCOLLATION=`"$env:choco:sqlserver2008:SQLCOLLATION`""}</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
         <v>140</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="C42" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G42" t="str">
+        <f>SUBSTITUTE(B42,"/","")</f>
+        <v>SQLSVCACCOUNT</v>
+      </c>
+      <c r="H42" t="str">
         <f t="shared" si="10"/>
-        <v>SQLSVCPASSWORD</v>
-      </c>
-      <c r="H42" t="str">
-        <f t="shared" si="11"/>
-        <v>choco:sqlserver2008:SQLSVCPASSWORD</v>
+        <v>choco:sqlserver2008:SQLSVCACCOUNT</v>
       </c>
       <c r="I42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K42" t="str">
+        <f>IF(J42,"if (!(Test-Path env:\"&amp;H42&amp;")){$env:"&amp;H42&amp;"="""&amp;F42&amp;"""}","")</f>
+        <v/>
+      </c>
+      <c r="L42" t="str">
+        <f t="shared" si="6"/>
+        <v>if (Test-Path env:\choco:sqlserver2008:SQLSVCACCOUNT){Add-Content $configFile "SQLSVCACCOUNT=`"$env:choco:sqlserver2008:SQLSVCACCOUNT`""}</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
         <v>140</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>565</v>
+        <v>167</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>168</v>
       </c>
       <c r="G43" t="str">
+        <f>SUBSTITUTE(B43,"/","")</f>
+        <v>SQLSVCPASSWORD</v>
+      </c>
+      <c r="H43" t="str">
         <f t="shared" si="10"/>
-        <v>SQLSVCSTARTUPTYPE</v>
-      </c>
-      <c r="H43" t="str">
-        <f t="shared" si="11"/>
-        <v>choco:sqlserver2008:SQLSVCSTARTUPTYPE</v>
+        <v>choco:sqlserver2008:SQLSVCPASSWORD</v>
       </c>
       <c r="I43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K43" t="str">
+        <f>IF(J43,"if (!(Test-Path env:\"&amp;H43&amp;")){$env:"&amp;H43&amp;"="""&amp;F43&amp;"""}","")</f>
+        <v/>
+      </c>
+      <c r="L43" t="str">
+        <f t="shared" si="6"/>
+        <v>if (Test-Path env:\choco:sqlserver2008:SQLSVCPASSWORD){Add-Content $configFile "SQLSVCPASSWORD=`"$env:choco:sqlserver2008:SQLSVCPASSWORD`""}</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="180" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
         <v>140</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>172</v>
+        <v>12</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>565</v>
       </c>
       <c r="G44" t="str">
-        <f t="shared" ref="G44:G53" si="12">SUBSTITUTE(B44,"/","")</f>
-        <v>SQLSYSADMINACCOUNTS</v>
+        <f>SUBSTITUTE(B44,"/","")</f>
+        <v>SQLSVCSTARTUPTYPE</v>
       </c>
       <c r="H44" t="str">
-        <f t="shared" ref="H44:H53" si="13">"choco:sqlserver2008:"&amp;G44</f>
-        <v>choco:sqlserver2008:SQLSYSADMINACCOUNTS</v>
+        <f t="shared" si="10"/>
+        <v>choco:sqlserver2008:SQLSVCSTARTUPTYPE</v>
       </c>
       <c r="I44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K44" t="str">
+        <f>IF(J44,"if (!(Test-Path env:\"&amp;H44&amp;")){$env:"&amp;H44&amp;"="""&amp;F44&amp;"""}","")</f>
+        <v/>
+      </c>
+      <c r="L44" t="str">
+        <f t="shared" si="6"/>
+        <v>if (Test-Path env:\choco:sqlserver2008:SQLSVCSTARTUPTYPE){Add-Content $configFile "SQLSVCSTARTUPTYPE=`"$env:choco:sqlserver2008:SQLSVCSTARTUPTYPE`""}</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
         <v>140</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>566</v>
+        <v>172</v>
+      </c>
+      <c r="F45" s="13" t="s">
+        <v>580</v>
       </c>
       <c r="G45" t="str">
-        <f t="shared" si="12"/>
-        <v>SQLTEMPDBDIR</v>
+        <f>SUBSTITUTE(B45,"/","")</f>
+        <v>SQLSYSADMINACCOUNTS</v>
       </c>
       <c r="H45" t="str">
-        <f t="shared" si="13"/>
-        <v>choco:sqlserver2008:SQLTEMPDBDIR</v>
+        <f t="shared" ref="H45:H54" si="11">"choco:sqlserver2008:"&amp;G45</f>
+        <v>choco:sqlserver2008:SQLSYSADMINACCOUNTS</v>
       </c>
       <c r="I45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45" t="str">
+        <f>IF(J45,"if (!(Test-Path env:\"&amp;H45&amp;")){$env:"&amp;H45&amp;"="""&amp;F45&amp;"""}","")</f>
+        <v>if (!(Test-Path env:\choco:sqlserver2008:SQLSYSADMINACCOUNTS)){$env:choco:sqlserver2008:SQLSYSADMINACCOUNTS="$thisUser"}</v>
+      </c>
+      <c r="L45" t="str">
+        <f t="shared" si="6"/>
+        <v>if (Test-Path env:\choco:sqlserver2008:SQLSYSADMINACCOUNTS){Add-Content $configFile "SQLSYSADMINACCOUNTS=`"$env:choco:sqlserver2008:SQLSYSADMINACCOUNTS`""}</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
         <v>140</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="G46" t="str">
-        <f t="shared" si="12"/>
-        <v>SQLTEMPDBLOGDIR</v>
+        <f>SUBSTITUTE(B46,"/","")</f>
+        <v>SQLTEMPDBDIR</v>
       </c>
       <c r="H46" t="str">
-        <f t="shared" si="13"/>
-        <v>choco:sqlserver2008:SQLTEMPDBLOGDIR</v>
+        <f t="shared" si="11"/>
+        <v>choco:sqlserver2008:SQLTEMPDBDIR</v>
       </c>
       <c r="I46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K46" t="str">
+        <f>IF(J46,"if (!(Test-Path env:\"&amp;H46&amp;")){$env:"&amp;H46&amp;"="""&amp;F46&amp;"""}","")</f>
+        <v/>
+      </c>
+      <c r="L46" t="str">
+        <f t="shared" si="6"/>
+        <v>if (Test-Path env:\choco:sqlserver2008:SQLTEMPDBDIR){Add-Content $configFile "SQLTEMPDBDIR=`"$env:choco:sqlserver2008:SQLTEMPDBDIR`""}</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
         <v>140</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="G47" t="str">
-        <f t="shared" si="12"/>
-        <v>SQLUSERDBDIR</v>
+        <f>SUBSTITUTE(B47,"/","")</f>
+        <v>SQLTEMPDBLOGDIR</v>
       </c>
       <c r="H47" t="str">
-        <f t="shared" si="13"/>
-        <v>choco:sqlserver2008:SQLUSERDBDIR</v>
+        <f t="shared" si="11"/>
+        <v>choco:sqlserver2008:SQLTEMPDBLOGDIR</v>
       </c>
       <c r="I47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K47" t="str">
+        <f>IF(J47,"if (!(Test-Path env:\"&amp;H47&amp;")){$env:"&amp;H47&amp;"="""&amp;F47&amp;"""}","")</f>
+        <v/>
+      </c>
+      <c r="L47" t="str">
+        <f t="shared" si="6"/>
+        <v>if (Test-Path env:\choco:sqlserver2008:SQLTEMPDBLOGDIR){Add-Content $configFile "SQLTEMPDBLOGDIR=`"$env:choco:sqlserver2008:SQLTEMPDBLOGDIR`""}</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
         <v>140</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G48" t="str">
-        <f t="shared" si="12"/>
-        <v>SQLUSERDBLOGDIR</v>
+        <f>SUBSTITUTE(B48,"/","")</f>
+        <v>SQLUSERDBDIR</v>
       </c>
       <c r="H48" t="str">
-        <f t="shared" si="13"/>
-        <v>choco:sqlserver2008:SQLUSERDBLOGDIR</v>
+        <f t="shared" si="11"/>
+        <v>choco:sqlserver2008:SQLUSERDBDIR</v>
       </c>
       <c r="I48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K48" t="str">
+        <f>IF(J48,"if (!(Test-Path env:\"&amp;H48&amp;")){$env:"&amp;H48&amp;"="""&amp;F48&amp;"""}","")</f>
+        <v/>
+      </c>
+      <c r="L48" t="str">
+        <f t="shared" si="6"/>
+        <v>if (Test-Path env:\choco:sqlserver2008:SQLUSERDBDIR){Add-Content $configFile "SQLUSERDBDIR=`"$env:choco:sqlserver2008:SQLUSERDBDIR`""}</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
         <v>140</v>
       </c>
       <c r="B49" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>569</v>
+      </c>
+      <c r="G49" t="str">
+        <f>SUBSTITUTE(B49,"/","")</f>
+        <v>SQLUSERDBLOGDIR</v>
+      </c>
+      <c r="H49" t="str">
+        <f t="shared" si="11"/>
+        <v>choco:sqlserver2008:SQLUSERDBLOGDIR</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="K49" t="str">
+        <f>IF(J49,"if (!(Test-Path env:\"&amp;H49&amp;")){$env:"&amp;H49&amp;"="""&amp;F49&amp;"""}","")</f>
+        <v/>
+      </c>
+      <c r="L49" t="str">
+        <f t="shared" si="6"/>
+        <v>if (Test-Path env:\choco:sqlserver2008:SQLUSERDBLOGDIR){Add-Content $configFile "SQLUSERDBLOGDIR=`"$env:choco:sqlserver2008:SQLUSERDBLOGDIR`""}</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A50" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B50" s="10" t="s">
         <v>544</v>
       </c>
-      <c r="C49" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D49" s="10" t="s">
+      <c r="C50" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="10" t="s">
         <v>570</v>
       </c>
-      <c r="G49" t="str">
-        <f t="shared" si="12"/>
+      <c r="G50" t="str">
+        <f>SUBSTITUTE(B50,"/","")</f>
         <v>USESYSDB</v>
       </c>
-      <c r="H49" t="str">
-        <f t="shared" si="13"/>
+      <c r="H50" t="str">
+        <f t="shared" si="11"/>
         <v>choco:sqlserver2008:USESYSDB</v>
       </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="285" x14ac:dyDescent="0.25">
-      <c r="A50" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D50" s="10" t="s">
-        <v>571</v>
-      </c>
-      <c r="G50" t="str">
-        <f t="shared" si="12"/>
-        <v>FILESTREAMLEVEL</v>
-      </c>
-      <c r="H50" t="str">
-        <f t="shared" si="13"/>
-        <v>choco:sqlserver2008:FILESTREAMLEVEL</v>
-      </c>
       <c r="I50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K50" t="str">
+        <f>IF(J50,"if (!(Test-Path env:\"&amp;H50&amp;")){$env:"&amp;H50&amp;"="""&amp;F50&amp;"""}","")</f>
+        <v/>
+      </c>
+      <c r="L50" t="str">
+        <f t="shared" si="6"/>
+        <v>if (Test-Path env:\choco:sqlserver2008:USESYSDB){Add-Content $configFile "USESYSDB=`"$env:choco:sqlserver2008:USESYSDB`""}</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="285" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
         <v>209</v>
       </c>
       <c r="B51" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>571</v>
+      </c>
+      <c r="G51" t="str">
+        <f>SUBSTITUTE(B51,"/","")</f>
+        <v>FILESTREAMLEVEL</v>
+      </c>
+      <c r="H51" t="str">
+        <f t="shared" si="11"/>
+        <v>choco:sqlserver2008:FILESTREAMLEVEL</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="K51" t="str">
+        <f>IF(J51,"if (!(Test-Path env:\"&amp;H51&amp;")){$env:"&amp;H51&amp;"="""&amp;F51&amp;"""}","")</f>
+        <v/>
+      </c>
+      <c r="L51" t="str">
+        <f t="shared" si="6"/>
+        <v>if (Test-Path env:\choco:sqlserver2008:FILESTREAMLEVEL){Add-Content $configFile "FILESTREAMLEVEL=`"$env:choco:sqlserver2008:FILESTREAMLEVEL`""}</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A52" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="B52" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="C51" s="15" t="s">
+      <c r="C52" s="14" t="s">
         <v>572</v>
       </c>
-      <c r="D51" s="10" t="s">
+      <c r="D52" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="G51" t="str">
-        <f t="shared" si="12"/>
+      <c r="G52" t="str">
+        <f>SUBSTITUTE(B52,"/","")</f>
         <v>FILESTREAMSHARENAME</v>
       </c>
-      <c r="H51" t="str">
-        <f t="shared" si="13"/>
+      <c r="H52" t="str">
+        <f t="shared" si="11"/>
         <v>choco:sqlserver2008:FILESTREAMSHARENAME</v>
       </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="300" x14ac:dyDescent="0.25">
-      <c r="A52" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="B52" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>573</v>
-      </c>
-      <c r="G52" t="str">
-        <f t="shared" si="12"/>
-        <v>FTSVCACCOUNT</v>
-      </c>
-      <c r="H52" t="str">
-        <f t="shared" si="13"/>
-        <v>choco:sqlserver2008:FTSVCACCOUNT</v>
-      </c>
       <c r="I52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K52" t="str">
+        <f>IF(J52,"if (!(Test-Path env:\"&amp;H52&amp;")){$env:"&amp;H52&amp;"="""&amp;F52&amp;"""}","")</f>
+        <v/>
+      </c>
+      <c r="L52" t="str">
+        <f t="shared" si="6"/>
+        <v>if (Test-Path env:\choco:sqlserver2008:FILESTREAMSHARENAME){Add-Content $configFile "FILESTREAMSHARENAME=`"$env:choco:sqlserver2008:FILESTREAMSHARENAME`""}</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="300" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
         <v>219</v>
       </c>
       <c r="B53" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>573</v>
+      </c>
+      <c r="G53" t="str">
+        <f>SUBSTITUTE(B53,"/","")</f>
+        <v>FTSVCACCOUNT</v>
+      </c>
+      <c r="H53" t="str">
+        <f t="shared" si="11"/>
+        <v>choco:sqlserver2008:FTSVCACCOUNT</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="K53" t="str">
+        <f>IF(J53,"if (!(Test-Path env:\"&amp;H53&amp;")){$env:"&amp;H53&amp;"="""&amp;F53&amp;"""}","")</f>
+        <v/>
+      </c>
+      <c r="L53" t="str">
+        <f t="shared" si="6"/>
+        <v>if (Test-Path env:\choco:sqlserver2008:FTSVCACCOUNT){Add-Content $configFile "FTSVCACCOUNT=`"$env:choco:sqlserver2008:FTSVCACCOUNT`""}</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A54" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="B54" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="C53" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D53" s="10" t="s">
+      <c r="C54" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" s="10" t="s">
         <v>574</v>
       </c>
-      <c r="G53" t="str">
-        <f t="shared" si="12"/>
+      <c r="G54" t="str">
+        <f>SUBSTITUTE(B54,"/","")</f>
         <v>FTSVCPASSWORD</v>
       </c>
-      <c r="H53" t="str">
-        <f t="shared" si="13"/>
+      <c r="H54" t="str">
+        <f t="shared" si="11"/>
         <v>choco:sqlserver2008:FTSVCPASSWORD</v>
       </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="A54" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="B54" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D54" s="10" t="s">
-        <v>575</v>
-      </c>
-      <c r="G54" t="str">
-        <f t="shared" ref="G54:G62" si="14">SUBSTITUTE(B54,"/","")</f>
-        <v>ISSVCACCOUNT</v>
-      </c>
-      <c r="H54" t="str">
-        <f t="shared" ref="H54:H62" si="15">"choco:sqlserver2008:"&amp;G54</f>
-        <v>choco:sqlserver2008:ISSVCACCOUNT</v>
-      </c>
       <c r="I54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K54" t="str">
+        <f>IF(J54,"if (!(Test-Path env:\"&amp;H54&amp;")){$env:"&amp;H54&amp;"="""&amp;F54&amp;"""}","")</f>
+        <v/>
+      </c>
+      <c r="L54" t="str">
+        <f t="shared" si="6"/>
+        <v>if (Test-Path env:\choco:sqlserver2008:FTSVCPASSWORD){Add-Content $configFile "FTSVCPASSWORD=`"$env:choco:sqlserver2008:FTSVCPASSWORD`""}</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
         <v>227</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="C55" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>232</v>
+        <v>575</v>
       </c>
       <c r="G55" t="str">
-        <f t="shared" si="14"/>
-        <v>ISSVCPASSWORD</v>
+        <f>SUBSTITUTE(B55,"/","")</f>
+        <v>ISSVCACCOUNT</v>
       </c>
       <c r="H55" t="str">
-        <f t="shared" si="15"/>
-        <v>choco:sqlserver2008:ISSVCPASSWORD</v>
+        <f t="shared" ref="H55:H63" si="12">"choco:sqlserver2008:"&amp;G55</f>
+        <v>choco:sqlserver2008:ISSVCACCOUNT</v>
       </c>
       <c r="I55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K55" t="str">
+        <f>IF(J55,"if (!(Test-Path env:\"&amp;H55&amp;")){$env:"&amp;H55&amp;"="""&amp;F55&amp;"""}","")</f>
+        <v/>
+      </c>
+      <c r="L55" t="str">
+        <f t="shared" si="6"/>
+        <v>if (Test-Path env:\choco:sqlserver2008:ISSVCACCOUNT){Add-Content $configFile "ISSVCACCOUNT=`"$env:choco:sqlserver2008:ISSVCACCOUNT`""}</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
         <v>227</v>
       </c>
       <c r="B56" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="G56" t="str">
+        <f>SUBSTITUTE(B56,"/","")</f>
+        <v>ISSVCPASSWORD</v>
+      </c>
+      <c r="H56" t="str">
+        <f t="shared" si="12"/>
+        <v>choco:sqlserver2008:ISSVCPASSWORD</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="K56" t="str">
+        <f>IF(J56,"if (!(Test-Path env:\"&amp;H56&amp;")){$env:"&amp;H56&amp;"="""&amp;F56&amp;"""}","")</f>
+        <v/>
+      </c>
+      <c r="L56" t="str">
+        <f t="shared" si="6"/>
+        <v>if (Test-Path env:\choco:sqlserver2008:ISSVCPASSWORD){Add-Content $configFile "ISSVCPASSWORD=`"$env:choco:sqlserver2008:ISSVCPASSWORD`""}</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="B57" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="C56" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D56" s="11" t="s">
+      <c r="C57" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="G56" t="str">
-        <f t="shared" si="14"/>
+      <c r="G57" t="str">
+        <f>SUBSTITUTE(B57,"/","")</f>
         <v>ISSVCStartupType</v>
       </c>
-      <c r="H56" t="str">
-        <f t="shared" si="15"/>
+      <c r="H57" t="str">
+        <f t="shared" si="12"/>
         <v>choco:sqlserver2008:ISSVCStartupType</v>
       </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A57" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="B57" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D57" s="10" t="s">
-        <v>576</v>
-      </c>
-      <c r="G57" t="str">
-        <f t="shared" si="14"/>
-        <v>NPENABLED</v>
-      </c>
-      <c r="H57" t="str">
-        <f t="shared" si="15"/>
-        <v>choco:sqlserver2008:NPENABLED</v>
-      </c>
       <c r="I57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K57" t="str">
+        <f>IF(J57,"if (!(Test-Path env:\"&amp;H57&amp;")){$env:"&amp;H57&amp;"="""&amp;F57&amp;"""}","")</f>
+        <v/>
+      </c>
+      <c r="L57" t="str">
+        <f t="shared" si="6"/>
+        <v>if (Test-Path env:\choco:sqlserver2008:ISSVCStartupType){Add-Content $configFile "ISSVCStartupType=`"$env:choco:sqlserver2008:ISSVCStartupType`""}</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
         <v>235</v>
       </c>
       <c r="B58" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>576</v>
+      </c>
+      <c r="G58" t="str">
+        <f>SUBSTITUTE(B58,"/","")</f>
+        <v>NPENABLED</v>
+      </c>
+      <c r="H58" t="str">
+        <f t="shared" si="12"/>
+        <v>choco:sqlserver2008:NPENABLED</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="K58" t="str">
+        <f>IF(J58,"if (!(Test-Path env:\"&amp;H58&amp;")){$env:"&amp;H58&amp;"="""&amp;F58&amp;"""}","")</f>
+        <v/>
+      </c>
+      <c r="L58" t="str">
+        <f t="shared" si="6"/>
+        <v>if (Test-Path env:\choco:sqlserver2008:NPENABLED){Add-Content $configFile "NPENABLED=`"$env:choco:sqlserver2008:NPENABLED`""}</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="A59" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="B59" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="C58" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D58" s="10" t="s">
+      <c r="C59" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" s="10" t="s">
         <v>577</v>
       </c>
-      <c r="G58" t="str">
-        <f t="shared" si="14"/>
+      <c r="G59" t="str">
+        <f>SUBSTITUTE(B59,"/","")</f>
         <v>TCPENABLED</v>
       </c>
-      <c r="H58" t="str">
-        <f t="shared" si="15"/>
+      <c r="H59" t="str">
+        <f t="shared" si="12"/>
         <v>choco:sqlserver2008:TCPENABLED</v>
       </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="B59" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D59" s="10" t="s">
-        <v>545</v>
-      </c>
-      <c r="G59" t="str">
-        <f t="shared" si="14"/>
-        <v>RSINSTALLMODE</v>
-      </c>
-      <c r="H59" t="str">
-        <f t="shared" si="15"/>
-        <v>choco:sqlserver2008:RSINSTALLMODE</v>
-      </c>
       <c r="I59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K59" t="str">
+        <f>IF(J59,"if (!(Test-Path env:\"&amp;H59&amp;")){$env:"&amp;H59&amp;"="""&amp;F59&amp;"""}","")</f>
+        <v/>
+      </c>
+      <c r="L59" t="str">
+        <f t="shared" si="6"/>
+        <v>if (Test-Path env:\choco:sqlserver2008:TCPENABLED){Add-Content $configFile "TCPENABLED=`"$env:choco:sqlserver2008:TCPENABLED`""}</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
         <v>244</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>254</v>
+        <v>545</v>
       </c>
       <c r="G60" t="str">
-        <f t="shared" si="14"/>
-        <v>RSSVCACCOUNT</v>
+        <f>SUBSTITUTE(B60,"/","")</f>
+        <v>RSINSTALLMODE</v>
       </c>
       <c r="H60" t="str">
-        <f t="shared" si="15"/>
-        <v>choco:sqlserver2008:RSSVCACCOUNT</v>
+        <f t="shared" si="12"/>
+        <v>choco:sqlserver2008:RSINSTALLMODE</v>
       </c>
       <c r="I60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K60" t="str">
+        <f>IF(J60,"if (!(Test-Path env:\"&amp;H60&amp;")){$env:"&amp;H60&amp;"="""&amp;F60&amp;"""}","")</f>
+        <v/>
+      </c>
+      <c r="L60" t="str">
+        <f t="shared" si="6"/>
+        <v>if (Test-Path env:\choco:sqlserver2008:RSINSTALLMODE){Add-Content $configFile "RSINSTALLMODE=`"$env:choco:sqlserver2008:RSINSTALLMODE`""}</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
         <v>244</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="C61" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G61" t="str">
-        <f t="shared" si="14"/>
-        <v>RSSVCPASSWORD</v>
+        <f>SUBSTITUTE(B61,"/","")</f>
+        <v>RSSVCACCOUNT</v>
       </c>
       <c r="H61" t="str">
-        <f t="shared" si="15"/>
-        <v>choco:sqlserver2008:RSSVCPASSWORD</v>
+        <f t="shared" si="12"/>
+        <v>choco:sqlserver2008:RSSVCACCOUNT</v>
       </c>
       <c r="I61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="K61" t="str">
+        <f>IF(J61,"if (!(Test-Path env:\"&amp;H61&amp;")){$env:"&amp;H61&amp;"="""&amp;F61&amp;"""}","")</f>
+        <v/>
+      </c>
+      <c r="L61" t="str">
+        <f t="shared" si="6"/>
+        <v>if (Test-Path env:\choco:sqlserver2008:RSSVCACCOUNT){Add-Content $configFile "RSSVCACCOUNT=`"$env:choco:sqlserver2008:RSSVCACCOUNT`""}</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
         <v>244</v>
       </c>
       <c r="B62" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="G62" t="str">
+        <f>SUBSTITUTE(B62,"/","")</f>
+        <v>RSSVCPASSWORD</v>
+      </c>
+      <c r="H62" t="str">
+        <f t="shared" si="12"/>
+        <v>choco:sqlserver2008:RSSVCPASSWORD</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="K62" t="str">
+        <f>IF(J62,"if (!(Test-Path env:\"&amp;H62&amp;")){$env:"&amp;H62&amp;"="""&amp;F62&amp;"""}","")</f>
+        <v/>
+      </c>
+      <c r="L62" t="str">
+        <f t="shared" si="6"/>
+        <v>if (Test-Path env:\choco:sqlserver2008:RSSVCPASSWORD){Add-Content $configFile "RSSVCPASSWORD=`"$env:choco:sqlserver2008:RSSVCPASSWORD`""}</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="B63" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="C62" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D62" s="11" t="s">
+      <c r="C63" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" s="11" t="s">
         <v>546</v>
       </c>
-      <c r="G62" t="str">
-        <f t="shared" si="14"/>
+      <c r="G63" t="str">
+        <f>SUBSTITUTE(B63,"/","")</f>
         <v>RSSVCStartupType</v>
       </c>
-      <c r="H62" t="str">
-        <f t="shared" si="15"/>
+      <c r="H63" t="str">
+        <f t="shared" si="12"/>
         <v>choco:sqlserver2008:RSSVCStartupType</v>
       </c>
-      <c r="I62">
-        <v>0</v>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="K63" t="str">
+        <f>IF(J63,"if (!(Test-Path env:\"&amp;H63&amp;")){$env:"&amp;H63&amp;"="""&amp;F63&amp;"""}","")</f>
+        <v/>
+      </c>
+      <c r="L63" t="str">
+        <f t="shared" si="6"/>
+        <v>if (Test-Path env:\choco:sqlserver2008:RSSVCStartupType){Add-Content $configFile "RSSVCStartupType=`"$env:choco:sqlserver2008:RSSVCStartupType`""}</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K64" t="str">
+        <f>IF(J64,"if (!(Test-Path env:\"&amp;H64&amp;")){$env:"&amp;H64&amp;"="""&amp;F64&amp;"""}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K65" t="str">
+        <f>IF(J65,"if (!(Test-Path env:\"&amp;H65&amp;")){$env:"&amp;H65&amp;"="""&amp;F65&amp;"""}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K66" t="str">
+        <f>IF(J66,"if (!(Test-Path env:\"&amp;H66&amp;")){$env:"&amp;H66&amp;"="""&amp;F66&amp;"""}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K67" t="str">
+        <f>IF(J67,"if (!(Test-Path env:\"&amp;H67&amp;")){$env:"&amp;H67&amp;"="""&amp;F67&amp;"""}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K68" t="str">
+        <f>IF(J68,"if (!(Test-Path env:\"&amp;H68&amp;")){$env:"&amp;H68&amp;"="""&amp;F68&amp;"""}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K69" t="str">
+        <f>IF(J69,"if (!(Test-Path env:\"&amp;H69&amp;")){$env:"&amp;H69&amp;"="""&amp;F69&amp;"""}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K70" t="str">
+        <f>IF(J70,"if (!(Test-Path env:\"&amp;H70&amp;")){$env:"&amp;H70&amp;"="""&amp;F70&amp;"""}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K71" t="str">
+        <f>IF(J71,"if (!(Test-Path env:\"&amp;H71&amp;")){$env:"&amp;H71&amp;"="""&amp;F71&amp;"""}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K72" t="str">
+        <f>IF(J72,"if (!(Test-Path env:\"&amp;H72&amp;")){$env:"&amp;H72&amp;"="""&amp;F72&amp;"""}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K73" t="str">
+        <f>IF(J73,"if (!(Test-Path env:\"&amp;H73&amp;")){$env:"&amp;H73&amp;"="""&amp;F73&amp;"""}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K74" t="str">
+        <f>IF(J74,"if (!(Test-Path env:\"&amp;H74&amp;")){$env:"&amp;H74&amp;"="""&amp;F74&amp;"""}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K75" t="str">
+        <f>IF(J75,"if (!(Test-Path env:\"&amp;H75&amp;")){$env:"&amp;H75&amp;"="""&amp;F75&amp;"""}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K76" t="str">
+        <f>IF(J76,"if (!(Test-Path env:\"&amp;H76&amp;")){$env:"&amp;H76&amp;"="""&amp;F76&amp;"""}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K77" t="str">
+        <f>IF(J77,"if (!(Test-Path env:\"&amp;H77&amp;")){$env:"&amp;H77&amp;"="""&amp;F77&amp;"""}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K78" t="str">
+        <f>IF(J78,"if (!(Test-Path env:\"&amp;H78&amp;")){$env:"&amp;H78&amp;"="""&amp;F78&amp;"""}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K79" t="str">
+        <f>IF(J79,"if (!(Test-Path env:\"&amp;H79&amp;")){$env:"&amp;H79&amp;"="""&amp;F79&amp;"""}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K80" t="str">
+        <f>IF(J80,"if (!(Test-Path env:\"&amp;H80&amp;")){$env:"&amp;H80&amp;"="""&amp;F80&amp;"""}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K81" t="str">
+        <f>IF(J81,"if (!(Test-Path env:\"&amp;H81&amp;")){$env:"&amp;H81&amp;"="""&amp;F81&amp;"""}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K82" t="str">
+        <f>IF(J82,"if (!(Test-Path env:\"&amp;H82&amp;")){$env:"&amp;H82&amp;"="""&amp;F82&amp;"""}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K83" t="str">
+        <f>IF(J83,"if (!(Test-Path env:\"&amp;H83&amp;")){$env:"&amp;H83&amp;"="""&amp;F83&amp;"""}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K84" t="str">
+        <f>IF(J84,"if (!(Test-Path env:\"&amp;H84&amp;")){$env:"&amp;H84&amp;"="""&amp;F84&amp;"""}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K85" t="str">
+        <f>IF(J85,"if (!(Test-Path env:\"&amp;H85&amp;")){$env:"&amp;H85&amp;"="""&amp;F85&amp;"""}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K86" t="str">
+        <f>IF(J86,"if (!(Test-Path env:\"&amp;H86&amp;")){$env:"&amp;H86&amp;"="""&amp;F86&amp;"""}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K87" t="str">
+        <f>IF(J87,"if (!(Test-Path env:\"&amp;H87&amp;")){$env:"&amp;H87&amp;"="""&amp;F87&amp;"""}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K88" t="str">
+        <f>IF(J88,"if (!(Test-Path env:\"&amp;H88&amp;")){$env:"&amp;H88&amp;"="""&amp;F88&amp;"""}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K89" t="str">
+        <f>IF(J89,"if (!(Test-Path env:\"&amp;H89&amp;")){$env:"&amp;H89&amp;"="""&amp;F89&amp;"""}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K90" t="str">
+        <f>IF(J90,"if (!(Test-Path env:\"&amp;H90&amp;")){$env:"&amp;H90&amp;"="""&amp;F90&amp;"""}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K91" t="str">
+        <f>IF(J91,"if (!(Test-Path env:\"&amp;H91&amp;")){$env:"&amp;H91&amp;"="""&amp;F91&amp;"""}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K92" t="str">
+        <f>IF(J92,"if (!(Test-Path env:\"&amp;H92&amp;")){$env:"&amp;H92&amp;"="""&amp;F92&amp;"""}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K93" t="str">
+        <f>IF(J93,"if (!(Test-Path env:\"&amp;H93&amp;")){$env:"&amp;H93&amp;"="""&amp;F93&amp;"""}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K94" t="str">
+        <f>IF(J94,"if (!(Test-Path env:\"&amp;H94&amp;")){$env:"&amp;H94&amp;"="""&amp;F94&amp;"""}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K95" t="str">
+        <f>IF(J95,"if (!(Test-Path env:\"&amp;H95&amp;")){$env:"&amp;H95&amp;"="""&amp;F95&amp;"""}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K96" t="str">
+        <f>IF(J96,"if (!(Test-Path env:\"&amp;H96&amp;")){$env:"&amp;H96&amp;"="""&amp;F96&amp;"""}","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K97" t="str">
+        <f>IF(J97,"if (!(Test-Path env:\"&amp;H97&amp;")){$env:"&amp;H97&amp;"="""&amp;F97&amp;"""}","")</f>
+        <v/>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:L21"/>
+  <autoFilter ref="A3:L63"/>
   <hyperlinks>
     <hyperlink ref="D1" r:id="rId1"/>
-    <hyperlink ref="D5" r:id="rId2" display="https://msdn.microsoft.com/en-us/library/dd239405%28v=sql.100%29.aspx"/>
-    <hyperlink ref="D7" r:id="rId3" location="Feature" display="https://msdn.microsoft.com/en-us/library/ms144259%28v=sql.100%29.aspx - Feature"/>
-    <hyperlink ref="D13" r:id="rId4" location="InstanceID" display="https://msdn.microsoft.com/en-us/library/ms144259%28v=sql.100%29.aspx - InstanceID"/>
-    <hyperlink ref="C21" r:id="rId5" location="Accounts" display="https://msdn.microsoft.com/en-us/library/ms144259%28v=sql.100%29.aspx - Accounts"/>
-    <hyperlink ref="D22" r:id="rId6" location="Accounts" display="https://msdn.microsoft.com/en-us/library/ms144259%28v=sql.100%29.aspx - Accounts"/>
-    <hyperlink ref="C29" r:id="rId7" location="Accounts" display="https://msdn.microsoft.com/en-us/library/ms144259%28v=sql.100%29.aspx - Accounts"/>
-    <hyperlink ref="D30" r:id="rId8" location="Accounts" display="https://msdn.microsoft.com/en-us/library/ms144259%28v=sql.100%29.aspx - Accounts"/>
-    <hyperlink ref="D34" r:id="rId9" location="Accounts" display="https://msdn.microsoft.com/en-us/library/ms144259%28v=sql.100%29.aspx - Accounts"/>
-    <hyperlink ref="C42" r:id="rId10" location="Accounts" display="https://msdn.microsoft.com/en-us/library/ms144259%28v=sql.100%29.aspx - Accounts"/>
-    <hyperlink ref="D43" r:id="rId11" location="Accounts" display="https://msdn.microsoft.com/en-us/library/ms144259%28v=sql.100%29.aspx - Accounts"/>
-    <hyperlink ref="C55" r:id="rId12" location="Accounts" display="https://msdn.microsoft.com/en-us/library/ms144259%28v=sql.100%29.aspx - Accounts"/>
-    <hyperlink ref="D56" r:id="rId13" location="Accounts" display="https://msdn.microsoft.com/en-us/library/ms144259%28v=sql.100%29.aspx - Accounts"/>
-    <hyperlink ref="C61" r:id="rId14" location="Accounts" display="https://msdn.microsoft.com/en-us/library/ms144259%28v=sql.100%29.aspx - Accounts"/>
-    <hyperlink ref="D62" r:id="rId15" location="Accounts" display="https://msdn.microsoft.com/en-us/library/ms144259%28v=sql.100%29.aspx - Accounts"/>
+    <hyperlink ref="D6" r:id="rId2" display="https://msdn.microsoft.com/en-us/library/dd239405%28v=sql.100%29.aspx"/>
+    <hyperlink ref="D8" r:id="rId3" location="Feature" display="https://msdn.microsoft.com/en-us/library/ms144259%28v=sql.100%29.aspx - Feature"/>
+    <hyperlink ref="D14" r:id="rId4" location="InstanceID" display="https://msdn.microsoft.com/en-us/library/ms144259%28v=sql.100%29.aspx - InstanceID"/>
+    <hyperlink ref="C22" r:id="rId5" location="Accounts" display="https://msdn.microsoft.com/en-us/library/ms144259%28v=sql.100%29.aspx - Accounts"/>
+    <hyperlink ref="D23" r:id="rId6" location="Accounts" display="https://msdn.microsoft.com/en-us/library/ms144259%28v=sql.100%29.aspx - Accounts"/>
+    <hyperlink ref="C30" r:id="rId7" location="Accounts" display="https://msdn.microsoft.com/en-us/library/ms144259%28v=sql.100%29.aspx - Accounts"/>
+    <hyperlink ref="D31" r:id="rId8" location="Accounts" display="https://msdn.microsoft.com/en-us/library/ms144259%28v=sql.100%29.aspx - Accounts"/>
+    <hyperlink ref="D35" r:id="rId9" location="Accounts" display="https://msdn.microsoft.com/en-us/library/ms144259%28v=sql.100%29.aspx - Accounts"/>
+    <hyperlink ref="C43" r:id="rId10" location="Accounts" display="https://msdn.microsoft.com/en-us/library/ms144259%28v=sql.100%29.aspx - Accounts"/>
+    <hyperlink ref="D44" r:id="rId11" location="Accounts" display="https://msdn.microsoft.com/en-us/library/ms144259%28v=sql.100%29.aspx - Accounts"/>
+    <hyperlink ref="C56" r:id="rId12" location="Accounts" display="https://msdn.microsoft.com/en-us/library/ms144259%28v=sql.100%29.aspx - Accounts"/>
+    <hyperlink ref="D57" r:id="rId13" location="Accounts" display="https://msdn.microsoft.com/en-us/library/ms144259%28v=sql.100%29.aspx - Accounts"/>
+    <hyperlink ref="C62" r:id="rId14" location="Accounts" display="https://msdn.microsoft.com/en-us/library/ms144259%28v=sql.100%29.aspx - Accounts"/>
+    <hyperlink ref="D63" r:id="rId15" location="Accounts" display="https://msdn.microsoft.com/en-us/library/ms144259%28v=sql.100%29.aspx - Accounts"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
@@ -4523,7 +5143,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -4534,12 +5154,12 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
+      <c r="A3" s="15"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
@@ -4548,122 +5168,122 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="15" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="13"/>
+      <c r="C6" s="15"/>
     </row>
     <row r="7" spans="1:3" ht="195" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="13"/>
+      <c r="C7" s="15"/>
     </row>
     <row r="8" spans="1:3" ht="390" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="15" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="13"/>
+      <c r="C9" s="15"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="13"/>
+      <c r="C10" s="15"/>
     </row>
     <row r="11" spans="1:3" ht="360" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="15" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
+      <c r="A12" s="15"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="13"/>
+      <c r="C12" s="15"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
+      <c r="A13" s="15"/>
       <c r="B13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="13"/>
+      <c r="C13" s="15"/>
     </row>
     <row r="14" spans="1:3" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="15" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
+      <c r="A15" s="15"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="13"/>
+      <c r="C15" s="15"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
+      <c r="A16" s="15"/>
       <c r="B16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="13"/>
+      <c r="C16" s="15"/>
     </row>
     <row r="17" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="16" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
+      <c r="A18" s="15"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="14"/>
+      <c r="C18" s="16"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
+      <c r="A19" s="15"/>
       <c r="B19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="14"/>
+      <c r="C19" s="16"/>
     </row>
     <row r="20" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -4674,12 +5294,12 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
+      <c r="A21" s="15"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
+      <c r="A22" s="15"/>
       <c r="B22" s="3" t="s">
         <v>12</v>
       </c>
@@ -4688,43 +5308,43 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
+      <c r="A23" s="15"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
+      <c r="A24" s="15"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
+      <c r="A25" s="15"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
+      <c r="A26" s="15"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
+      <c r="A27" s="15"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
+      <c r="A28" s="15"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -4735,12 +5355,12 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="13"/>
+      <c r="A30" s="15"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
     </row>
     <row r="31" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="13"/>
+      <c r="A31" s="15"/>
       <c r="B31" s="2" t="s">
         <v>27</v>
       </c>
@@ -4749,12 +5369,12 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="13"/>
+      <c r="A32" s="15"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
     </row>
     <row r="33" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="13"/>
+      <c r="A33" s="15"/>
       <c r="B33" s="2" t="s">
         <v>28</v>
       </c>
@@ -4763,65 +5383,65 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="13"/>
+      <c r="A34" s="15"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="13"/>
+      <c r="A35" s="15"/>
       <c r="B35" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C35" s="2"/>
     </row>
     <row r="36" spans="1:3" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="15" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="13"/>
+      <c r="A37" s="15"/>
       <c r="B37" s="2"/>
-      <c r="C37" s="13"/>
+      <c r="C37" s="15"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="13"/>
+      <c r="A38" s="15"/>
       <c r="B38" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C38" s="13"/>
+      <c r="C38" s="15"/>
     </row>
     <row r="39" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="13" t="s">
+      <c r="A39" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C39" s="15" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="13"/>
+      <c r="A40" s="15"/>
       <c r="B40" s="2"/>
-      <c r="C40" s="13"/>
+      <c r="C40" s="15"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="13"/>
+      <c r="A41" s="15"/>
       <c r="B41" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="13"/>
+      <c r="C41" s="15"/>
     </row>
     <row r="42" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A42" s="13" t="s">
+      <c r="A42" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -4832,12 +5452,12 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="13"/>
+      <c r="A43" s="15"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="13"/>
+      <c r="A44" s="15"/>
       <c r="B44" s="3" t="s">
         <v>12</v>
       </c>
@@ -4846,19 +5466,19 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="13"/>
+      <c r="A45" s="15"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
     </row>
     <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="13"/>
+      <c r="A46" s="15"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A47" s="13" t="s">
+      <c r="A47" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -4869,12 +5489,12 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="13"/>
+      <c r="A48" s="15"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
     </row>
     <row r="49" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="13"/>
+      <c r="A49" s="15"/>
       <c r="B49" s="3" t="s">
         <v>12</v>
       </c>
@@ -4883,65 +5503,65 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="13"/>
+      <c r="A50" s="15"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
     </row>
     <row r="51" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="13"/>
+      <c r="A51" s="15"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="150" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="13" t="s">
+      <c r="A52" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C52" s="13" t="s">
+      <c r="C52" s="15" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="13"/>
+      <c r="A53" s="15"/>
       <c r="B53" s="2"/>
-      <c r="C53" s="13"/>
+      <c r="C53" s="15"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="13"/>
+      <c r="A54" s="15"/>
       <c r="B54" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C54" s="13"/>
+      <c r="C54" s="15"/>
     </row>
     <row r="55" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="13" t="s">
+      <c r="A55" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C55" s="14" t="s">
+      <c r="C55" s="16" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="13"/>
+      <c r="A56" s="15"/>
       <c r="B56" s="2"/>
-      <c r="C56" s="14"/>
+      <c r="C56" s="16"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="13"/>
+      <c r="A57" s="15"/>
       <c r="B57" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C57" s="14"/>
+      <c r="C57" s="16"/>
     </row>
     <row r="58" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="13" t="s">
+      <c r="A58" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B58" s="2" t="s">
@@ -4952,12 +5572,12 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="13"/>
+      <c r="A59" s="15"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="13"/>
+      <c r="A60" s="15"/>
       <c r="B60" s="3" t="s">
         <v>5</v>
       </c>
@@ -4966,76 +5586,76 @@
       </c>
     </row>
     <row r="61" spans="1:3" ht="165" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="13" t="s">
+      <c r="A61" s="15" t="s">
         <v>51</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C61" s="13" t="s">
+      <c r="C61" s="15" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="13"/>
+      <c r="A62" s="15"/>
       <c r="B62" s="2"/>
-      <c r="C62" s="13"/>
+      <c r="C62" s="15"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="13"/>
+      <c r="A63" s="15"/>
       <c r="B63" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C63" s="13"/>
+      <c r="C63" s="15"/>
     </row>
     <row r="64" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="13" t="s">
+      <c r="A64" s="15" t="s">
         <v>51</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C64" s="13" t="s">
+      <c r="C64" s="15" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="13"/>
+      <c r="A65" s="15"/>
       <c r="B65" s="2"/>
-      <c r="C65" s="13"/>
+      <c r="C65" s="15"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="13"/>
+      <c r="A66" s="15"/>
       <c r="B66" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C66" s="13"/>
+      <c r="C66" s="15"/>
     </row>
     <row r="67" spans="1:3" ht="195" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="13" t="s">
+      <c r="A67" s="15" t="s">
         <v>51</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C67" s="13" t="s">
+      <c r="C67" s="15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="13"/>
+      <c r="A68" s="15"/>
       <c r="B68" s="2"/>
-      <c r="C68" s="13"/>
+      <c r="C68" s="15"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="13"/>
+      <c r="A69" s="15"/>
       <c r="B69" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C69" s="13"/>
+      <c r="C69" s="15"/>
     </row>
     <row r="70" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A70" s="13" t="s">
+      <c r="A70" s="15" t="s">
         <v>51</v>
       </c>
       <c r="B70" s="2" t="s">
@@ -5046,12 +5666,12 @@
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="13"/>
+      <c r="A71" s="15"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="13"/>
+      <c r="A72" s="15"/>
       <c r="B72" s="3" t="s">
         <v>12</v>
       </c>
@@ -5060,99 +5680,99 @@
       </c>
     </row>
     <row r="73" spans="1:3" ht="210" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="13" t="s">
+      <c r="A73" s="15" t="s">
         <v>51</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C73" s="13" t="s">
+      <c r="C73" s="15" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="13"/>
+      <c r="A74" s="15"/>
       <c r="B74" s="2"/>
-      <c r="C74" s="13"/>
+      <c r="C74" s="15"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="13"/>
+      <c r="A75" s="15"/>
       <c r="B75" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C75" s="13"/>
+      <c r="C75" s="15"/>
     </row>
     <row r="76" spans="1:3" ht="195" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="13" t="s">
+      <c r="A76" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C76" s="13" t="s">
+      <c r="C76" s="15" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="13"/>
+      <c r="A77" s="15"/>
       <c r="B77" s="2"/>
-      <c r="C77" s="13"/>
+      <c r="C77" s="15"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="13"/>
+      <c r="A78" s="15"/>
       <c r="B78" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C78" s="13"/>
+      <c r="C78" s="15"/>
     </row>
     <row r="79" spans="1:3" ht="195" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="13" t="s">
+      <c r="A79" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C79" s="13" t="s">
+      <c r="C79" s="15" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="13"/>
+      <c r="A80" s="15"/>
       <c r="B80" s="2"/>
-      <c r="C80" s="13"/>
+      <c r="C80" s="15"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="13"/>
+      <c r="A81" s="15"/>
       <c r="B81" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C81" s="13"/>
+      <c r="C81" s="15"/>
     </row>
     <row r="82" spans="1:3" ht="210" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="13" t="s">
+      <c r="A82" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C82" s="13" t="s">
+      <c r="C82" s="15" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="13"/>
+      <c r="A83" s="15"/>
       <c r="B83" s="2"/>
-      <c r="C83" s="13"/>
+      <c r="C83" s="15"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="13"/>
+      <c r="A84" s="15"/>
       <c r="B84" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C84" s="13"/>
+      <c r="C84" s="15"/>
     </row>
     <row r="85" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85" s="13" t="s">
+      <c r="A85" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B85" s="2" t="s">
@@ -5163,12 +5783,12 @@
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="13"/>
+      <c r="A86" s="15"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
     </row>
     <row r="87" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A87" s="13"/>
+      <c r="A87" s="15"/>
       <c r="B87" s="3" t="s">
         <v>12</v>
       </c>
@@ -5177,55 +5797,55 @@
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="13"/>
+      <c r="A88" s="15"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
     </row>
     <row r="89" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A89" s="13"/>
+      <c r="A89" s="15"/>
       <c r="B89" s="2"/>
       <c r="C89" s="3" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="13"/>
+      <c r="A90" s="15"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
     </row>
     <row r="91" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A91" s="13"/>
+      <c r="A91" s="15"/>
       <c r="B91" s="2"/>
       <c r="C91" s="3" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="13"/>
+      <c r="A92" s="15"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
     </row>
     <row r="93" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A93" s="13"/>
+      <c r="A93" s="15"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="13"/>
+      <c r="A94" s="15"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
     </row>
     <row r="95" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A95" s="13"/>
+      <c r="A95" s="15"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A96" s="13" t="s">
+      <c r="A96" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B96" s="2" t="s">
@@ -5236,12 +5856,12 @@
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="13"/>
+      <c r="A97" s="15"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
     </row>
     <row r="98" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A98" s="13"/>
+      <c r="A98" s="15"/>
       <c r="B98" s="3" t="s">
         <v>12</v>
       </c>
@@ -5250,112 +5870,112 @@
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="13"/>
+      <c r="A99" s="15"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="13"/>
+      <c r="A100" s="15"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="13"/>
+      <c r="A101" s="15"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="13"/>
+      <c r="A102" s="15"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="13"/>
+      <c r="A103" s="15"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="13"/>
+      <c r="A104" s="15"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="13" t="s">
+      <c r="A105" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C105" s="13" t="s">
+      <c r="C105" s="15" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="13"/>
+      <c r="A106" s="15"/>
       <c r="B106" s="2"/>
-      <c r="C106" s="13"/>
+      <c r="C106" s="15"/>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="13"/>
+      <c r="A107" s="15"/>
       <c r="B107" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C107" s="13"/>
+      <c r="C107" s="15"/>
     </row>
     <row r="108" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="13" t="s">
+      <c r="A108" s="15" t="s">
         <v>80</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C108" s="13" t="s">
+      <c r="C108" s="15" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="13"/>
+      <c r="A109" s="15"/>
       <c r="B109" s="2"/>
-      <c r="C109" s="13"/>
+      <c r="C109" s="15"/>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="13"/>
+      <c r="A110" s="15"/>
       <c r="B110" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C110" s="13"/>
+      <c r="C110" s="15"/>
     </row>
     <row r="111" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="13" t="s">
+      <c r="A111" s="15" t="s">
         <v>80</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C111" s="13" t="s">
+      <c r="C111" s="15" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="13"/>
+      <c r="A112" s="15"/>
       <c r="B112" s="2"/>
-      <c r="C112" s="13"/>
+      <c r="C112" s="15"/>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="13"/>
+      <c r="A113" s="15"/>
       <c r="B113" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C113" s="13"/>
+      <c r="C113" s="15"/>
     </row>
     <row r="114" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A114" s="13" t="s">
+      <c r="A114" s="15" t="s">
         <v>80</v>
       </c>
       <c r="B114" s="2" t="s">
@@ -5366,12 +5986,12 @@
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="13"/>
+      <c r="A115" s="15"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="13"/>
+      <c r="A116" s="15"/>
       <c r="B116" s="3" t="s">
         <v>12</v>
       </c>
@@ -5380,43 +6000,43 @@
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="13"/>
+      <c r="A117" s="15"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="13"/>
+      <c r="A118" s="15"/>
       <c r="B118" s="2"/>
       <c r="C118" s="3" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="13"/>
+      <c r="A119" s="15"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="13"/>
+      <c r="A120" s="15"/>
       <c r="B120" s="2"/>
       <c r="C120" s="3" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="13"/>
+      <c r="A121" s="15"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="13"/>
+      <c r="A122" s="15"/>
       <c r="B122" s="2"/>
       <c r="C122" s="3" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A123" s="13" t="s">
+      <c r="A123" s="15" t="s">
         <v>90</v>
       </c>
       <c r="B123" s="2" t="s">
@@ -5427,12 +6047,12 @@
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="13"/>
+      <c r="A124" s="15"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
     </row>
     <row r="125" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A125" s="13"/>
+      <c r="A125" s="15"/>
       <c r="B125" s="3" t="s">
         <v>12</v>
       </c>
@@ -5441,19 +6061,19 @@
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="13"/>
+      <c r="A126" s="15"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
     </row>
     <row r="127" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A127" s="13"/>
+      <c r="A127" s="15"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A128" s="13" t="s">
+      <c r="A128" s="15" t="s">
         <v>90</v>
       </c>
       <c r="B128" s="2" t="s">
@@ -5464,12 +6084,12 @@
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="13"/>
+      <c r="A129" s="15"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" s="13"/>
+      <c r="A130" s="15"/>
       <c r="B130" s="3" t="s">
         <v>12</v>
       </c>
@@ -5478,7 +6098,7 @@
       </c>
     </row>
     <row r="131" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A131" s="13" t="s">
+      <c r="A131" s="15" t="s">
         <v>90</v>
       </c>
       <c r="B131" s="2" t="s">
@@ -5489,12 +6109,12 @@
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" s="13"/>
+      <c r="A132" s="15"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
     </row>
     <row r="133" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A133" s="13"/>
+      <c r="A133" s="15"/>
       <c r="B133" s="3" t="s">
         <v>12</v>
       </c>
@@ -5503,19 +6123,19 @@
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" s="13"/>
+      <c r="A134" s="15"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
     </row>
     <row r="135" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A135" s="13"/>
+      <c r="A135" s="15"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A136" s="13" t="s">
+      <c r="A136" s="15" t="s">
         <v>90</v>
       </c>
       <c r="B136" s="2" t="s">
@@ -5526,12 +6146,12 @@
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" s="13"/>
+      <c r="A137" s="15"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
     </row>
     <row r="138" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A138" s="13"/>
+      <c r="A138" s="15"/>
       <c r="B138" s="3" t="s">
         <v>12</v>
       </c>
@@ -5540,19 +6160,19 @@
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" s="13"/>
+      <c r="A139" s="15"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
     </row>
     <row r="140" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A140" s="13"/>
+      <c r="A140" s="15"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A141" s="13" t="s">
+      <c r="A141" s="15" t="s">
         <v>90</v>
       </c>
       <c r="B141" s="2" t="s">
@@ -5563,12 +6183,12 @@
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" s="13"/>
+      <c r="A142" s="15"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
     </row>
     <row r="143" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A143" s="13"/>
+      <c r="A143" s="15"/>
       <c r="B143" s="3" t="s">
         <v>12</v>
       </c>
@@ -5577,88 +6197,88 @@
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144" s="13"/>
+      <c r="A144" s="15"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
     </row>
     <row r="145" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A145" s="13"/>
+      <c r="A145" s="15"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="13" t="s">
+      <c r="A146" s="15" t="s">
         <v>90</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C146" s="14" t="s">
+      <c r="C146" s="16" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" s="13"/>
+      <c r="A147" s="15"/>
       <c r="B147" s="2"/>
-      <c r="C147" s="14"/>
+      <c r="C147" s="16"/>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" s="13"/>
+      <c r="A148" s="15"/>
       <c r="B148" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C148" s="14"/>
+      <c r="C148" s="16"/>
     </row>
     <row r="149" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="13" t="s">
+      <c r="A149" s="15" t="s">
         <v>90</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C149" s="13" t="s">
+      <c r="C149" s="15" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150" s="13"/>
+      <c r="A150" s="15"/>
       <c r="B150" s="2"/>
-      <c r="C150" s="13"/>
+      <c r="C150" s="15"/>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151" s="13"/>
+      <c r="A151" s="15"/>
       <c r="B151" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C151" s="13"/>
+      <c r="C151" s="15"/>
     </row>
     <row r="152" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="13" t="s">
+      <c r="A152" s="15" t="s">
         <v>90</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C152" s="13" t="s">
+      <c r="C152" s="15" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153" s="13"/>
+      <c r="A153" s="15"/>
       <c r="B153" s="2"/>
-      <c r="C153" s="13"/>
+      <c r="C153" s="15"/>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154" s="13"/>
+      <c r="A154" s="15"/>
       <c r="B154" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C154" s="13"/>
+      <c r="C154" s="15"/>
     </row>
     <row r="155" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A155" s="13" t="s">
+      <c r="A155" s="15" t="s">
         <v>90</v>
       </c>
       <c r="B155" s="2" t="s">
@@ -5669,12 +6289,12 @@
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156" s="13"/>
+      <c r="A156" s="15"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157" s="13"/>
+      <c r="A157" s="15"/>
       <c r="B157" s="3" t="s">
         <v>12</v>
       </c>
@@ -5683,54 +6303,54 @@
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158" s="13"/>
+      <c r="A158" s="15"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159" s="13"/>
+      <c r="A159" s="15"/>
       <c r="B159" s="2"/>
       <c r="C159" s="3" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160" s="13"/>
+      <c r="A160" s="15"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A161" s="13"/>
+      <c r="A161" s="15"/>
       <c r="B161" s="2"/>
       <c r="C161" s="3" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="13" t="s">
+      <c r="A162" s="15" t="s">
         <v>90</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C162" s="13" t="s">
+      <c r="C162" s="15" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163" s="13"/>
+      <c r="A163" s="15"/>
       <c r="B163" s="2"/>
-      <c r="C163" s="13"/>
+      <c r="C163" s="15"/>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164" s="13"/>
+      <c r="A164" s="15"/>
       <c r="B164" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C164" s="13"/>
+      <c r="C164" s="15"/>
     </row>
     <row r="165" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A165" s="13" t="s">
+      <c r="A165" s="15" t="s">
         <v>90</v>
       </c>
       <c r="B165" s="2" t="s">
@@ -5741,12 +6361,12 @@
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166" s="13"/>
+      <c r="A166" s="15"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
     </row>
     <row r="167" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A167" s="13"/>
+      <c r="A167" s="15"/>
       <c r="B167" s="3" t="s">
         <v>12</v>
       </c>
@@ -5755,19 +6375,19 @@
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A168" s="13"/>
+      <c r="A168" s="15"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
     </row>
     <row r="169" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A169" s="13"/>
+      <c r="A169" s="15"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A170" s="13" t="s">
+      <c r="A170" s="15" t="s">
         <v>90</v>
       </c>
       <c r="B170" s="2" t="s">
@@ -5778,12 +6398,12 @@
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A171" s="13"/>
+      <c r="A171" s="15"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A172" s="13"/>
+      <c r="A172" s="15"/>
       <c r="B172" s="3" t="s">
         <v>12</v>
       </c>
@@ -5792,7 +6412,7 @@
       </c>
     </row>
     <row r="173" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A173" s="13" t="s">
+      <c r="A173" s="15" t="s">
         <v>90</v>
       </c>
       <c r="B173" s="2" t="s">
@@ -5803,12 +6423,12 @@
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A174" s="13"/>
+      <c r="A174" s="15"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
     </row>
     <row r="175" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A175" s="13"/>
+      <c r="A175" s="15"/>
       <c r="B175" s="3" t="s">
         <v>128</v>
       </c>
@@ -5817,30 +6437,30 @@
       </c>
     </row>
     <row r="176" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A176" s="13" t="s">
+      <c r="A176" s="15" t="s">
         <v>90</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C176" s="13" t="s">
+      <c r="C176" s="15" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A177" s="13"/>
+      <c r="A177" s="15"/>
       <c r="B177" s="2"/>
-      <c r="C177" s="13"/>
+      <c r="C177" s="15"/>
     </row>
     <row r="178" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A178" s="13"/>
+      <c r="A178" s="15"/>
       <c r="B178" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C178" s="13"/>
+      <c r="C178" s="15"/>
     </row>
     <row r="179" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A179" s="13" t="s">
+      <c r="A179" s="15" t="s">
         <v>90</v>
       </c>
       <c r="B179" s="2" t="s">
@@ -5851,12 +6471,12 @@
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A180" s="13"/>
+      <c r="A180" s="15"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
     </row>
     <row r="181" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A181" s="13"/>
+      <c r="A181" s="15"/>
       <c r="B181" s="3" t="s">
         <v>128</v>
       </c>
@@ -5865,7 +6485,7 @@
       </c>
     </row>
     <row r="182" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A182" s="13" t="s">
+      <c r="A182" s="15" t="s">
         <v>90</v>
       </c>
       <c r="B182" s="2" t="s">
@@ -5876,12 +6496,12 @@
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A183" s="13"/>
+      <c r="A183" s="15"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
     </row>
     <row r="184" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A184" s="13"/>
+      <c r="A184" s="15"/>
       <c r="B184" s="3" t="s">
         <v>128</v>
       </c>
@@ -5890,7 +6510,7 @@
       </c>
     </row>
     <row r="185" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A185" s="13" t="s">
+      <c r="A185" s="15" t="s">
         <v>137</v>
       </c>
       <c r="B185" s="2" t="s">
@@ -5901,12 +6521,12 @@
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A186" s="13"/>
+      <c r="A186" s="15"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A187" s="13"/>
+      <c r="A187" s="15"/>
       <c r="B187" s="3" t="s">
         <v>12</v>
       </c>
@@ -5915,54 +6535,54 @@
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A188" s="13"/>
+      <c r="A188" s="15"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A189" s="13"/>
+      <c r="A189" s="15"/>
       <c r="B189" s="2"/>
       <c r="C189" s="3" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A190" s="13"/>
+      <c r="A190" s="15"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A191" s="13"/>
+      <c r="A191" s="15"/>
       <c r="B191" s="2"/>
       <c r="C191" s="3" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="13" t="s">
+      <c r="A192" s="15" t="s">
         <v>140</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C192" s="13" t="s">
+      <c r="C192" s="15" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A193" s="13"/>
+      <c r="A193" s="15"/>
       <c r="B193" s="2"/>
-      <c r="C193" s="13"/>
+      <c r="C193" s="15"/>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A194" s="13"/>
+      <c r="A194" s="15"/>
       <c r="B194" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C194" s="13"/>
+      <c r="C194" s="15"/>
     </row>
     <row r="195" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A195" s="13" t="s">
+      <c r="A195" s="15" t="s">
         <v>140</v>
       </c>
       <c r="B195" s="2" t="s">
@@ -5973,12 +6593,12 @@
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A196" s="13"/>
+      <c r="A196" s="15"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
     </row>
     <row r="197" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A197" s="13"/>
+      <c r="A197" s="15"/>
       <c r="B197" s="3" t="s">
         <v>12</v>
       </c>
@@ -5987,42 +6607,42 @@
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A198" s="13"/>
+      <c r="A198" s="15"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
     </row>
     <row r="199" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A199" s="13"/>
+      <c r="A199" s="15"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="13" t="s">
+      <c r="A200" s="15" t="s">
         <v>140</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C200" s="13" t="s">
+      <c r="C200" s="15" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A201" s="13"/>
+      <c r="A201" s="15"/>
       <c r="B201" s="2"/>
-      <c r="C201" s="13"/>
+      <c r="C201" s="15"/>
     </row>
     <row r="202" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A202" s="13"/>
+      <c r="A202" s="15"/>
       <c r="B202" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C202" s="13"/>
+      <c r="C202" s="15"/>
     </row>
     <row r="203" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A203" s="13" t="s">
+      <c r="A203" s="15" t="s">
         <v>140</v>
       </c>
       <c r="B203" s="2" t="s">
@@ -6033,12 +6653,12 @@
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A204" s="13"/>
+      <c r="A204" s="15"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
     </row>
     <row r="205" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A205" s="13"/>
+      <c r="A205" s="15"/>
       <c r="B205" s="3" t="s">
         <v>12</v>
       </c>
@@ -6047,19 +6667,19 @@
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A206" s="13"/>
+      <c r="A206" s="15"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A207" s="13"/>
+      <c r="A207" s="15"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A208" s="13" t="s">
+      <c r="A208" s="15" t="s">
         <v>140</v>
       </c>
       <c r="B208" s="2" t="s">
@@ -6070,12 +6690,12 @@
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A209" s="13"/>
+      <c r="A209" s="15"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
     </row>
     <row r="210" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A210" s="13"/>
+      <c r="A210" s="15"/>
       <c r="B210" s="3" t="s">
         <v>12</v>
       </c>
@@ -6084,7 +6704,7 @@
       </c>
     </row>
     <row r="211" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A211" s="13" t="s">
+      <c r="A211" s="15" t="s">
         <v>140</v>
       </c>
       <c r="B211" s="2" t="s">
@@ -6095,12 +6715,12 @@
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A212" s="13"/>
+      <c r="A212" s="15"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
     </row>
     <row r="213" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A213" s="13"/>
+      <c r="A213" s="15"/>
       <c r="B213" s="3" t="s">
         <v>12</v>
       </c>
@@ -6109,7 +6729,7 @@
       </c>
     </row>
     <row r="214" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A214" s="13" t="s">
+      <c r="A214" s="15" t="s">
         <v>140</v>
       </c>
       <c r="B214" s="2" t="s">
@@ -6120,12 +6740,12 @@
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A215" s="13"/>
+      <c r="A215" s="15"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
     </row>
     <row r="216" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A216" s="13"/>
+      <c r="A216" s="15"/>
       <c r="B216" s="3" t="s">
         <v>12</v>
       </c>
@@ -6134,77 +6754,77 @@
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A217" s="13"/>
+      <c r="A217" s="15"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A218" s="13"/>
+      <c r="A218" s="15"/>
       <c r="B218" s="2"/>
       <c r="C218" s="3" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A219" s="13"/>
+      <c r="A219" s="15"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A220" s="13"/>
+      <c r="A220" s="15"/>
       <c r="B220" s="2"/>
       <c r="C220" s="3" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="13" t="s">
+      <c r="A221" s="15" t="s">
         <v>140</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C221" s="13" t="s">
+      <c r="C221" s="15" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A222" s="13"/>
+      <c r="A222" s="15"/>
       <c r="B222" s="2"/>
-      <c r="C222" s="13"/>
+      <c r="C222" s="15"/>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A223" s="13"/>
+      <c r="A223" s="15"/>
       <c r="B223" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C223" s="13"/>
+      <c r="C223" s="15"/>
     </row>
     <row r="224" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="13" t="s">
+      <c r="A224" s="15" t="s">
         <v>140</v>
       </c>
       <c r="B224" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C224" s="13" t="s">
+      <c r="C224" s="15" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A225" s="13"/>
+      <c r="A225" s="15"/>
       <c r="B225" s="2"/>
-      <c r="C225" s="13"/>
+      <c r="C225" s="15"/>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A226" s="13"/>
+      <c r="A226" s="15"/>
       <c r="B226" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C226" s="13"/>
+      <c r="C226" s="15"/>
     </row>
     <row r="227" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A227" s="13" t="s">
+      <c r="A227" s="15" t="s">
         <v>140</v>
       </c>
       <c r="B227" s="2" t="s">
@@ -6215,12 +6835,12 @@
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A228" s="13"/>
+      <c r="A228" s="15"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A229" s="13"/>
+      <c r="A229" s="15"/>
       <c r="B229" s="3" t="s">
         <v>12</v>
       </c>
@@ -6229,31 +6849,31 @@
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A230" s="13"/>
+      <c r="A230" s="15"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A231" s="13"/>
+      <c r="A231" s="15"/>
       <c r="B231" s="2"/>
       <c r="C231" s="3" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A232" s="13"/>
+      <c r="A232" s="15"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A233" s="13"/>
+      <c r="A233" s="15"/>
       <c r="B233" s="2"/>
       <c r="C233" s="3" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A234" s="13" t="s">
+      <c r="A234" s="15" t="s">
         <v>140</v>
       </c>
       <c r="B234" s="2" t="s">
@@ -6264,12 +6884,12 @@
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A235" s="13"/>
+      <c r="A235" s="15"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
     </row>
     <row r="236" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A236" s="13"/>
+      <c r="A236" s="15"/>
       <c r="B236" s="3" t="s">
         <v>5</v>
       </c>
@@ -6278,7 +6898,7 @@
       </c>
     </row>
     <row r="237" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A237" s="13" t="s">
+      <c r="A237" s="15" t="s">
         <v>140</v>
       </c>
       <c r="B237" s="2" t="s">
@@ -6289,12 +6909,12 @@
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A238" s="13"/>
+      <c r="A238" s="15"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
     </row>
     <row r="239" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A239" s="13"/>
+      <c r="A239" s="15"/>
       <c r="B239" s="3" t="s">
         <v>12</v>
       </c>
@@ -6303,19 +6923,19 @@
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A240" s="13"/>
+      <c r="A240" s="15"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
     </row>
     <row r="241" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A241" s="13"/>
+      <c r="A241" s="15"/>
       <c r="B241" s="2"/>
       <c r="C241" s="2" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="242" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A242" s="13" t="s">
+      <c r="A242" s="15" t="s">
         <v>140</v>
       </c>
       <c r="B242" s="2" t="s">
@@ -6326,12 +6946,12 @@
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A243" s="13"/>
+      <c r="A243" s="15"/>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
     </row>
     <row r="244" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A244" s="13"/>
+      <c r="A244" s="15"/>
       <c r="B244" s="3" t="s">
         <v>12</v>
       </c>
@@ -6340,19 +6960,19 @@
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A245" s="13"/>
+      <c r="A245" s="15"/>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
     </row>
     <row r="246" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A246" s="13"/>
+      <c r="A246" s="15"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="247" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A247" s="13" t="s">
+      <c r="A247" s="15" t="s">
         <v>140</v>
       </c>
       <c r="B247" s="2" t="s">
@@ -6363,12 +6983,12 @@
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A248" s="13"/>
+      <c r="A248" s="15"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A249" s="13"/>
+      <c r="A249" s="15"/>
       <c r="B249" s="3" t="s">
         <v>12</v>
       </c>
@@ -6377,43 +6997,43 @@
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A250" s="13"/>
+      <c r="A250" s="15"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
     </row>
     <row r="251" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A251" s="13"/>
+      <c r="A251" s="15"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A252" s="13"/>
+      <c r="A252" s="15"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
     </row>
     <row r="253" spans="1:3" ht="165" x14ac:dyDescent="0.25">
-      <c r="A253" s="13"/>
+      <c r="A253" s="15"/>
       <c r="B253" s="2"/>
       <c r="C253" s="3" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A254" s="13"/>
+      <c r="A254" s="15"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
     </row>
     <row r="255" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A255" s="13"/>
+      <c r="A255" s="15"/>
       <c r="B255" s="2"/>
       <c r="C255" s="3" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="256" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A256" s="13" t="s">
+      <c r="A256" s="15" t="s">
         <v>140</v>
       </c>
       <c r="B256" s="2" t="s">
@@ -6424,12 +7044,12 @@
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A257" s="13"/>
+      <c r="A257" s="15"/>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A258" s="13"/>
+      <c r="A258" s="15"/>
       <c r="B258" s="3" t="s">
         <v>12</v>
       </c>
@@ -6438,31 +7058,31 @@
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A259" s="13"/>
+      <c r="A259" s="15"/>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A260" s="13"/>
+      <c r="A260" s="15"/>
       <c r="B260" s="2"/>
       <c r="C260" s="2" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A261" s="13"/>
+      <c r="A261" s="15"/>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
     </row>
     <row r="262" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A262" s="13"/>
+      <c r="A262" s="15"/>
       <c r="B262" s="2"/>
       <c r="C262" s="2" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="263" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A263" s="13" t="s">
+      <c r="A263" s="15" t="s">
         <v>140</v>
       </c>
       <c r="B263" s="2" t="s">
@@ -6473,12 +7093,12 @@
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A264" s="13"/>
+      <c r="A264" s="15"/>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A265" s="13"/>
+      <c r="A265" s="15"/>
       <c r="B265" s="3" t="s">
         <v>12</v>
       </c>
@@ -6487,7 +7107,7 @@
       </c>
     </row>
     <row r="266" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A266" s="13" t="s">
+      <c r="A266" s="15" t="s">
         <v>140</v>
       </c>
       <c r="B266" s="2" t="s">
@@ -6498,12 +7118,12 @@
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A267" s="13"/>
+      <c r="A267" s="15"/>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A268" s="13"/>
+      <c r="A268" s="15"/>
       <c r="B268" s="3" t="s">
         <v>12</v>
       </c>
@@ -6512,31 +7132,31 @@
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A269" s="13"/>
+      <c r="A269" s="15"/>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A270" s="13"/>
+      <c r="A270" s="15"/>
       <c r="B270" s="2"/>
       <c r="C270" s="2" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A271" s="13"/>
+      <c r="A271" s="15"/>
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
     </row>
     <row r="272" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A272" s="13"/>
+      <c r="A272" s="15"/>
       <c r="B272" s="2"/>
       <c r="C272" s="2" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="273" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A273" s="13" t="s">
+      <c r="A273" s="15" t="s">
         <v>140</v>
       </c>
       <c r="B273" s="2" t="s">
@@ -6547,12 +7167,12 @@
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A274" s="13"/>
+      <c r="A274" s="15"/>
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A275" s="13"/>
+      <c r="A275" s="15"/>
       <c r="B275" s="3" t="s">
         <v>12</v>
       </c>
@@ -6561,7 +7181,7 @@
       </c>
     </row>
     <row r="276" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A276" s="13" t="s">
+      <c r="A276" s="15" t="s">
         <v>140</v>
       </c>
       <c r="B276" s="2" t="s">
@@ -6572,12 +7192,12 @@
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A277" s="13"/>
+      <c r="A277" s="15"/>
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
     </row>
     <row r="278" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A278" s="13"/>
+      <c r="A278" s="15"/>
       <c r="B278" s="3" t="s">
         <v>12</v>
       </c>
@@ -6586,7 +7206,7 @@
       </c>
     </row>
     <row r="279" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A279" s="13" t="s">
+      <c r="A279" s="15" t="s">
         <v>140</v>
       </c>
       <c r="B279" s="2" t="s">
@@ -6597,12 +7217,12 @@
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A280" s="13"/>
+      <c r="A280" s="15"/>
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A281" s="13"/>
+      <c r="A281" s="15"/>
       <c r="B281" s="3" t="s">
         <v>12</v>
       </c>
@@ -6611,19 +7231,19 @@
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A282" s="13"/>
+      <c r="A282" s="15"/>
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A283" s="13"/>
+      <c r="A283" s="15"/>
       <c r="B283" s="2"/>
       <c r="C283" s="2" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="284" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A284" s="13" t="s">
+      <c r="A284" s="15" t="s">
         <v>140</v>
       </c>
       <c r="B284" s="2" t="s">
@@ -6634,12 +7254,12 @@
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A285" s="13"/>
+      <c r="A285" s="15"/>
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
     </row>
     <row r="286" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A286" s="13"/>
+      <c r="A286" s="15"/>
       <c r="B286" s="3" t="s">
         <v>12</v>
       </c>
@@ -6648,7 +7268,7 @@
       </c>
     </row>
     <row r="287" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A287" s="13" t="s">
+      <c r="A287" s="15" t="s">
         <v>209</v>
       </c>
       <c r="B287" s="2" t="s">
@@ -6659,12 +7279,12 @@
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A288" s="13"/>
+      <c r="A288" s="15"/>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
     </row>
     <row r="289" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A289" s="13"/>
+      <c r="A289" s="15"/>
       <c r="B289" s="3" t="s">
         <v>12</v>
       </c>
@@ -6673,78 +7293,78 @@
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A290" s="13"/>
+      <c r="A290" s="15"/>
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A291" s="13"/>
+      <c r="A291" s="15"/>
       <c r="B291" s="2"/>
       <c r="C291" s="2" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A292" s="13"/>
+      <c r="A292" s="15"/>
       <c r="B292" s="2"/>
       <c r="C292" s="2"/>
     </row>
     <row r="293" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A293" s="13"/>
+      <c r="A293" s="15"/>
       <c r="B293" s="2"/>
       <c r="C293" s="2" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A294" s="13"/>
+      <c r="A294" s="15"/>
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
     </row>
     <row r="295" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A295" s="13"/>
+      <c r="A295" s="15"/>
       <c r="B295" s="2"/>
       <c r="C295" s="2" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="296" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A296" s="13" t="s">
+      <c r="A296" s="15" t="s">
         <v>209</v>
       </c>
       <c r="B296" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C296" s="13" t="s">
+      <c r="C296" s="15" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A297" s="13"/>
+      <c r="A297" s="15"/>
       <c r="B297" s="2"/>
-      <c r="C297" s="13"/>
+      <c r="C297" s="15"/>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A298" s="13"/>
+      <c r="A298" s="15"/>
       <c r="B298" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C298" s="13"/>
+      <c r="C298" s="15"/>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A299" s="13"/>
+      <c r="A299" s="15"/>
       <c r="B299" s="2"/>
-      <c r="C299" s="13"/>
+      <c r="C299" s="15"/>
     </row>
     <row r="300" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A300" s="13"/>
+      <c r="A300" s="15"/>
       <c r="B300" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="C300" s="13"/>
+      <c r="C300" s="15"/>
     </row>
     <row r="301" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A301" s="13" t="s">
+      <c r="A301" s="15" t="s">
         <v>219</v>
       </c>
       <c r="B301" s="2" t="s">
@@ -6755,12 +7375,12 @@
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A302" s="13"/>
+      <c r="A302" s="15"/>
       <c r="B302" s="2"/>
       <c r="C302" s="2"/>
     </row>
     <row r="303" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A303" s="13"/>
+      <c r="A303" s="15"/>
       <c r="B303" s="3" t="s">
         <v>12</v>
       </c>
@@ -6769,19 +7389,19 @@
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A304" s="13"/>
+      <c r="A304" s="15"/>
       <c r="B304" s="2"/>
       <c r="C304" s="2"/>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A305" s="13"/>
+      <c r="A305" s="15"/>
       <c r="B305" s="2"/>
       <c r="C305" s="2" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="306" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A306" s="13" t="s">
+      <c r="A306" s="15" t="s">
         <v>219</v>
       </c>
       <c r="B306" s="2" t="s">
@@ -6792,12 +7412,12 @@
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A307" s="13"/>
+      <c r="A307" s="15"/>
       <c r="B307" s="2"/>
       <c r="C307" s="2"/>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A308" s="13"/>
+      <c r="A308" s="15"/>
       <c r="B308" s="3" t="s">
         <v>12</v>
       </c>
@@ -6806,7 +7426,7 @@
       </c>
     </row>
     <row r="309" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A309" s="13" t="s">
+      <c r="A309" s="15" t="s">
         <v>227</v>
       </c>
       <c r="B309" s="2" t="s">
@@ -6817,12 +7437,12 @@
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A310" s="13"/>
+      <c r="A310" s="15"/>
       <c r="B310" s="2"/>
       <c r="C310" s="2"/>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A311" s="13"/>
+      <c r="A311" s="15"/>
       <c r="B311" s="3" t="s">
         <v>5</v>
       </c>
@@ -6831,53 +7451,53 @@
       </c>
     </row>
     <row r="312" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A312" s="13" t="s">
+      <c r="A312" s="15" t="s">
         <v>227</v>
       </c>
       <c r="B312" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="C312" s="13" t="s">
+      <c r="C312" s="15" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A313" s="13"/>
+      <c r="A313" s="15"/>
       <c r="B313" s="2"/>
-      <c r="C313" s="13"/>
+      <c r="C313" s="15"/>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A314" s="13"/>
+      <c r="A314" s="15"/>
       <c r="B314" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C314" s="13"/>
+      <c r="C314" s="15"/>
     </row>
     <row r="315" spans="1:3" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A315" s="13" t="s">
+      <c r="A315" s="15" t="s">
         <v>227</v>
       </c>
       <c r="B315" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C315" s="14" t="s">
+      <c r="C315" s="16" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A316" s="13"/>
+      <c r="A316" s="15"/>
       <c r="B316" s="2"/>
-      <c r="C316" s="14"/>
+      <c r="C316" s="16"/>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A317" s="13"/>
+      <c r="A317" s="15"/>
       <c r="B317" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C317" s="14"/>
+      <c r="C317" s="16"/>
     </row>
     <row r="318" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A318" s="13" t="s">
+      <c r="A318" s="15" t="s">
         <v>235</v>
       </c>
       <c r="B318" s="2" t="s">
@@ -6888,12 +7508,12 @@
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A319" s="13"/>
+      <c r="A319" s="15"/>
       <c r="B319" s="2"/>
       <c r="C319" s="2"/>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A320" s="13"/>
+      <c r="A320" s="15"/>
       <c r="B320" s="3" t="s">
         <v>12</v>
       </c>
@@ -6902,19 +7522,19 @@
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A321" s="13"/>
+      <c r="A321" s="15"/>
       <c r="B321" s="2"/>
       <c r="C321" s="2"/>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A322" s="13"/>
+      <c r="A322" s="15"/>
       <c r="B322" s="2"/>
       <c r="C322" s="2" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="323" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A323" s="13" t="s">
+      <c r="A323" s="15" t="s">
         <v>235</v>
       </c>
       <c r="B323" s="2" t="s">
@@ -6925,12 +7545,12 @@
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A324" s="13"/>
+      <c r="A324" s="15"/>
       <c r="B324" s="2"/>
       <c r="C324" s="2"/>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A325" s="13"/>
+      <c r="A325" s="15"/>
       <c r="B325" s="3" t="s">
         <v>12</v>
       </c>
@@ -6939,19 +7559,19 @@
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A326" s="13"/>
+      <c r="A326" s="15"/>
       <c r="B326" s="2"/>
       <c r="C326" s="2"/>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A327" s="13"/>
+      <c r="A327" s="15"/>
       <c r="B327" s="2"/>
       <c r="C327" s="2" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="328" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A328" s="13" t="s">
+      <c r="A328" s="15" t="s">
         <v>244</v>
       </c>
       <c r="B328" s="2" t="s">
@@ -6962,12 +7582,12 @@
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A329" s="13"/>
+      <c r="A329" s="15"/>
       <c r="B329" s="2"/>
       <c r="C329" s="2"/>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A330" s="13"/>
+      <c r="A330" s="15"/>
       <c r="B330" s="3" t="s">
         <v>12</v>
       </c>
@@ -6976,155 +7596,217 @@
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A331" s="13"/>
+      <c r="A331" s="15"/>
       <c r="B331" s="2"/>
       <c r="C331" s="2"/>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A332" s="13"/>
+      <c r="A332" s="15"/>
       <c r="B332" s="2"/>
       <c r="C332" s="3" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A333" s="13"/>
+      <c r="A333" s="15"/>
       <c r="B333" s="2"/>
       <c r="C333" s="2"/>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A334" s="13"/>
+      <c r="A334" s="15"/>
       <c r="B334" s="2"/>
       <c r="C334" s="3" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A335" s="13"/>
+      <c r="A335" s="15"/>
       <c r="B335" s="2"/>
       <c r="C335" s="2"/>
     </row>
     <row r="336" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A336" s="13"/>
+      <c r="A336" s="15"/>
       <c r="B336" s="2"/>
       <c r="C336" s="2" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A337" s="13"/>
+      <c r="A337" s="15"/>
       <c r="B337" s="2"/>
       <c r="C337" s="2"/>
     </row>
     <row r="338" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A338" s="13"/>
+      <c r="A338" s="15"/>
       <c r="B338" s="2"/>
       <c r="C338" s="2" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A339" s="13"/>
+      <c r="A339" s="15"/>
       <c r="B339" s="2"/>
       <c r="C339" s="2"/>
     </row>
     <row r="340" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A340" s="13"/>
+      <c r="A340" s="15"/>
       <c r="B340" s="2"/>
       <c r="C340" s="2" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="341" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A341" s="13" t="s">
+      <c r="A341" s="15" t="s">
         <v>244</v>
       </c>
       <c r="B341" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C341" s="13" t="s">
+      <c r="C341" s="15" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A342" s="13"/>
+      <c r="A342" s="15"/>
       <c r="B342" s="2"/>
-      <c r="C342" s="13"/>
+      <c r="C342" s="15"/>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A343" s="13"/>
+      <c r="A343" s="15"/>
       <c r="B343" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C343" s="13"/>
+      <c r="C343" s="15"/>
     </row>
     <row r="344" spans="1:3" ht="135" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A344" s="13" t="s">
+      <c r="A344" s="15" t="s">
         <v>244</v>
       </c>
       <c r="B344" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="C344" s="13" t="s">
+      <c r="C344" s="15" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A345" s="13"/>
+      <c r="A345" s="15"/>
       <c r="B345" s="2"/>
-      <c r="C345" s="13"/>
+      <c r="C345" s="15"/>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A346" s="13"/>
+      <c r="A346" s="15"/>
       <c r="B346" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C346" s="13"/>
+      <c r="C346" s="15"/>
     </row>
     <row r="347" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A347" s="13" t="s">
+      <c r="A347" s="15" t="s">
         <v>244</v>
       </c>
       <c r="B347" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="C347" s="14" t="s">
+      <c r="C347" s="16" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A348" s="13"/>
+      <c r="A348" s="15"/>
       <c r="B348" s="2"/>
-      <c r="C348" s="14"/>
+      <c r="C348" s="16"/>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A349" s="13"/>
+      <c r="A349" s="15"/>
       <c r="B349" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C349" s="14"/>
+      <c r="C349" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="114">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="A42:A46"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="A20:A28"/>
-    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="A347:A349"/>
+    <mergeCell ref="C347:C349"/>
+    <mergeCell ref="A318:A322"/>
+    <mergeCell ref="A323:A327"/>
+    <mergeCell ref="A328:A340"/>
+    <mergeCell ref="A341:A343"/>
+    <mergeCell ref="C341:C343"/>
+    <mergeCell ref="A344:A346"/>
+    <mergeCell ref="C344:C346"/>
+    <mergeCell ref="A306:A308"/>
+    <mergeCell ref="A309:A311"/>
+    <mergeCell ref="A312:A314"/>
+    <mergeCell ref="C312:C314"/>
+    <mergeCell ref="A315:A317"/>
+    <mergeCell ref="C315:C317"/>
+    <mergeCell ref="A279:A283"/>
+    <mergeCell ref="A284:A286"/>
+    <mergeCell ref="A287:A295"/>
+    <mergeCell ref="A296:A300"/>
+    <mergeCell ref="C296:C300"/>
+    <mergeCell ref="A301:A305"/>
+    <mergeCell ref="A247:A255"/>
+    <mergeCell ref="A256:A262"/>
+    <mergeCell ref="A263:A265"/>
+    <mergeCell ref="A266:A272"/>
+    <mergeCell ref="A273:A275"/>
+    <mergeCell ref="A276:A278"/>
+    <mergeCell ref="A224:A226"/>
+    <mergeCell ref="C224:C226"/>
+    <mergeCell ref="A227:A233"/>
+    <mergeCell ref="A234:A236"/>
+    <mergeCell ref="A237:A241"/>
+    <mergeCell ref="A242:A246"/>
+    <mergeCell ref="A203:A207"/>
+    <mergeCell ref="A208:A210"/>
+    <mergeCell ref="A211:A213"/>
+    <mergeCell ref="A214:A220"/>
+    <mergeCell ref="A221:A223"/>
+    <mergeCell ref="C221:C223"/>
+    <mergeCell ref="A185:A191"/>
+    <mergeCell ref="A192:A194"/>
+    <mergeCell ref="C192:C194"/>
+    <mergeCell ref="A195:A199"/>
+    <mergeCell ref="A200:A202"/>
+    <mergeCell ref="C200:C202"/>
+    <mergeCell ref="A170:A172"/>
+    <mergeCell ref="A173:A175"/>
+    <mergeCell ref="A176:A178"/>
+    <mergeCell ref="C176:C178"/>
+    <mergeCell ref="A179:A181"/>
+    <mergeCell ref="A182:A184"/>
+    <mergeCell ref="A152:A154"/>
+    <mergeCell ref="C152:C154"/>
+    <mergeCell ref="A155:A161"/>
+    <mergeCell ref="A162:A164"/>
+    <mergeCell ref="C162:C164"/>
+    <mergeCell ref="A165:A169"/>
+    <mergeCell ref="A136:A140"/>
+    <mergeCell ref="A141:A145"/>
+    <mergeCell ref="A146:A148"/>
+    <mergeCell ref="C146:C148"/>
+    <mergeCell ref="A149:A151"/>
+    <mergeCell ref="C149:C151"/>
+    <mergeCell ref="A111:A113"/>
+    <mergeCell ref="C111:C113"/>
+    <mergeCell ref="A114:A122"/>
+    <mergeCell ref="A123:A127"/>
+    <mergeCell ref="A128:A130"/>
+    <mergeCell ref="A131:A135"/>
+    <mergeCell ref="A85:A95"/>
+    <mergeCell ref="A96:A104"/>
+    <mergeCell ref="A105:A107"/>
+    <mergeCell ref="C105:C107"/>
+    <mergeCell ref="A108:A110"/>
+    <mergeCell ref="C108:C110"/>
+    <mergeCell ref="A76:A78"/>
+    <mergeCell ref="C76:C78"/>
+    <mergeCell ref="A79:A81"/>
+    <mergeCell ref="C79:C81"/>
+    <mergeCell ref="A82:A84"/>
+    <mergeCell ref="C82:C84"/>
     <mergeCell ref="A64:A66"/>
     <mergeCell ref="C64:C66"/>
     <mergeCell ref="A67:A69"/>
@@ -7139,87 +7821,25 @@
     <mergeCell ref="A58:A60"/>
     <mergeCell ref="A61:A63"/>
     <mergeCell ref="C61:C63"/>
-    <mergeCell ref="A85:A95"/>
-    <mergeCell ref="A96:A104"/>
-    <mergeCell ref="A105:A107"/>
-    <mergeCell ref="C105:C107"/>
-    <mergeCell ref="A108:A110"/>
-    <mergeCell ref="C108:C110"/>
-    <mergeCell ref="A76:A78"/>
-    <mergeCell ref="C76:C78"/>
-    <mergeCell ref="A79:A81"/>
-    <mergeCell ref="C79:C81"/>
-    <mergeCell ref="A82:A84"/>
-    <mergeCell ref="C82:C84"/>
-    <mergeCell ref="A136:A140"/>
-    <mergeCell ref="A141:A145"/>
-    <mergeCell ref="A146:A148"/>
-    <mergeCell ref="C146:C148"/>
-    <mergeCell ref="A149:A151"/>
-    <mergeCell ref="C149:C151"/>
-    <mergeCell ref="A111:A113"/>
-    <mergeCell ref="C111:C113"/>
-    <mergeCell ref="A114:A122"/>
-    <mergeCell ref="A123:A127"/>
-    <mergeCell ref="A128:A130"/>
-    <mergeCell ref="A131:A135"/>
-    <mergeCell ref="A170:A172"/>
-    <mergeCell ref="A173:A175"/>
-    <mergeCell ref="A176:A178"/>
-    <mergeCell ref="C176:C178"/>
-    <mergeCell ref="A179:A181"/>
-    <mergeCell ref="A182:A184"/>
-    <mergeCell ref="A152:A154"/>
-    <mergeCell ref="C152:C154"/>
-    <mergeCell ref="A155:A161"/>
-    <mergeCell ref="A162:A164"/>
-    <mergeCell ref="C162:C164"/>
-    <mergeCell ref="A165:A169"/>
-    <mergeCell ref="A203:A207"/>
-    <mergeCell ref="A208:A210"/>
-    <mergeCell ref="A211:A213"/>
-    <mergeCell ref="A214:A220"/>
-    <mergeCell ref="A221:A223"/>
-    <mergeCell ref="C221:C223"/>
-    <mergeCell ref="A185:A191"/>
-    <mergeCell ref="A192:A194"/>
-    <mergeCell ref="C192:C194"/>
-    <mergeCell ref="A195:A199"/>
-    <mergeCell ref="A200:A202"/>
-    <mergeCell ref="C200:C202"/>
-    <mergeCell ref="A247:A255"/>
-    <mergeCell ref="A256:A262"/>
-    <mergeCell ref="A263:A265"/>
-    <mergeCell ref="A266:A272"/>
-    <mergeCell ref="A273:A275"/>
-    <mergeCell ref="A276:A278"/>
-    <mergeCell ref="A224:A226"/>
-    <mergeCell ref="C224:C226"/>
-    <mergeCell ref="A227:A233"/>
-    <mergeCell ref="A234:A236"/>
-    <mergeCell ref="A237:A241"/>
-    <mergeCell ref="A242:A246"/>
-    <mergeCell ref="A306:A308"/>
-    <mergeCell ref="A309:A311"/>
-    <mergeCell ref="A312:A314"/>
-    <mergeCell ref="C312:C314"/>
-    <mergeCell ref="A315:A317"/>
-    <mergeCell ref="C315:C317"/>
-    <mergeCell ref="A279:A283"/>
-    <mergeCell ref="A284:A286"/>
-    <mergeCell ref="A287:A295"/>
-    <mergeCell ref="A296:A300"/>
-    <mergeCell ref="C296:C300"/>
-    <mergeCell ref="A301:A305"/>
-    <mergeCell ref="A347:A349"/>
-    <mergeCell ref="C347:C349"/>
-    <mergeCell ref="A318:A322"/>
-    <mergeCell ref="A323:A327"/>
-    <mergeCell ref="A328:A340"/>
-    <mergeCell ref="A341:A343"/>
-    <mergeCell ref="C341:C343"/>
-    <mergeCell ref="A344:A346"/>
-    <mergeCell ref="C344:C346"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="A20:A28"/>
+    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="C36:C38"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C17" r:id="rId1" display="https://msdn.microsoft.com/en-us/library/dd239405.aspx"/>
